--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B316C82-D52A-46E7-B4C9-5D70FEE389A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805BCCE-9681-4809-AA2C-7B77B38E376B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1397,6 +1397,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,22 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1759,46 +1759,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,46 +1908,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,46 +2057,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,7 +3202,7 @@
                   <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>331</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12411,7 +12411,7 @@
                   <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>331</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12740,46 +12740,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12880,46 +12880,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13023,46 +13023,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13160,46 +13160,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13567,46 +13567,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13716,46 +13716,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13865,46 +13865,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14282,46 +14282,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14422,46 +14422,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14565,46 +14565,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14702,46 +14702,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.47386273148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.47386273148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34893,167 +34893,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43894.680232754632</v>
+        <v>43895.47386273148</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43895.680232754632</v>
+        <v>43896.47386273148</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43896.680232754632</v>
+        <v>43897.47386273148</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43897.680232754632</v>
+        <v>43898.47386273148</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43898.680232754632</v>
+        <v>43899.47386273148</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43899.680232754632</v>
+        <v>43900.47386273148</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43900.680232754632</v>
+        <v>43901.47386273148</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43901.680232754632</v>
+        <v>43902.47386273148</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43902.680232754632</v>
+        <v>43903.47386273148</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43903.680232754632</v>
+        <v>43904.47386273148</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43904.680232754632</v>
+        <v>43905.47386273148</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43905.680232754632</v>
+        <v>43906.47386273148</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43906.680232754632</v>
+        <v>43907.47386273148</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43907.680232754632</v>
+        <v>43908.47386273148</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43908.680232754632</v>
+        <v>43909.47386273148</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43909.680232754632</v>
+        <v>43910.47386273148</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43910.680232754632</v>
+        <v>43911.47386273148</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43911.680232754632</v>
+        <v>43912.47386273148</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43912.680232754632</v>
+        <v>43913.47386273148</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43913.680232754632</v>
+        <v>43914.47386273148</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43914.680232754632</v>
+        <v>43915.47386273148</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43915.680232754632</v>
+        <v>43916.47386273148</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43916.680232754632</v>
+        <v>43917.47386273148</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43917.680232754632</v>
+        <v>43918.47386273148</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43918.680232754632</v>
+        <v>43919.47386273148</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43919.680232754632</v>
+        <v>43920.47386273148</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43920.680232754632</v>
+        <v>43921.47386273148</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43921.680232754632</v>
+        <v>43922.47386273148</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43922.680232754632</v>
+        <v>43923.47386273148</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43923.680232754632</v>
+        <v>43924.47386273148</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43924.680232754632</v>
+        <v>43925.47386273148</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43925.680232754632</v>
+        <v>43926.47386273148</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43926.680232754632</v>
+        <v>43927.47386273148</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43927.680232754632</v>
+        <v>43928.47386273148</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43928.680232754632</v>
+        <v>43929.47386273148</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43929.680232754632</v>
+        <v>43930.47386273148</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43930.680232754632</v>
+        <v>43931.47386273148</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43931.680232754632</v>
+        <v>43932.47386273148</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43932.680232754632</v>
+        <v>43933.47386273148</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43933.680232754632</v>
+        <v>43934.47386273148</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43934.680232754632</v>
+        <v>43935.47386273148</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35188,59 +35188,59 @@
       <c r="A28" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="275" t="s">
+      <c r="B28" s="289" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="276"/>
-      <c r="D28" s="276"/>
-      <c r="E28" s="276"/>
-      <c r="F28" s="276"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="281" t="s">
+      <c r="C28" s="290"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="295" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="281"/>
-      <c r="L28" s="281"/>
-      <c r="M28" s="281"/>
-      <c r="N28" s="282"/>
-      <c r="O28" s="280" t="s">
+      <c r="I28" s="295"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="295"/>
+      <c r="N28" s="296"/>
+      <c r="O28" s="294" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="281"/>
-      <c r="Q28" s="281"/>
-      <c r="R28" s="281"/>
-      <c r="S28" s="281"/>
-      <c r="T28" s="281"/>
-      <c r="U28" s="282"/>
-      <c r="V28" s="280" t="s">
+      <c r="P28" s="295"/>
+      <c r="Q28" s="295"/>
+      <c r="R28" s="295"/>
+      <c r="S28" s="295"/>
+      <c r="T28" s="295"/>
+      <c r="U28" s="296"/>
+      <c r="V28" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="281"/>
-      <c r="X28" s="281"/>
-      <c r="Y28" s="281"/>
-      <c r="Z28" s="281"/>
-      <c r="AA28" s="281"/>
-      <c r="AB28" s="282"/>
-      <c r="AC28" s="280" t="s">
+      <c r="W28" s="295"/>
+      <c r="X28" s="295"/>
+      <c r="Y28" s="295"/>
+      <c r="Z28" s="295"/>
+      <c r="AA28" s="295"/>
+      <c r="AB28" s="296"/>
+      <c r="AC28" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="AD28" s="281"/>
-      <c r="AE28" s="281"/>
-      <c r="AF28" s="281"/>
-      <c r="AG28" s="281"/>
-      <c r="AH28" s="281"/>
-      <c r="AI28" s="282"/>
-      <c r="AJ28" s="280" t="s">
+      <c r="AD28" s="295"/>
+      <c r="AE28" s="295"/>
+      <c r="AF28" s="295"/>
+      <c r="AG28" s="295"/>
+      <c r="AH28" s="295"/>
+      <c r="AI28" s="296"/>
+      <c r="AJ28" s="294" t="s">
         <v>60</v>
       </c>
-      <c r="AK28" s="281"/>
-      <c r="AL28" s="281"/>
-      <c r="AM28" s="281"/>
-      <c r="AN28" s="281"/>
-      <c r="AO28" s="281"/>
-      <c r="AP28" s="282"/>
+      <c r="AK28" s="295"/>
+      <c r="AL28" s="295"/>
+      <c r="AM28" s="295"/>
+      <c r="AN28" s="295"/>
+      <c r="AO28" s="295"/>
+      <c r="AP28" s="296"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -35251,43 +35251,43 @@
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
-      <c r="H29" s="278" t="s">
+      <c r="H29" s="292" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="278"/>
-      <c r="J29" s="278"/>
-      <c r="K29" s="278"/>
-      <c r="L29" s="278"/>
-      <c r="M29" s="278"/>
-      <c r="N29" s="278"/>
-      <c r="O29" s="278"/>
-      <c r="P29" s="278"/>
-      <c r="Q29" s="278"/>
-      <c r="R29" s="278"/>
-      <c r="S29" s="278"/>
-      <c r="T29" s="278"/>
-      <c r="U29" s="278"/>
-      <c r="V29" s="278"/>
-      <c r="W29" s="278"/>
-      <c r="X29" s="278"/>
-      <c r="Y29" s="278"/>
-      <c r="Z29" s="278"/>
-      <c r="AA29" s="278"/>
-      <c r="AB29" s="278"/>
-      <c r="AC29" s="278"/>
-      <c r="AD29" s="278"/>
-      <c r="AE29" s="278"/>
-      <c r="AF29" s="278"/>
-      <c r="AG29" s="278"/>
-      <c r="AH29" s="278"/>
-      <c r="AI29" s="278"/>
-      <c r="AJ29" s="278"/>
-      <c r="AK29" s="278"/>
-      <c r="AL29" s="278"/>
-      <c r="AM29" s="278"/>
-      <c r="AN29" s="278"/>
-      <c r="AO29" s="278"/>
-      <c r="AP29" s="279"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="292"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="292"/>
+      <c r="Q29" s="292"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="292"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="292"/>
+      <c r="AI29" s="292"/>
+      <c r="AJ29" s="292"/>
+      <c r="AK29" s="292"/>
+      <c r="AL29" s="292"/>
+      <c r="AM29" s="292"/>
+      <c r="AN29" s="292"/>
+      <c r="AO29" s="292"/>
+      <c r="AP29" s="293"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="56" t="s">
@@ -35571,8 +35571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36018,9 +36018,9 @@
         <v>43860</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="283">
-        <f>(AD17-J17)/(LOG(AD18/J18)/LOG(2))</f>
-        <v>7.8</v>
+      <c r="D14" s="275">
+        <f>(AE17-J17)/(LOG(AE18/J18)/LOG(2))</f>
+        <v>7.9047619047619051</v>
       </c>
       <c r="E14" s="164"/>
       <c r="M14" s="16"/>
@@ -36511,91 +36511,91 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="284">
+      <c r="J20" s="276">
         <f t="shared" ref="J20:S20" si="8">MAX(J18-(J26-J27)-(J28-J29)-(J30-J31),0)</f>
         <v>25.016129564011877</v>
       </c>
-      <c r="K20" s="285">
+      <c r="K20" s="277">
         <f t="shared" si="8"/>
         <v>52.366135481904664</v>
       </c>
-      <c r="L20" s="285">
+      <c r="L20" s="277">
         <f t="shared" si="8"/>
         <v>108.52625208919129</v>
       </c>
-      <c r="M20" s="285">
+      <c r="M20" s="277">
         <f t="shared" si="8"/>
         <v>222.10422027875339</v>
       </c>
-      <c r="N20" s="285">
+      <c r="N20" s="277">
         <f>MAX(N18-(N26-N27)-(N28-N29)-(N30-N31),0)</f>
         <v>447.6875</v>
       </c>
-      <c r="O20" s="285">
+      <c r="O20" s="277">
         <f t="shared" si="8"/>
         <v>906.49780135330877</v>
       </c>
-      <c r="P20" s="285">
+      <c r="P20" s="277">
         <f t="shared" si="8"/>
         <v>1856.4333005675624</v>
       </c>
-      <c r="Q20" s="285">
+      <c r="Q20" s="277">
         <f t="shared" si="8"/>
         <v>3721.4155453634608</v>
       </c>
-      <c r="R20" s="285">
+      <c r="R20" s="277">
         <f t="shared" si="8"/>
         <v>7285.310658734079</v>
       </c>
-      <c r="S20" s="285">
+      <c r="S20" s="277">
         <f t="shared" si="8"/>
         <v>11484.268999904449</v>
       </c>
-      <c r="T20" s="285">
+      <c r="T20" s="277">
         <f>MAX(T18-(T26-T27)-(T28-T29)-(T30-T31),0)</f>
         <v>14845.631764669319</v>
       </c>
-      <c r="U20" s="285">
+      <c r="U20" s="277">
         <f t="shared" ref="U20:AJ20" si="9">MAX(U18-(U26-U27)-(U28-U29)-(U30-U31),0)</f>
         <v>33152.076243296273</v>
       </c>
-      <c r="V20" s="285">
+      <c r="V20" s="277">
         <f t="shared" si="9"/>
         <v>69821.885172049617</v>
       </c>
-      <c r="W20" s="285">
+      <c r="W20" s="277">
         <f t="shared" si="9"/>
         <v>143378.69979450261</v>
       </c>
-      <c r="X20" s="285">
+      <c r="X20" s="277">
         <f t="shared" si="9"/>
         <v>295564.10020469577</v>
       </c>
-      <c r="Y20" s="285">
+      <c r="Y20" s="277">
         <f t="shared" si="9"/>
         <v>603858.13694918051</v>
       </c>
-      <c r="Z20" s="285">
+      <c r="Z20" s="277">
         <f t="shared" si="9"/>
         <v>1227070.1135663358</v>
       </c>
-      <c r="AA20" s="285">
+      <c r="AA20" s="277">
         <f t="shared" si="9"/>
         <v>2484620.7802082496</v>
       </c>
-      <c r="AB20" s="285">
+      <c r="AB20" s="277">
         <f t="shared" si="9"/>
         <v>5018539.1947045205</v>
       </c>
-      <c r="AC20" s="285">
+      <c r="AC20" s="277">
         <f t="shared" si="9"/>
         <v>10118500.107672125</v>
       </c>
-      <c r="AD20" s="285">
+      <c r="AD20" s="277">
         <f t="shared" ref="AD20:AI20" si="10">MAX(AD18-(AD26-AD27)-(AD28-AD29)-(AD30-AD31),0)</f>
         <v>20373793.735732064</v>
       </c>
-      <c r="AE20" s="285">
+      <c r="AE20" s="277">
         <f t="shared" si="10"/>
         <v>40980694.441284448</v>
       </c>
@@ -37651,7 +37651,7 @@
       <c r="H29" s="39"/>
       <c r="I29" s="62"/>
       <c r="J29" s="192">
-        <f t="shared" ref="J29:S29" si="32">J28</f>
+        <f t="shared" ref="J29:R29" si="32">J28</f>
         <v>2.8870253994390738</v>
       </c>
       <c r="K29" s="193">
@@ -37687,7 +37687,7 @@
         <v>539.69701610130301</v>
       </c>
       <c r="S29" s="184">
-        <f t="shared" ref="R29:AJ29" si="33">MAX(S28-($J$18*$B$11)*(2^(((S17 - 42) - $J$17)/HLOOKUP((S17-42)-$B$14,$J$41:$AK$43,3,TRUE)))-S31,0)</f>
+        <f t="shared" ref="S29:AJ29" si="33">MAX(S28-($J$18*$B$11)*(2^(((S17 - 42) - $J$17)/HLOOKUP((S17-42)-$B$14,$J$41:$AK$43,3,TRUE)))-S31,0)</f>
         <v>2123.7978702121991</v>
       </c>
       <c r="T29" s="184">
@@ -38737,7 +38737,7 @@
         <f t="shared" si="46"/>
         <v>11.571428571428571</v>
       </c>
-      <c r="T40" s="293">
+      <c r="T40" s="285">
         <f t="shared" si="46"/>
         <v>13</v>
       </c>
@@ -38749,7 +38749,7 @@
         <f t="shared" si="46"/>
         <v>15.857142857142858</v>
       </c>
-      <c r="W40" s="293">
+      <c r="W40" s="285">
         <f t="shared" si="46"/>
         <v>17.285714285714285</v>
       </c>
@@ -38777,7 +38777,7 @@
         <f t="shared" si="46"/>
         <v>25.857142857142858</v>
       </c>
-      <c r="AD40" s="293">
+      <c r="AD40" s="285">
         <f t="shared" ref="AD40:AI40" si="47">(AD17-$B$14)/7</f>
         <v>27.285714285714285</v>
       </c>
@@ -39188,52 +39188,52 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="286">
+      <c r="J44" s="278">
         <v>27</v>
       </c>
-      <c r="K44" s="287">
+      <c r="K44" s="279">
         <v>58</v>
       </c>
-      <c r="L44" s="287">
+      <c r="L44" s="279">
         <v>99</v>
       </c>
-      <c r="M44" s="287">
+      <c r="M44" s="279">
         <v>221</v>
       </c>
-      <c r="N44" s="287">
+      <c r="N44" s="279">
         <v>486</v>
       </c>
-      <c r="O44" s="287">
+      <c r="O44" s="279">
         <v>879</v>
       </c>
-      <c r="P44" s="287">
+      <c r="P44" s="279">
         <v>1792</v>
       </c>
-      <c r="Q44" s="287">
+      <c r="Q44" s="279">
         <v>3843</v>
       </c>
-      <c r="R44" s="287">
+      <c r="R44" s="279">
         <v>6577</v>
       </c>
-      <c r="S44" s="294"/>
-      <c r="T44" s="294"/>
-      <c r="U44" s="294"/>
-      <c r="V44" s="294"/>
-      <c r="W44" s="294"/>
-      <c r="X44" s="294"/>
-      <c r="Y44" s="294"/>
-      <c r="Z44" s="294"/>
-      <c r="AA44" s="294"/>
-      <c r="AB44" s="294"/>
-      <c r="AC44" s="294"/>
-      <c r="AD44" s="294"/>
-      <c r="AE44" s="294"/>
-      <c r="AF44" s="288"/>
-      <c r="AG44" s="288"/>
-      <c r="AH44" s="288"/>
-      <c r="AI44" s="288"/>
-      <c r="AJ44" s="288"/>
-      <c r="AK44" s="289"/>
+      <c r="S44" s="286"/>
+      <c r="T44" s="286"/>
+      <c r="U44" s="286"/>
+      <c r="V44" s="286"/>
+      <c r="W44" s="286"/>
+      <c r="X44" s="286"/>
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="286"/>
+      <c r="AA44" s="286"/>
+      <c r="AB44" s="286"/>
+      <c r="AC44" s="286"/>
+      <c r="AD44" s="286"/>
+      <c r="AE44" s="286"/>
+      <c r="AF44" s="280"/>
+      <c r="AG44" s="280"/>
+      <c r="AH44" s="280"/>
+      <c r="AI44" s="280"/>
+      <c r="AJ44" s="280"/>
+      <c r="AK44" s="281"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
@@ -39283,21 +39283,21 @@
         <f t="shared" si="70"/>
         <v>774</v>
       </c>
-      <c r="S45" s="295">
-        <v>1096</v>
-      </c>
-      <c r="T45" s="295"/>
-      <c r="U45" s="295"/>
-      <c r="V45" s="295"/>
-      <c r="W45" s="295"/>
-      <c r="X45" s="295"/>
-      <c r="Y45" s="295"/>
-      <c r="Z45" s="295"/>
-      <c r="AA45" s="295"/>
-      <c r="AB45" s="295"/>
-      <c r="AC45" s="295"/>
-      <c r="AD45" s="295"/>
-      <c r="AE45" s="295"/>
+      <c r="S45" s="287">
+        <v>1181</v>
+      </c>
+      <c r="T45" s="287"/>
+      <c r="U45" s="287"/>
+      <c r="V45" s="287"/>
+      <c r="W45" s="287"/>
+      <c r="X45" s="287"/>
+      <c r="Y45" s="287"/>
+      <c r="Z45" s="287"/>
+      <c r="AA45" s="287"/>
+      <c r="AB45" s="287"/>
+      <c r="AC45" s="287"/>
+      <c r="AD45" s="287"/>
+      <c r="AE45" s="287"/>
       <c r="AF45" s="101"/>
       <c r="AG45" s="101"/>
       <c r="AH45" s="101"/>
@@ -39317,48 +39317,48 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="290">
+      <c r="J46" s="282">
         <v>0</v>
       </c>
-      <c r="K46" s="291">
+      <c r="K46" s="283">
         <v>0</v>
       </c>
-      <c r="L46" s="292">
+      <c r="L46" s="284">
         <v>2</v>
       </c>
-      <c r="M46" s="292">
+      <c r="M46" s="284">
         <v>5</v>
       </c>
-      <c r="N46" s="292">
+      <c r="N46" s="284">
         <v>10</v>
       </c>
-      <c r="O46" s="292">
+      <c r="O46" s="284">
         <v>24</v>
       </c>
-      <c r="P46" s="292">
+      <c r="P46" s="284">
         <v>58</v>
       </c>
-      <c r="Q46" s="292">
+      <c r="Q46" s="284">
         <v>118</v>
       </c>
-      <c r="R46" s="292">
+      <c r="R46" s="284">
         <v>249</v>
       </c>
-      <c r="S46" s="296">
-        <v>331</v>
-      </c>
-      <c r="T46" s="296"/>
-      <c r="U46" s="296"/>
-      <c r="V46" s="296"/>
-      <c r="W46" s="296"/>
-      <c r="X46" s="296"/>
-      <c r="Y46" s="296"/>
-      <c r="Z46" s="296"/>
-      <c r="AA46" s="296"/>
-      <c r="AB46" s="296"/>
-      <c r="AC46" s="296"/>
-      <c r="AD46" s="296"/>
-      <c r="AE46" s="296"/>
+      <c r="S46" s="288">
+        <v>358</v>
+      </c>
+      <c r="T46" s="288"/>
+      <c r="U46" s="288"/>
+      <c r="V46" s="288"/>
+      <c r="W46" s="288"/>
+      <c r="X46" s="288"/>
+      <c r="Y46" s="288"/>
+      <c r="Z46" s="288"/>
+      <c r="AA46" s="288"/>
+      <c r="AB46" s="288"/>
+      <c r="AC46" s="288"/>
+      <c r="AD46" s="288"/>
+      <c r="AE46" s="288"/>
       <c r="AF46" s="81"/>
       <c r="AG46" s="81"/>
       <c r="AH46" s="81"/>
@@ -44004,7 +44004,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43934.680232754632</v>
+        <v>43935.47386273148</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44013,7 +44013,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>39.680232754632016</v>
+        <v>40.47386273148004</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44022,7 +44022,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>5.0063380854827333</v>
+        <v>5.1064680419636774</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44064,7 +44064,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B6)*(2^(((C7-21)-C5)/C9))</f>
-        <v>4235.0855439665293</v>
+        <v>4483.5527295398042</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44073,7 +44073,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>73315.934864196737</v>
+        <v>73067.467678623463</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44097,7 +44097,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B10)*(2^(((C7-21)-C5)/C9))</f>
-        <v>336.18109048006318</v>
+        <v>355.9044156708697</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44107,7 +44107,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>5819.8189095199368</v>
+        <v>5800.0955843291304</v>
       </c>
       <c r="F17" t="s">
         <v>143</v>
@@ -44129,7 +44129,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1.203878131711227</v>
+        <v>1.3751690199318511</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44138,7 +44138,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>1062.7961218682888</v>
+        <v>1062.6248309800681</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -44160,7 +44160,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>0.42995647561115252</v>
+        <v>0.49113179283280395</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>379.57004352438884</v>
+        <v>379.50886820716721</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44189,7 +44189,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-42)-C5)/C9))</f>
-        <v>0.7026266642375002</v>
+        <v>0.78748958075925601</v>
       </c>
       <c r="F25" t="s">
         <v>154</v>
@@ -44201,7 +44201,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>54.199298874635083</v>
+        <v>55.283319439157466</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44216,7 +44216,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>43988.879531629267</v>
+        <v>43990.757182170637</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -44228,7 +44228,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>34.942646006943704</v>
+        <v>35.641521225569086</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44240,7 +44240,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>43969.622878761576</v>
+        <v>43971.115383957047</v>
       </c>
       <c r="F29" t="s">
         <v>156</v>
@@ -44252,7 +44252,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>67.059147701941583</v>
+        <v>68.40037344946262</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44264,7 +44264,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44001.739380456573</v>
+        <v>44003.874236180942</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44273,7 +44273,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>43964.680232754632</v>
+        <v>43965.47386273148</v>
       </c>
       <c r="F34" t="s">
         <v>169</v>
@@ -44285,7 +44285,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>483845.73840334476</v>
+        <v>446000.51108772145</v>
       </c>
       <c r="F35" t="s">
         <v>141</v>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B6</f>
-        <v>4937201.4122790275</v>
+        <v>4551025.6233440964</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44306,7 +44306,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B10</f>
-        <v>391915.04810670926</v>
+        <v>361260.41398105439</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44315,7 +44315,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B11</f>
-        <v>67738.403376468268</v>
+        <v>62440.071552281006</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44324,7 +44324,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B12</f>
-        <v>24192.28692016724</v>
+        <v>22300.025554386073</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44333,7 +44333,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B13</f>
-        <v>14999.217890503687</v>
+        <v>13826.015843719364</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EAEE8-1AA2-4834-B5CF-083A3628ACCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAB89D9-A82D-4792-9F8C-DE57D10E4AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="208">
   <si>
     <t>By Age</t>
   </si>
@@ -652,6 +652,15 @@
   </si>
   <si>
     <t>India plans on lifting restrictions from 3/5, with conditional relaxation for some regions from 20/4</t>
+  </si>
+  <si>
+    <t>Some restrictions relaxed in areas not deemed hotspots</t>
+  </si>
+  <si>
+    <t>Additional relaxation of restrictions in areas not deemed hotspots</t>
+  </si>
+  <si>
+    <t>India extends lockdown for an additional two weeks beyond 4/5, separating country into three zones, red, orange, and green, with different distancing measures for each zone</t>
   </si>
 </sst>
 </file>
@@ -1804,46 +1813,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,46 +1962,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,46 +2111,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3293,6 +3302,9 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12548,6 +12560,9 @@
                 <c:pt idx="10" formatCode="#,##0">
                   <c:v>1079</c:v>
                 </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1890</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12875,46 +12890,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13015,46 +13030,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13158,46 +13173,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13295,46 +13310,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13702,46 +13717,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13851,46 +13866,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14000,46 +14015,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14417,46 +14432,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14557,46 +14572,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14700,46 +14715,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14837,46 +14852,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43912.450693981482</c:v>
+                  <c:v>43919.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43915.450693981482</c:v>
+                  <c:v>43922.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43918.450693981482</c:v>
+                  <c:v>43925.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43921.450693981482</c:v>
+                  <c:v>43928.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43924.450693981482</c:v>
+                  <c:v>43931.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43927.450693981482</c:v>
+                  <c:v>43934.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43930.450693981482</c:v>
+                  <c:v>43937.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43933.450693981482</c:v>
+                  <c:v>43940.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43936.450693981482</c:v>
+                  <c:v>43943.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43939.450693981482</c:v>
+                  <c:v>43946.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43942.450693981482</c:v>
+                  <c:v>43949.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43945.450693981482</c:v>
+                  <c:v>43952.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43948.450693981482</c:v>
+                  <c:v>43955.756522800926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43951.450693981482</c:v>
+                  <c:v>43958.756522800926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35028,167 +35043,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43912.450693981482</v>
+        <v>43919.756522800926</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43913.450693981482</v>
+        <v>43920.756522800926</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43914.450693981482</v>
+        <v>43921.756522800926</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43915.450693981482</v>
+        <v>43922.756522800926</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43916.450693981482</v>
+        <v>43923.756522800926</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43917.450693981482</v>
+        <v>43924.756522800926</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43918.450693981482</v>
+        <v>43925.756522800926</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43919.450693981482</v>
+        <v>43926.756522800926</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43920.450693981482</v>
+        <v>43927.756522800926</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43921.450693981482</v>
+        <v>43928.756522800926</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.450693981482</v>
+        <v>43929.756522800926</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43923.450693981482</v>
+        <v>43930.756522800926</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43924.450693981482</v>
+        <v>43931.756522800926</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43925.450693981482</v>
+        <v>43932.756522800926</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43926.450693981482</v>
+        <v>43933.756522800926</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43927.450693981482</v>
+        <v>43934.756522800926</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43928.450693981482</v>
+        <v>43935.756522800926</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43929.450693981482</v>
+        <v>43936.756522800926</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43930.450693981482</v>
+        <v>43937.756522800926</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43931.450693981482</v>
+        <v>43938.756522800926</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43932.450693981482</v>
+        <v>43939.756522800926</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43933.450693981482</v>
+        <v>43940.756522800926</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43934.450693981482</v>
+        <v>43941.756522800926</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43935.450693981482</v>
+        <v>43942.756522800926</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43936.450693981482</v>
+        <v>43943.756522800926</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43937.450693981482</v>
+        <v>43944.756522800926</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43938.450693981482</v>
+        <v>43945.756522800926</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43939.450693981482</v>
+        <v>43946.756522800926</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43940.450693981482</v>
+        <v>43947.756522800926</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43941.450693981482</v>
+        <v>43948.756522800926</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43942.450693981482</v>
+        <v>43949.756522800926</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.450693981482</v>
+        <v>43950.756522800926</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.450693981482</v>
+        <v>43951.756522800926</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.450693981482</v>
+        <v>43952.756522800926</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43946.450693981482</v>
+        <v>43953.756522800926</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.450693981482</v>
+        <v>43954.756522800926</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.450693981482</v>
+        <v>43955.756522800926</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.450693981482</v>
+        <v>43956.756522800926</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.450693981482</v>
+        <v>43957.756522800926</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43951.450693981482</v>
+        <v>43958.756522800926</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43952.450693981482</v>
+        <v>43959.756522800926</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35707,7 +35722,7 @@
   <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35983,6 +35998,12 @@
       <c r="O8" s="154"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
+      <c r="S8" s="267">
+        <v>43941</v>
+      </c>
+      <c r="T8" s="268" t="s">
+        <v>205</v>
+      </c>
       <c r="W8" s="66"/>
       <c r="X8" s="154"/>
       <c r="Y8" s="66"/>
@@ -36021,8 +36042,12 @@
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="154"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
+      <c r="S9" s="267">
+        <v>43946</v>
+      </c>
+      <c r="T9" s="268" t="s">
+        <v>206</v>
+      </c>
       <c r="U9" s="66"/>
       <c r="V9" s="154"/>
       <c r="W9" s="66"/>
@@ -36054,9 +36079,13 @@
       <c r="Q10" s="66"/>
       <c r="R10" s="154"/>
       <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="154"/>
+      <c r="T10" s="147">
+        <v>43952</v>
+      </c>
+      <c r="U10" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="V10" s="147"/>
       <c r="W10" s="66"/>
       <c r="X10" s="66"/>
       <c r="Y10" s="66"/>
@@ -36136,6 +36165,8 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="251"/>
       <c r="S13" s="16"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
       <c r="V13" s="204"/>
       <c r="AB13" s="165"/>
     </row>
@@ -39426,7 +39457,9 @@
         <f t="shared" si="62"/>
         <v>8437</v>
       </c>
-      <c r="U45" s="283"/>
+      <c r="U45" s="283">
+        <v>16790</v>
+      </c>
       <c r="V45" s="283"/>
       <c r="W45" s="283"/>
       <c r="X45" s="283"/>
@@ -39489,7 +39522,9 @@
       <c r="T46" s="280">
         <v>1079</v>
       </c>
-      <c r="U46" s="284"/>
+      <c r="U46" s="284">
+        <v>1890</v>
+      </c>
       <c r="V46" s="284"/>
       <c r="W46" s="284"/>
       <c r="X46" s="284"/>
@@ -44090,7 +44125,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44136,7 +44171,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="152">
-        <v>16365</v>
+        <v>56409</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44145,7 +44180,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43952.450693981482</v>
+        <v>43959.756522800926</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44154,7 +44189,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>57.450693981481891</v>
+        <v>64.756522800926177</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44163,7 +44198,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>6.3604128170087026</v>
+        <v>5.9860787596806793</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44196,7 +44231,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B6</f>
-        <v>166989.79591836734</v>
+        <v>575602.04081632651</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44205,7 +44240,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B6)*(2^(((C7-21)-C5)/C9))</f>
-        <v>16935.088856846931</v>
+        <v>50590.278913257098</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44214,7 +44249,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>150054.7070615204</v>
+        <v>525011.76190306945</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44228,7 +44263,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B10</f>
-        <v>13255.650000000001</v>
+        <v>45691.29</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44238,7 +44273,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B10)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1344.3073534565096</v>
+        <v>4015.856340134349</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44248,7 +44283,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>11911.342646543491</v>
+        <v>41675.433659865652</v>
       </c>
       <c r="F17" t="s">
         <v>143</v>
@@ -44261,7 +44296,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B11</f>
-        <v>2291.1000000000004</v>
+        <v>7897.2600000000011</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44270,7 +44305,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-49)-C5)/C9))</f>
-        <v>10.988497626557171</v>
+        <v>27.123611593446334</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44279,7 +44314,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>2280.1115023734433</v>
+        <v>7870.1363884065549</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -44291,7 +44326,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B12</f>
-        <v>818.25</v>
+        <v>2820.4500000000003</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44301,7 +44336,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>3.9244634380561325</v>
+        <v>9.6870041405165477</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44311,7 +44346,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>814.32553656194386</v>
+        <v>2810.7629958594839</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44321,7 +44356,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B13</f>
-        <v>540.04500000000007</v>
+        <v>1861.4970000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44330,7 +44365,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-42)-C5)/C9))</f>
-        <v>5.554245105582428</v>
+        <v>14.379766633257246</v>
       </c>
       <c r="F25" t="s">
         <v>154</v>
@@ -44342,7 +44377,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>61.820630893891185</v>
+        <v>47.495238997645721</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44357,7 +44392,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44014.271324875372</v>
+        <v>44007.251761798572</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -44369,7 +44404,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>37.355590854442561</v>
+        <v>24.470057968003704</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44381,7 +44416,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>43989.806284835926</v>
+        <v>43984.226580768933</v>
       </c>
       <c r="F29" t="s">
         <v>156</v>
@@ -44393,7 +44428,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>78.158709926783288</v>
+        <v>62.87176103898949</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44405,7 +44440,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44030.609403908267</v>
+        <v>44022.628283839913</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44414,7 +44449,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>43982.450693981482</v>
+        <v>43989.756522800926</v>
       </c>
       <c r="F34" t="s">
         <v>169</v>
@@ -44426,7 +44461,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>430305.26367669291</v>
+        <v>1819695.662102063</v>
       </c>
       <c r="F35" t="s">
         <v>141</v>
@@ -44438,7 +44473,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B6</f>
-        <v>4390870.0375172747</v>
+        <v>18568323.082674112</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44447,7 +44482,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B10</f>
-        <v>348547.26357812126</v>
+        <v>1473953.486302671</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44456,7 +44491,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B11</f>
-        <v>60242.736914737012</v>
+        <v>254757.39269428884</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44465,7 +44500,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B12</f>
-        <v>21515.263183834646</v>
+        <v>90984.783105103154</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44474,7 +44509,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B13</f>
-        <v>14200.073701330866</v>
+        <v>60049.956849368078</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAB89D9-A82D-4792-9F8C-DE57D10E4AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358BCD6-F691-4262-B53E-45E262A191CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="1095" yWindow="1545" windowWidth="36225" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="210">
   <si>
     <t>By Age</t>
   </si>
@@ -662,6 +662,12 @@
   <si>
     <t>India extends lockdown for an additional two weeks beyond 4/5, separating country into three zones, red, orange, and green, with different distancing measures for each zone</t>
   </si>
+  <si>
+    <t>India announces a plan to bring back Indian nationals with compelling needs stranded overseas.  They must be asymptomatic and subject to 14 day quarantine on arrival in India</t>
+  </si>
+  <si>
+    <t>Relaxation of some measures in low risk areas</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1127,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1491,6 +1497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1813,46 +1820,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,46 +1969,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,46 +2118,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,10 +2529,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -2561,6 +2568,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,10 +2584,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$18:$U$18</c:f>
+              <c:f>Projections!$J$18:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -2613,6 +2623,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,10 +2672,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -2698,6 +2711,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,10 +2727,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$42:$U$42</c:f>
+              <c:f>Projections!$J$42:$V$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -2749,7 +2765,10 @@
                   <c:v>33062</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>64000</c:v>
+                  <c:v>67161</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>128000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,10 +3096,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -3116,6 +3135,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,45 +3151,48 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$32:$U$32</c:f>
+              <c:f>Projections!$J$32:$V$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.03125</c:v>
+                  <c:v>1.0625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0625</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.125</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.25</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>264</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>528</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1056</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2112</c:v>
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3214,10 +3239,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -3253,6 +3278,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,10 +3294,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$46:$U$46</c:f>
+              <c:f>Projections!$J$46:$V$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3304,7 +3332,7 @@
                   <c:v>1079</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1890</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3760,7 +3788,7 @@
                   <c:v>10890.879945956123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20156.887707669503</c:v>
+                  <c:v>21214.342512393083</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>39108.249274687521</c:v>
@@ -3957,16 +3985,16 @@
                   <c:v>8266.2297075609786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15195.839884257293</c:v>
+                  <c:v>16253.294688980874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30582.214945995038</c:v>
+                  <c:v>30113.387472642062</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>59765.705434412695</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117573.18762082106</c:v>
+                  <c:v>117507.48739795474</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>232135.43449410607</c:v>
@@ -4157,7 +4185,7 @@
                   <c:v>4770.1370327878922</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8441.1382699362457</c:v>
+                  <c:v>8909.9657432892236</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15887.692119090347</c:v>
@@ -4354,13 +4382,13 @@
                   <c:v>3774.4387613726794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5347.8976253873825</c:v>
+                  <c:v>5816.7250987403604</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>10469.633173694136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20880.077270716291</c:v>
+                  <c:v>20346.19815275693</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>40899.052131611999</c:v>
@@ -4512,70 +4540,70 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.03125</c:v>
+                  <c:v>1.0625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0625</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.125</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.25</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>264</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>528</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1056</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2112</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4224</c:v>
+                  <c:v>4352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8448</c:v>
+                  <c:v>8704</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16896</c:v>
+                  <c:v>17408</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33792</c:v>
+                  <c:v>34816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67584</c:v>
+                  <c:v>69632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135168</c:v>
+                  <c:v>139264</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>270336</c:v>
+                  <c:v>278528</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>540672</c:v>
+                  <c:v>557056</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1081344</c:v>
+                  <c:v>1114112</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162688</c:v>
+                  <c:v>2228224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11778,10 +11806,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -11817,6 +11845,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11830,10 +11861,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$18:$U$18</c:f>
+              <c:f>Projections!$J$18:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -11869,6 +11900,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11915,10 +11949,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -11954,6 +11988,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11967,10 +12004,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$42:$U$42</c:f>
+              <c:f>Projections!$J$42:$V$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -12005,7 +12042,10 @@
                   <c:v>33062</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>64000</c:v>
+                  <c:v>67161</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>128000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12334,10 +12374,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -12373,6 +12413,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12386,45 +12429,48 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$32:$U$32</c:f>
+              <c:f>Projections!$J$32:$V$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.03125</c:v>
+                  <c:v>1.0625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0625</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.125</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.25</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>264</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>528</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1056</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2112</c:v>
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12471,10 +12517,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$17:$U$17</c:f>
+              <c:f>Projections!$J$17:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -12510,6 +12556,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12523,10 +12572,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$46:$U$46</c:f>
+              <c:f>Projections!$J$46:$V$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12561,7 +12610,7 @@
                   <c:v>1079</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1890</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12890,46 +12939,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13030,46 +13079,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13173,46 +13222,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13310,46 +13359,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13717,46 +13766,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13866,46 +13915,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14015,46 +14064,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14432,46 +14481,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14572,46 +14621,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14715,46 +14764,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14852,46 +14901,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.756522800926</c:v>
+                  <c:v>43922.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.756522800926</c:v>
+                  <c:v>43925.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.756522800926</c:v>
+                  <c:v>43928.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.756522800926</c:v>
+                  <c:v>43931.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.756522800926</c:v>
+                  <c:v>43934.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.756522800926</c:v>
+                  <c:v>43937.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.756522800926</c:v>
+                  <c:v>43940.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.756522800926</c:v>
+                  <c:v>43943.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.756522800926</c:v>
+                  <c:v>43946.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.756522800926</c:v>
+                  <c:v>43949.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.756522800926</c:v>
+                  <c:v>43952.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.756522800926</c:v>
+                  <c:v>43955.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.756522800926</c:v>
+                  <c:v>43958.728772685186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.756522800926</c:v>
+                  <c:v>43961.728772685186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15388,7 +15437,7 @@
                   <c:v>10890.879945956123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20156.887707669503</c:v>
+                  <c:v>21214.342512393083</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>39108.249274687521</c:v>
@@ -15585,16 +15634,16 @@
                   <c:v>8266.2297075609786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15195.839884257293</c:v>
+                  <c:v>16253.294688980874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30582.214945995038</c:v>
+                  <c:v>30113.387472642062</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>59765.705434412695</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117573.18762082106</c:v>
+                  <c:v>117507.48739795474</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>232135.43449410607</c:v>
@@ -15785,7 +15834,7 @@
                   <c:v>4770.1370327878922</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8441.1382699362457</c:v>
+                  <c:v>8909.9657432892236</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15887.692119090347</c:v>
@@ -15982,13 +16031,13 @@
                   <c:v>3774.4387613726794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5347.8976253873825</c:v>
+                  <c:v>5816.7250987403604</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>10469.633173694136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20880.077270716291</c:v>
+                  <c:v>20346.19815275693</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>40899.052131611999</c:v>
@@ -16140,70 +16189,70 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.03125</c:v>
+                  <c:v>1.0625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0625</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.125</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.25</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>264</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>528</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1056</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2112</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4224</c:v>
+                  <c:v>4352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8448</c:v>
+                  <c:v>8704</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16896</c:v>
+                  <c:v>17408</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33792</c:v>
+                  <c:v>34816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67584</c:v>
+                  <c:v>69632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135168</c:v>
+                  <c:v>139264</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>270336</c:v>
+                  <c:v>278528</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>540672</c:v>
+                  <c:v>557056</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1081344</c:v>
+                  <c:v>1114112</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2162688</c:v>
+                  <c:v>2228224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35043,167 +35092,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43919.756522800926</v>
+        <v>43922.728772685186</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43920.756522800926</v>
+        <v>43923.728772685186</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43921.756522800926</v>
+        <v>43924.728772685186</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.756522800926</v>
+        <v>43925.728772685186</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43923.756522800926</v>
+        <v>43926.728772685186</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43924.756522800926</v>
+        <v>43927.728772685186</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43925.756522800926</v>
+        <v>43928.728772685186</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43926.756522800926</v>
+        <v>43929.728772685186</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43927.756522800926</v>
+        <v>43930.728772685186</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43928.756522800926</v>
+        <v>43931.728772685186</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43929.756522800926</v>
+        <v>43932.728772685186</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43930.756522800926</v>
+        <v>43933.728772685186</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43931.756522800926</v>
+        <v>43934.728772685186</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43932.756522800926</v>
+        <v>43935.728772685186</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.756522800926</v>
+        <v>43936.728772685186</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.756522800926</v>
+        <v>43937.728772685186</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.756522800926</v>
+        <v>43938.728772685186</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.756522800926</v>
+        <v>43939.728772685186</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.756522800926</v>
+        <v>43940.728772685186</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.756522800926</v>
+        <v>43941.728772685186</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43939.756522800926</v>
+        <v>43942.728772685186</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43940.756522800926</v>
+        <v>43943.728772685186</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43941.756522800926</v>
+        <v>43944.728772685186</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43942.756522800926</v>
+        <v>43945.728772685186</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.756522800926</v>
+        <v>43946.728772685186</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.756522800926</v>
+        <v>43947.728772685186</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.756522800926</v>
+        <v>43948.728772685186</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43946.756522800926</v>
+        <v>43949.728772685186</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.756522800926</v>
+        <v>43950.728772685186</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.756522800926</v>
+        <v>43951.728772685186</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.756522800926</v>
+        <v>43952.728772685186</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.756522800926</v>
+        <v>43953.728772685186</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.756522800926</v>
+        <v>43954.728772685186</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.756522800926</v>
+        <v>43955.728772685186</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.756522800926</v>
+        <v>43956.728772685186</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.756522800926</v>
+        <v>43957.728772685186</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.756522800926</v>
+        <v>43958.728772685186</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.756522800926</v>
+        <v>43959.728772685186</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.756522800926</v>
+        <v>43960.728772685186</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43958.756522800926</v>
+        <v>43961.728772685186</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43959.756522800926</v>
+        <v>43962.728772685186</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35612,7 +35661,7 @@
       </c>
       <c r="C45" s="27">
         <f>Projections!B13</f>
-        <v>3.3000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -35721,8 +35770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35960,16 +36009,16 @@
       <c r="R7" s="154">
         <v>43935</v>
       </c>
-      <c r="S7" s="268" t="s">
+      <c r="S7" s="66" t="s">
         <v>204</v>
       </c>
       <c r="T7" s="267"/>
       <c r="U7" s="267"/>
       <c r="V7" s="268"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="268"/>
-      <c r="Z7" s="268"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
@@ -36115,9 +36164,13 @@
       <c r="Q11" s="154"/>
       <c r="R11" s="223"/>
       <c r="S11" s="154"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="154"/>
+      <c r="T11" s="267">
+        <v>43955</v>
+      </c>
+      <c r="U11" s="268" t="s">
+        <v>209</v>
+      </c>
+      <c r="V11" s="267"/>
       <c r="W11" s="66"/>
       <c r="X11" s="66"/>
       <c r="Y11" s="66"/>
@@ -36140,7 +36193,13 @@
       <c r="Q12" s="251"/>
       <c r="R12" s="184"/>
       <c r="S12" s="16"/>
-      <c r="V12" s="204"/>
+      <c r="T12" s="267">
+        <v>43956</v>
+      </c>
+      <c r="U12" s="268" t="s">
+        <v>208</v>
+      </c>
+      <c r="V12" s="267"/>
       <c r="AC12" s="164"/>
       <c r="AD12" s="164"/>
       <c r="AE12" s="164"/>
@@ -36154,7 +36213,7 @@
         <v>115</v>
       </c>
       <c r="B13" s="64">
-        <v>3.3000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="168" t="s">
@@ -36332,11 +36391,11 @@
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
-      <c r="T17" s="290">
+      <c r="T17" s="299">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
-      <c r="U17" s="217">
+      <c r="U17" s="290">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
@@ -36729,7 +36788,7 @@
       </c>
       <c r="W20" s="273">
         <f t="shared" si="9"/>
-        <v>107634.28505379149</v>
+        <v>99570.452512120261</v>
       </c>
       <c r="X20" s="273">
         <f t="shared" si="9"/>
@@ -36737,7 +36796,7 @@
       </c>
       <c r="Y20" s="273">
         <f t="shared" si="9"/>
-        <v>490020.47672176309</v>
+        <v>489420.89738093741</v>
       </c>
       <c r="Z20" s="273">
         <f t="shared" si="9"/>
@@ -36834,79 +36893,79 @@
       </c>
       <c r="R21" s="211">
         <f t="shared" si="12"/>
-        <v>713.55284653653689</v>
+        <v>713.51840730231311</v>
       </c>
       <c r="S21" s="211">
         <f t="shared" si="12"/>
-        <v>2855.3529366560747</v>
+        <v>2855.2375018429307</v>
       </c>
       <c r="T21" s="211">
         <f t="shared" si="12"/>
-        <v>14688.810237748547</v>
+        <v>14688.160421472761</v>
       </c>
       <c r="U21" s="211">
         <f t="shared" si="12"/>
-        <v>46124.502877853854</v>
+        <v>46120.035169520517</v>
       </c>
       <c r="V21" s="211">
         <f t="shared" si="12"/>
-        <v>82575.805166857244</v>
+        <v>82555.891201428938</v>
       </c>
       <c r="W21" s="211">
         <f t="shared" si="12"/>
-        <v>146324.17612080628</v>
+        <v>154326.14384958651</v>
       </c>
       <c r="X21" s="211">
         <f t="shared" si="12"/>
-        <v>275912.69032726745</v>
+        <v>275804.32914835954</v>
       </c>
       <c r="Y21" s="211">
         <f t="shared" si="12"/>
-        <v>527722.24840341345</v>
+        <v>527769.17555388063</v>
       </c>
       <c r="Z21" s="211">
         <f t="shared" si="12"/>
-        <v>1019570.7175470884</v>
+        <v>1019216.528750215</v>
       </c>
       <c r="AA21" s="211">
         <f t="shared" si="12"/>
-        <v>1983456.8412262816</v>
+        <v>1982783.8413815347</v>
       </c>
       <c r="AB21" s="211">
         <f t="shared" si="12"/>
-        <v>3878013.8264755951</v>
+        <v>3876720.4066325258</v>
       </c>
       <c r="AC21" s="211">
         <f t="shared" si="12"/>
-        <v>7610860.9307951741</v>
+        <v>7608355.2533549508</v>
       </c>
       <c r="AD21" s="211">
         <f t="shared" si="12"/>
-        <v>14980250.422725821</v>
+        <v>14975368.083384838</v>
       </c>
       <c r="AE21" s="211">
         <f t="shared" si="12"/>
-        <v>29552590.732968889</v>
+        <v>29543035.998421997</v>
       </c>
       <c r="AF21" s="253">
         <f>MAX(AF18-AF20-AF33,0)</f>
-        <v>58407054.186776116</v>
+        <v>58388292.948673308</v>
       </c>
       <c r="AG21" s="200">
         <f>MAX(AG18-AG20-AG33,0)</f>
-        <v>115605831.88180143</v>
+        <v>115568896.26272354</v>
       </c>
       <c r="AH21" s="200">
         <f t="shared" ref="AH21:AI21" si="13">MAX(AH18-AH20-AH33,0)</f>
-        <v>229100067.43445626</v>
+        <v>229027198.55612734</v>
       </c>
       <c r="AI21" s="201">
         <f t="shared" si="13"/>
-        <v>229100067.43445626</v>
+        <v>229027198.55612734</v>
       </c>
       <c r="AJ21" s="200">
         <f>MAX(AJ18-AJ20-AJ33,0)</f>
-        <v>454478439.50385976</v>
+        <v>454334433.55003816</v>
       </c>
       <c r="AK21" s="232"/>
       <c r="AL21" s="25"/>
@@ -37362,7 +37421,7 @@
       </c>
       <c r="W25" s="184">
         <f t="shared" si="25"/>
-        <v>1722681.2795788252</v>
+        <v>1818360.3557733106</v>
       </c>
       <c r="X25" s="184">
         <f t="shared" si="25"/>
@@ -37615,7 +37674,7 @@
       </c>
       <c r="W27" s="191">
         <f t="shared" si="30"/>
-        <v>70613.560027032829</v>
+        <v>63018.55495871458</v>
       </c>
       <c r="X27" s="191">
         <f t="shared" si="30"/>
@@ -37736,7 +37795,7 @@
       </c>
       <c r="V28" s="198">
         <f t="shared" si="31"/>
-        <v>20156.887707669503</v>
+        <v>21214.342512393083</v>
       </c>
       <c r="W28" s="198">
         <f t="shared" si="31"/>
@@ -37864,11 +37923,11 @@
       </c>
       <c r="V29" s="184">
         <f t="shared" si="33"/>
-        <v>15195.839884257293</v>
+        <v>16253.294688980874</v>
       </c>
       <c r="W29" s="184">
         <f t="shared" si="33"/>
-        <v>30582.214945995038</v>
+        <v>30113.387472642062</v>
       </c>
       <c r="X29" s="184">
         <f t="shared" si="33"/>
@@ -37876,7 +37935,7 @@
       </c>
       <c r="Y29" s="184">
         <f t="shared" si="33"/>
-        <v>117573.18762082106</v>
+        <v>117507.48739795474</v>
       </c>
       <c r="Z29" s="184">
         <f t="shared" si="33"/>
@@ -37993,7 +38052,7 @@
       </c>
       <c r="W30" s="198">
         <f t="shared" si="35"/>
-        <v>8441.1382699362457</v>
+        <v>8909.9657432892236</v>
       </c>
       <c r="X30" s="198">
         <f t="shared" si="35"/>
@@ -38121,7 +38180,7 @@
       </c>
       <c r="W31" s="191">
         <f t="shared" si="37"/>
-        <v>5347.8976253873825</v>
+        <v>5816.7250987403604</v>
       </c>
       <c r="X31" s="191">
         <f t="shared" si="37"/>
@@ -38129,7 +38188,7 @@
       </c>
       <c r="Y31" s="191">
         <f t="shared" si="37"/>
-        <v>20880.077270716291</v>
+        <v>20346.19815275693</v>
       </c>
       <c r="Z31" s="191">
         <f t="shared" si="37"/>
@@ -38194,115 +38253,115 @@
       <c r="I32" s="16"/>
       <c r="J32" s="214">
         <f t="shared" ref="J32:AJ32" si="38">J18*$B$13</f>
-        <v>1.03125</v>
+        <v>1.0625</v>
       </c>
       <c r="K32" s="215">
         <f t="shared" si="38"/>
-        <v>2.0625</v>
+        <v>2.125</v>
       </c>
       <c r="L32" s="215">
         <f t="shared" si="38"/>
-        <v>4.125</v>
+        <v>4.25</v>
       </c>
       <c r="M32" s="215">
         <f t="shared" si="38"/>
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="N32" s="215">
         <f t="shared" si="38"/>
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="O32" s="215">
         <f t="shared" si="38"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P32" s="215">
         <f t="shared" si="38"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q32" s="215">
         <f t="shared" si="38"/>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R32" s="215">
         <f t="shared" si="38"/>
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="S32" s="215">
         <f t="shared" si="38"/>
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="T32" s="215">
         <f t="shared" si="38"/>
-        <v>1056</v>
+        <v>1088</v>
       </c>
       <c r="U32" s="215">
         <f t="shared" si="38"/>
-        <v>2112</v>
+        <v>2176</v>
       </c>
       <c r="V32" s="215">
         <f t="shared" si="38"/>
-        <v>4224</v>
+        <v>4352</v>
       </c>
       <c r="W32" s="215">
         <f t="shared" si="38"/>
-        <v>8448</v>
+        <v>8704</v>
       </c>
       <c r="X32" s="215">
         <f t="shared" si="38"/>
-        <v>16896</v>
+        <v>17408</v>
       </c>
       <c r="Y32" s="215">
         <f t="shared" si="38"/>
-        <v>33792</v>
+        <v>34816</v>
       </c>
       <c r="Z32" s="215">
         <f t="shared" si="38"/>
-        <v>67584</v>
+        <v>69632</v>
       </c>
       <c r="AA32" s="215">
         <f t="shared" si="38"/>
-        <v>135168</v>
+        <v>139264</v>
       </c>
       <c r="AB32" s="215">
         <f t="shared" si="38"/>
-        <v>270336</v>
+        <v>278528</v>
       </c>
       <c r="AC32" s="215">
         <f t="shared" si="38"/>
-        <v>540672</v>
+        <v>557056</v>
       </c>
       <c r="AD32" s="215">
         <f t="shared" ref="AD32:AI32" si="39">AD18*$B$13</f>
-        <v>1081344</v>
+        <v>1114112</v>
       </c>
       <c r="AE32" s="215">
         <f t="shared" si="39"/>
-        <v>2162688</v>
+        <v>2228224</v>
       </c>
       <c r="AF32" s="227">
         <f t="shared" si="39"/>
-        <v>4325376</v>
+        <v>4456448</v>
       </c>
       <c r="AG32" s="185">
         <f t="shared" si="39"/>
-        <v>8650752</v>
+        <v>8912896</v>
       </c>
       <c r="AH32" s="185">
         <f t="shared" ref="AH32" si="40">AH18*$B$13</f>
-        <v>17301504</v>
+        <v>17825792</v>
       </c>
       <c r="AI32" s="186">
         <f t="shared" si="39"/>
-        <v>34603008</v>
+        <v>35651584</v>
       </c>
       <c r="AJ32" s="194">
         <f t="shared" si="38"/>
-        <v>45941148</v>
+        <v>47333304</v>
       </c>
       <c r="AK32" s="231">
         <f>AK18*B13</f>
-        <v>2756468.8800000004</v>
+        <v>2839998.24</v>
       </c>
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
@@ -38330,83 +38389,83 @@
       <c r="Q33" s="188"/>
       <c r="R33" s="196">
         <f t="shared" ref="R33:AJ33" si="41">($J$18*$B$13)*(2^(((R17-35)-$J$17)/HLOOKUP((R17-35)-$B$14,$J$41:$AK$43,3,TRUE)))</f>
-        <v>1.1364947293841208</v>
+        <v>1.1709339636078822</v>
       </c>
       <c r="S33" s="196">
         <f t="shared" si="41"/>
-        <v>3.8093488337540853</v>
+        <v>3.9247836468981485</v>
       </c>
       <c r="T33" s="196">
         <f t="shared" si="41"/>
-        <v>21.443937100890839</v>
+        <v>22.093753376675412</v>
       </c>
       <c r="U33" s="196">
         <f t="shared" si="41"/>
-        <v>147.43437499999996</v>
+        <v>151.90208333333331</v>
       </c>
       <c r="V33" s="196">
         <f t="shared" si="41"/>
-        <v>657.16085913404027</v>
+        <v>677.07482456234459</v>
       </c>
       <c r="W33" s="196">
         <f t="shared" si="41"/>
-        <v>2041.5388254022494</v>
+        <v>2103.4036382932268</v>
       </c>
       <c r="X33" s="196">
         <f t="shared" si="41"/>
-        <v>3575.9189039614994</v>
+        <v>3684.2800828694235</v>
       </c>
       <c r="Y33" s="196">
         <f t="shared" si="41"/>
-        <v>6257.2748748234417</v>
+        <v>6809.9270651819697</v>
       </c>
       <c r="Z33" s="196">
         <f t="shared" si="41"/>
-        <v>11688.230296821501</v>
+        <v>12042.41909369488</v>
       </c>
       <c r="AA33" s="196">
         <f t="shared" si="41"/>
-        <v>22208.994876647706</v>
+        <v>22881.994721394607</v>
       </c>
       <c r="AB33" s="196">
         <f t="shared" si="41"/>
-        <v>42682.854821286994</v>
+        <v>43976.2746643563</v>
       </c>
       <c r="AC33" s="196">
         <f t="shared" si="41"/>
-        <v>82687.355527362161</v>
+        <v>85193.032967585255</v>
       </c>
       <c r="AD33" s="196">
         <f t="shared" si="41"/>
-        <v>161117.19825243091</v>
+        <v>165999.53759341367</v>
       </c>
       <c r="AE33" s="196">
         <f t="shared" si="41"/>
-        <v>315306.24004743388</v>
+        <v>324860.97459432582</v>
       </c>
       <c r="AF33" s="228">
         <f t="shared" si="41"/>
-        <v>619120.85739257885</v>
+        <v>637882.09549538419</v>
       </c>
       <c r="AG33" s="189">
         <f t="shared" si="41"/>
-        <v>1218875.4295701692</v>
+        <v>1255811.0486480531</v>
       </c>
       <c r="AH33" s="189">
         <f t="shared" si="41"/>
-        <v>2404672.9848544258</v>
+        <v>2477541.8631833475</v>
       </c>
       <c r="AI33" s="190">
         <f t="shared" si="41"/>
-        <v>2404672.9848544258</v>
+        <v>2477541.8631833475</v>
       </c>
       <c r="AJ33" s="189">
         <f t="shared" si="41"/>
-        <v>4752196.4761132095</v>
+        <v>4896202.429934822</v>
       </c>
       <c r="AK33" s="234">
         <f>($J$18*$B$13)*(2^(((AK17 - 35) - $J$17)/AK43))</f>
-        <v>5101772.3006585892</v>
+        <v>5256371.4612846076</v>
       </c>
       <c r="AL33" s="45"/>
       <c r="AM33" s="45"/>
@@ -39144,9 +39203,8 @@
       <c r="T42" s="261">
         <v>33062</v>
       </c>
-      <c r="U42" s="262">
-        <f>U18</f>
-        <v>64000</v>
+      <c r="U42" s="261">
+        <v>67161</v>
       </c>
       <c r="V42" s="262">
         <f t="shared" ref="V42:AE42" si="51">V18</f>
@@ -39269,9 +39327,9 @@
         <f t="shared" si="55"/>
         <v>5.4423137689055636</v>
       </c>
-      <c r="U43" s="172">
+      <c r="U43" s="163">
         <f t="shared" si="55"/>
-        <v>5.9680472437608127</v>
+        <v>5.9307474729131977</v>
       </c>
       <c r="V43" s="172">
         <f t="shared" si="55"/>
@@ -39383,7 +39441,9 @@
       <c r="T44" s="275">
         <v>23546</v>
       </c>
-      <c r="U44" s="282"/>
+      <c r="U44" s="275">
+        <v>43980</v>
+      </c>
       <c r="V44" s="282"/>
       <c r="W44" s="282"/>
       <c r="X44" s="282"/>
@@ -39457,8 +39517,9 @@
         <f t="shared" si="62"/>
         <v>8437</v>
       </c>
-      <c r="U45" s="283">
-        <v>16790</v>
+      <c r="U45" s="139">
+        <f t="shared" ref="U45" si="63">U42-U46-U44</f>
+        <v>20969</v>
       </c>
       <c r="V45" s="283"/>
       <c r="W45" s="283"/>
@@ -39522,8 +39583,8 @@
       <c r="T46" s="280">
         <v>1079</v>
       </c>
-      <c r="U46" s="284">
-        <v>1890</v>
+      <c r="U46" s="280">
+        <v>2212</v>
       </c>
       <c r="V46" s="284"/>
       <c r="W46" s="284"/>
@@ -39642,111 +39703,111 @@
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="18">
-        <f t="shared" ref="J50:AJ50" si="63">J$18*$D$50</f>
+        <f t="shared" ref="J50:AJ50" si="64">J$18*$D$50</f>
         <v>0.3125</v>
       </c>
       <c r="K50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.625</v>
       </c>
       <c r="L50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.25</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.5</v>
       </c>
       <c r="N50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="O50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="P50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>20</v>
       </c>
       <c r="Q50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>40</v>
       </c>
       <c r="R50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>80</v>
       </c>
       <c r="S50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>160</v>
       </c>
       <c r="T50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>320</v>
       </c>
       <c r="U50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>640</v>
       </c>
       <c r="V50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1280</v>
       </c>
       <c r="W50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2560</v>
       </c>
       <c r="X50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5120</v>
       </c>
       <c r="Y50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10240</v>
       </c>
       <c r="Z50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>20480</v>
       </c>
       <c r="AA50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>40960</v>
       </c>
       <c r="AB50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>81920</v>
       </c>
       <c r="AC50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>163840</v>
       </c>
       <c r="AD50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>327680</v>
       </c>
       <c r="AE50" s="59">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>655360</v>
       </c>
       <c r="AF50" s="18">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1310720</v>
       </c>
       <c r="AG50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2621440</v>
       </c>
       <c r="AH50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5242880</v>
       </c>
       <c r="AI50" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10485760</v>
       </c>
       <c r="AJ50" s="59">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>13921560</v>
       </c>
       <c r="AK50" s="45"/>
@@ -39766,111 +39827,111 @@
       <c r="H51" s="15"/>
       <c r="I51" s="10"/>
       <c r="J51" s="29">
-        <f t="shared" ref="J51:AJ51" si="64">J$18*$D$50*$E$51</f>
+        <f t="shared" ref="J51:AJ51" si="65">J$18*$D$50*$E$51</f>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="K51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="L51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.185</v>
       </c>
       <c r="M51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.37</v>
       </c>
       <c r="N51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.74</v>
       </c>
       <c r="O51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.48</v>
       </c>
       <c r="P51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.96</v>
       </c>
       <c r="Q51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5.92</v>
       </c>
       <c r="R51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>11.84</v>
       </c>
       <c r="S51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>23.68</v>
       </c>
       <c r="T51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>47.36</v>
       </c>
       <c r="U51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>94.72</v>
       </c>
       <c r="V51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>189.44</v>
       </c>
       <c r="W51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>378.88</v>
       </c>
       <c r="X51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>757.76</v>
       </c>
       <c r="Y51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1515.52</v>
       </c>
       <c r="Z51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3031.04</v>
       </c>
       <c r="AA51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6062.08</v>
       </c>
       <c r="AB51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>12124.16</v>
       </c>
       <c r="AC51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>24248.32</v>
       </c>
       <c r="AD51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>48496.639999999999</v>
       </c>
       <c r="AE51" s="68">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>96993.279999999999</v>
       </c>
       <c r="AF51" s="29">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>193986.56</v>
       </c>
       <c r="AG51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>387973.12</v>
       </c>
       <c r="AH51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>775946.23999999999</v>
       </c>
       <c r="AI51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1551892.48</v>
       </c>
       <c r="AJ51" s="68">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2060390.88</v>
       </c>
       <c r="AK51" s="45"/>
@@ -39884,7 +39945,7 @@
         <v>2.3488646898463382E-2</v>
       </c>
       <c r="C52" s="10">
-        <f t="shared" ref="C52:C66" si="65">$B$5*B52</f>
+        <f t="shared" ref="C52:C66" si="66">$B$5*B52</f>
         <v>32699860.711577188</v>
       </c>
       <c r="D52" s="23">
@@ -39897,111 +39958,111 @@
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="20">
-        <f t="shared" ref="J52:AJ52" si="66">J$18*$D$52</f>
+        <f t="shared" ref="J52:AJ52" si="67">J$18*$D$52</f>
         <v>0.90625</v>
       </c>
       <c r="K52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.8125</v>
       </c>
       <c r="L52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3.625</v>
       </c>
       <c r="M52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7.25</v>
       </c>
       <c r="N52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>14.5</v>
       </c>
       <c r="O52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>29</v>
       </c>
       <c r="P52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>58</v>
       </c>
       <c r="Q52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>116</v>
       </c>
       <c r="R52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>232</v>
       </c>
       <c r="S52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>464</v>
       </c>
       <c r="T52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>928</v>
       </c>
       <c r="U52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1856</v>
       </c>
       <c r="V52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3712</v>
       </c>
       <c r="W52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7424</v>
       </c>
       <c r="X52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>14848</v>
       </c>
       <c r="Y52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>29696</v>
       </c>
       <c r="Z52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>59392</v>
       </c>
       <c r="AA52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>118784</v>
       </c>
       <c r="AB52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>237568</v>
       </c>
       <c r="AC52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>475136</v>
       </c>
       <c r="AD52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>950272</v>
       </c>
       <c r="AE52" s="69">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1900544</v>
       </c>
       <c r="AF52" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3801088</v>
       </c>
       <c r="AG52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7602176</v>
       </c>
       <c r="AH52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>15204352</v>
       </c>
       <c r="AI52" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>30408704</v>
       </c>
       <c r="AJ52" s="69">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>40372524</v>
       </c>
       <c r="AK52" s="45"/>
@@ -40021,111 +40082,111 @@
       <c r="H53" s="15"/>
       <c r="I53" s="10"/>
       <c r="J53" s="29">
-        <f t="shared" ref="J53:AJ53" si="67">J$18*$D$52*$E$53</f>
+        <f t="shared" ref="J53:AJ53" si="68">J$18*$D$52*$E$53</f>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="K53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="L53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="N53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="O53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="P53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="R53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>18.559999999999999</v>
       </c>
       <c r="S53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>37.119999999999997</v>
       </c>
       <c r="T53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>74.239999999999995</v>
       </c>
       <c r="U53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>148.47999999999999</v>
       </c>
       <c r="V53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>296.95999999999998</v>
       </c>
       <c r="W53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>593.91999999999996</v>
       </c>
       <c r="X53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1187.8399999999999</v>
       </c>
       <c r="Y53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2375.6799999999998</v>
       </c>
       <c r="Z53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4751.3599999999997</v>
       </c>
       <c r="AA53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9502.7199999999993</v>
       </c>
       <c r="AB53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>19005.439999999999</v>
       </c>
       <c r="AC53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>38010.879999999997</v>
       </c>
       <c r="AD53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>76021.759999999995</v>
       </c>
       <c r="AE53" s="68">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>152043.51999999999</v>
       </c>
       <c r="AF53" s="29">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>304087.03999999998</v>
       </c>
       <c r="AG53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>608174.07999999996</v>
       </c>
       <c r="AH53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1216348.1599999999</v>
       </c>
       <c r="AI53" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2432696.3199999998</v>
       </c>
       <c r="AJ53" s="68">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3229801.92</v>
       </c>
       <c r="AK53" s="45"/>
@@ -40139,7 +40200,7 @@
         <v>5.2953236529497287E-2</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>73719165.953958824</v>
       </c>
       <c r="D54" s="23">
@@ -40152,111 +40213,111 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="20">
-        <f t="shared" ref="J54:AJ54" si="68">J$18*$D$54</f>
+        <f t="shared" ref="J54:AJ54" si="69">J$18*$D$54</f>
         <v>3.78125</v>
       </c>
       <c r="K54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7.5625</v>
       </c>
       <c r="L54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>15.125</v>
       </c>
       <c r="M54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30.25</v>
       </c>
       <c r="N54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>60.5</v>
       </c>
       <c r="O54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>121</v>
       </c>
       <c r="P54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>242</v>
       </c>
       <c r="Q54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>484</v>
       </c>
       <c r="R54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>968</v>
       </c>
       <c r="S54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1936</v>
       </c>
       <c r="T54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3872</v>
       </c>
       <c r="U54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7744</v>
       </c>
       <c r="V54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>15488</v>
       </c>
       <c r="W54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30976</v>
       </c>
       <c r="X54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>61952</v>
       </c>
       <c r="Y54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>123904</v>
       </c>
       <c r="Z54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>247808</v>
       </c>
       <c r="AA54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>495616</v>
       </c>
       <c r="AB54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>991232</v>
       </c>
       <c r="AC54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1982464</v>
       </c>
       <c r="AD54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3964928</v>
       </c>
       <c r="AE54" s="69">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7929856</v>
       </c>
       <c r="AF54" s="20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>15859712</v>
       </c>
       <c r="AG54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>31719424</v>
       </c>
       <c r="AH54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>63438848</v>
       </c>
       <c r="AI54" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>126877696</v>
       </c>
       <c r="AJ54" s="69">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>168450876</v>
       </c>
       <c r="AK54" s="45"/>
@@ -40276,111 +40337,111 @@
       <c r="H55" s="15"/>
       <c r="I55" s="10"/>
       <c r="J55" s="29">
-        <f t="shared" ref="J55:AJ55" si="69">J$18*$D$54*$E$55</f>
+        <f t="shared" ref="J55:AJ55" si="70">J$18*$D$54*$E$55</f>
         <v>0.136125</v>
       </c>
       <c r="K55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.27224999999999999</v>
       </c>
       <c r="L55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.54449999999999998</v>
       </c>
       <c r="M55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1.089</v>
       </c>
       <c r="N55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2.1779999999999999</v>
       </c>
       <c r="O55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.3559999999999999</v>
       </c>
       <c r="P55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>8.7119999999999997</v>
       </c>
       <c r="Q55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>17.423999999999999</v>
       </c>
       <c r="R55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>34.847999999999999</v>
       </c>
       <c r="S55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>69.695999999999998</v>
       </c>
       <c r="T55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>139.392</v>
       </c>
       <c r="U55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>278.78399999999999</v>
       </c>
       <c r="V55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>557.56799999999998</v>
       </c>
       <c r="W55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1115.136</v>
       </c>
       <c r="X55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2230.2719999999999</v>
       </c>
       <c r="Y55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4460.5439999999999</v>
       </c>
       <c r="Z55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>8921.0879999999997</v>
       </c>
       <c r="AA55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>17842.175999999999</v>
       </c>
       <c r="AB55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>35684.351999999999</v>
       </c>
       <c r="AC55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>71368.703999999998</v>
       </c>
       <c r="AD55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>142737.408</v>
       </c>
       <c r="AE55" s="68">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>285474.81599999999</v>
       </c>
       <c r="AF55" s="29">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>570949.63199999998</v>
       </c>
       <c r="AG55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1141899.264</v>
       </c>
       <c r="AH55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2283798.5279999999</v>
       </c>
       <c r="AI55" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4567597.0559999999</v>
       </c>
       <c r="AJ55" s="68">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>6064231.5359999994</v>
       </c>
       <c r="AK55" s="45"/>
@@ -40394,7 +40455,7 @@
         <v>7.2853736141516481E-2</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>101423765.89182901</v>
       </c>
       <c r="D56" s="23">
@@ -40407,111 +40468,111 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="20">
-        <f t="shared" ref="J56:AJ56" si="70">J$18*$D$56</f>
+        <f t="shared" ref="J56:AJ56" si="71">J$18*$D$56</f>
         <v>4.96875</v>
       </c>
       <c r="K56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9.9375</v>
       </c>
       <c r="L56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>19.875</v>
       </c>
       <c r="M56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>39.75</v>
       </c>
       <c r="N56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>79.5</v>
       </c>
       <c r="O56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>159</v>
       </c>
       <c r="P56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>318</v>
       </c>
       <c r="Q56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>636</v>
       </c>
       <c r="R56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1272</v>
       </c>
       <c r="S56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2544</v>
       </c>
       <c r="T56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5088</v>
       </c>
       <c r="U56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>10176</v>
       </c>
       <c r="V56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>20352</v>
       </c>
       <c r="W56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>40704</v>
       </c>
       <c r="X56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>81408</v>
       </c>
       <c r="Y56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>162816</v>
       </c>
       <c r="Z56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>325632</v>
       </c>
       <c r="AA56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>651264</v>
       </c>
       <c r="AB56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1302528</v>
       </c>
       <c r="AC56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2605056</v>
       </c>
       <c r="AD56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5210112</v>
       </c>
       <c r="AE56" s="69">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>10420224</v>
       </c>
       <c r="AF56" s="20">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>20840448</v>
       </c>
       <c r="AG56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>41680896</v>
       </c>
       <c r="AH56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>83361792</v>
       </c>
       <c r="AI56" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>166723584</v>
       </c>
       <c r="AJ56" s="69">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>221352804</v>
       </c>
       <c r="AK56" s="45"/>
@@ -40531,111 +40592,111 @@
       <c r="H57" s="15"/>
       <c r="I57" s="10"/>
       <c r="J57" s="29">
-        <f t="shared" ref="J57:AJ57" si="71">J$18*$D$56*$E$57</f>
+        <f t="shared" ref="J57:AJ57" si="72">J$18*$D$56*$E$57</f>
         <v>6.4593749999999991E-2</v>
       </c>
       <c r="K57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.12918749999999998</v>
       </c>
       <c r="L57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.25837499999999997</v>
       </c>
       <c r="M57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.51674999999999993</v>
       </c>
       <c r="N57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.0334999999999999</v>
       </c>
       <c r="O57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2.0669999999999997</v>
       </c>
       <c r="P57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4.1339999999999995</v>
       </c>
       <c r="Q57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>8.2679999999999989</v>
       </c>
       <c r="R57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>16.535999999999998</v>
       </c>
       <c r="S57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>33.071999999999996</v>
       </c>
       <c r="T57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>66.143999999999991</v>
       </c>
       <c r="U57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>132.28799999999998</v>
       </c>
       <c r="V57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>264.57599999999996</v>
       </c>
       <c r="W57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>529.15199999999993</v>
       </c>
       <c r="X57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1058.3039999999999</v>
       </c>
       <c r="Y57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2116.6079999999997</v>
       </c>
       <c r="Z57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4233.2159999999994</v>
       </c>
       <c r="AA57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>8466.4319999999989</v>
       </c>
       <c r="AB57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>16932.863999999998</v>
       </c>
       <c r="AC57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>33865.727999999996</v>
       </c>
       <c r="AD57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>67731.455999999991</v>
       </c>
       <c r="AE57" s="68">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>135462.91199999998</v>
       </c>
       <c r="AF57" s="29">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>270925.82399999996</v>
       </c>
       <c r="AG57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>541851.64799999993</v>
       </c>
       <c r="AH57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1083703.2959999999</v>
       </c>
       <c r="AI57" s="30">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2167406.5919999997</v>
       </c>
       <c r="AJ57" s="68">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2877586.452</v>
       </c>
       <c r="AK57" s="45"/>
@@ -40649,7 +40710,7 @@
         <v>0.11129032093824395</v>
       </c>
       <c r="C58" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>154933488.03610194</v>
       </c>
       <c r="D58" s="23">
@@ -40662,111 +40723,111 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="20">
-        <f t="shared" ref="J58:AJ58" si="72">J$18*$D$58</f>
+        <f t="shared" ref="J58:AJ58" si="73">J$18*$D$58</f>
         <v>5.34375</v>
       </c>
       <c r="K58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>10.6875</v>
       </c>
       <c r="L58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>21.375</v>
       </c>
       <c r="M58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>42.75</v>
       </c>
       <c r="N58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>85.5</v>
       </c>
       <c r="O58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>171</v>
       </c>
       <c r="P58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>342</v>
       </c>
       <c r="Q58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>684</v>
       </c>
       <c r="R58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1368</v>
       </c>
       <c r="S58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2736</v>
       </c>
       <c r="T58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5472</v>
       </c>
       <c r="U58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>10944</v>
       </c>
       <c r="V58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>21888</v>
       </c>
       <c r="W58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>43776</v>
       </c>
       <c r="X58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>87552</v>
       </c>
       <c r="Y58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>175104</v>
       </c>
       <c r="Z58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>350208</v>
       </c>
       <c r="AA58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>700416</v>
       </c>
       <c r="AB58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1400832</v>
       </c>
       <c r="AC58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2801664</v>
       </c>
       <c r="AD58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5603328</v>
       </c>
       <c r="AE58" s="69">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>11206656</v>
       </c>
       <c r="AF58" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>22413312</v>
       </c>
       <c r="AG58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>44826624</v>
       </c>
       <c r="AH58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>89653248</v>
       </c>
       <c r="AI58" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>179306496</v>
       </c>
       <c r="AJ58" s="69">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>238058676.00000003</v>
       </c>
       <c r="AK58" s="45"/>
@@ -40786,111 +40847,111 @@
       <c r="H59" s="15"/>
       <c r="I59" s="10"/>
       <c r="J59" s="29">
-        <f t="shared" ref="J59:AJ59" si="73">J$18*$D$58*$E$59</f>
+        <f t="shared" ref="J59:AJ59" si="74">J$18*$D$58*$E$59</f>
         <v>2.1375000000000002E-2</v>
       </c>
       <c r="K59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.2750000000000003E-2</v>
       </c>
       <c r="L59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="M59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17100000000000001</v>
       </c>
       <c r="N59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="O59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="P59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1.3680000000000001</v>
       </c>
       <c r="Q59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.7360000000000002</v>
       </c>
       <c r="R59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.4720000000000004</v>
       </c>
       <c r="S59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10.944000000000001</v>
       </c>
       <c r="T59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>21.888000000000002</v>
       </c>
       <c r="U59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>43.776000000000003</v>
       </c>
       <c r="V59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>87.552000000000007</v>
       </c>
       <c r="W59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>175.10400000000001</v>
       </c>
       <c r="X59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>350.20800000000003</v>
       </c>
       <c r="Y59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>700.41600000000005</v>
       </c>
       <c r="Z59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1400.8320000000001</v>
       </c>
       <c r="AA59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2801.6640000000002</v>
       </c>
       <c r="AB59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5603.3280000000004</v>
       </c>
       <c r="AC59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11206.656000000001</v>
       </c>
       <c r="AD59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>22413.312000000002</v>
       </c>
       <c r="AE59" s="68">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>44826.624000000003</v>
       </c>
       <c r="AF59" s="29">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>89653.248000000007</v>
       </c>
       <c r="AG59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>179306.49600000001</v>
       </c>
       <c r="AH59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>358612.99200000003</v>
       </c>
       <c r="AI59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>717225.98400000005</v>
       </c>
       <c r="AJ59" s="68">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>952234.70400000014</v>
       </c>
       <c r="AK59" s="45"/>
@@ -40904,7 +40965,7 @@
         <v>0.14348178625853722</v>
       </c>
       <c r="C60" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>199749029.63054013</v>
       </c>
       <c r="D60" s="23">
@@ -40917,111 +40978,111 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="20">
-        <f t="shared" ref="J60:AJ60" si="74">J$18*$D$60</f>
+        <f t="shared" ref="J60:AJ60" si="75">J$18*$D$60</f>
         <v>6.84375</v>
       </c>
       <c r="K60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>13.6875</v>
       </c>
       <c r="L60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>27.375</v>
       </c>
       <c r="M60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>54.75</v>
       </c>
       <c r="N60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>109.5</v>
       </c>
       <c r="O60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>219</v>
       </c>
       <c r="P60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>438</v>
       </c>
       <c r="Q60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>876</v>
       </c>
       <c r="R60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1752</v>
       </c>
       <c r="S60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3504</v>
       </c>
       <c r="T60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7008</v>
       </c>
       <c r="U60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>14016</v>
       </c>
       <c r="V60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>28032</v>
       </c>
       <c r="W60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>56064</v>
       </c>
       <c r="X60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>112128</v>
       </c>
       <c r="Y60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>224256</v>
       </c>
       <c r="Z60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>448512</v>
       </c>
       <c r="AA60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>897024</v>
       </c>
       <c r="AB60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1794048</v>
       </c>
       <c r="AC60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3588096</v>
       </c>
       <c r="AD60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7176192</v>
       </c>
       <c r="AE60" s="69">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>14352384</v>
       </c>
       <c r="AF60" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>28704768</v>
       </c>
       <c r="AG60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>57409536</v>
       </c>
       <c r="AH60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>114819072</v>
       </c>
       <c r="AI60" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>229638144</v>
       </c>
       <c r="AJ60" s="69">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>304882164</v>
       </c>
       <c r="AK60" s="45"/>
@@ -41041,111 +41102,111 @@
       <c r="H61" s="15"/>
       <c r="I61" s="10"/>
       <c r="J61" s="29">
-        <f t="shared" ref="J61:AJ61" si="75">J$18*$D$60*$E$61</f>
+        <f t="shared" ref="J61:AJ61" si="76">J$18*$D$60*$E$61</f>
         <v>1.36875E-2</v>
       </c>
       <c r="K61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.7375E-2</v>
       </c>
       <c r="L61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5.475E-2</v>
       </c>
       <c r="M61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.1095</v>
       </c>
       <c r="N61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.219</v>
       </c>
       <c r="O61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.438</v>
       </c>
       <c r="P61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.876</v>
       </c>
       <c r="Q61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.752</v>
       </c>
       <c r="R61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3.504</v>
       </c>
       <c r="S61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7.008</v>
       </c>
       <c r="T61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>14.016</v>
       </c>
       <c r="U61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>28.032</v>
       </c>
       <c r="V61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>56.064</v>
       </c>
       <c r="W61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>112.128</v>
       </c>
       <c r="X61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>224.256</v>
       </c>
       <c r="Y61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>448.512</v>
       </c>
       <c r="Z61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>897.024</v>
       </c>
       <c r="AA61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1794.048</v>
       </c>
       <c r="AB61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3588.096</v>
       </c>
       <c r="AC61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7176.192</v>
       </c>
       <c r="AD61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>14352.384</v>
       </c>
       <c r="AE61" s="68">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>28704.768</v>
       </c>
       <c r="AF61" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>57409.536</v>
       </c>
       <c r="AG61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>114819.072</v>
       </c>
       <c r="AH61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>229638.144</v>
       </c>
       <c r="AI61" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>459276.288</v>
       </c>
       <c r="AJ61" s="68">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>609764.32799999998</v>
       </c>
       <c r="AK61" s="45"/>
@@ -41159,7 +41220,7 @@
         <v>0.17577512670206416</v>
       </c>
       <c r="C62" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>244706397.28903884</v>
       </c>
       <c r="D62" s="23">
@@ -41172,111 +41233,111 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="20">
-        <f t="shared" ref="J62:AJ62" si="76">J$18*$D$62</f>
+        <f t="shared" ref="J62:AJ62" si="77">J$18*$D$62</f>
         <v>7.25</v>
       </c>
       <c r="K62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14.5</v>
       </c>
       <c r="L62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>29</v>
       </c>
       <c r="M62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>58</v>
       </c>
       <c r="N62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>116</v>
       </c>
       <c r="O62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>232</v>
       </c>
       <c r="P62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>464</v>
       </c>
       <c r="Q62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>928</v>
       </c>
       <c r="R62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1856</v>
       </c>
       <c r="S62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3712</v>
       </c>
       <c r="T62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7424</v>
       </c>
       <c r="U62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14848</v>
       </c>
       <c r="V62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>29696</v>
       </c>
       <c r="W62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>59392</v>
       </c>
       <c r="X62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>118784</v>
       </c>
       <c r="Y62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>237568</v>
       </c>
       <c r="Z62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>475136</v>
       </c>
       <c r="AA62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>950272</v>
       </c>
       <c r="AB62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1900544</v>
       </c>
       <c r="AC62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3801088</v>
       </c>
       <c r="AD62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7602176</v>
       </c>
       <c r="AE62" s="69">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>15204352</v>
       </c>
       <c r="AF62" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>30408704</v>
       </c>
       <c r="AG62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>60817408</v>
       </c>
       <c r="AH62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>121634816</v>
       </c>
       <c r="AI62" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>243269632</v>
       </c>
       <c r="AJ62" s="69">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>322980192</v>
       </c>
       <c r="AK62" s="45"/>
@@ -41296,111 +41357,111 @@
       <c r="H63" s="15"/>
       <c r="I63" s="10"/>
       <c r="J63" s="29">
-        <f t="shared" ref="J63:AJ63" si="77">J$18*$D$62*$E$63</f>
+        <f t="shared" ref="J63:AJ63" si="78">J$18*$D$62*$E$63</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="K63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="L63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="M63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.11600000000000001</v>
       </c>
       <c r="N63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="O63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.46400000000000002</v>
       </c>
       <c r="P63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="Q63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1.8560000000000001</v>
       </c>
       <c r="R63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3.7120000000000002</v>
       </c>
       <c r="S63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7.4240000000000004</v>
       </c>
       <c r="T63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14.848000000000001</v>
       </c>
       <c r="U63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>29.696000000000002</v>
       </c>
       <c r="V63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>59.392000000000003</v>
       </c>
       <c r="W63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>118.78400000000001</v>
       </c>
       <c r="X63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>237.56800000000001</v>
       </c>
       <c r="Y63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>475.13600000000002</v>
       </c>
       <c r="Z63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>950.27200000000005</v>
       </c>
       <c r="AA63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1900.5440000000001</v>
       </c>
       <c r="AB63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3801.0880000000002</v>
       </c>
       <c r="AC63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7602.1760000000004</v>
       </c>
       <c r="AD63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15204.352000000001</v>
       </c>
       <c r="AE63" s="68">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30408.704000000002</v>
       </c>
       <c r="AF63" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>60817.408000000003</v>
       </c>
       <c r="AG63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>121634.81600000001</v>
       </c>
       <c r="AH63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>243269.63200000001</v>
       </c>
       <c r="AI63" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>486539.26400000002</v>
       </c>
       <c r="AJ63" s="68">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>645960.38399999996</v>
       </c>
       <c r="AK63" s="45"/>
@@ -41414,7 +41475,7 @@
         <v>0.20913789496692137</v>
       </c>
       <c r="C64" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>291152575.30556941</v>
       </c>
       <c r="D64" s="23">
@@ -41427,111 +41488,111 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="20">
-        <f t="shared" ref="J64:AJ64" si="78">J$18*$D$64</f>
+        <f t="shared" ref="J64:AJ64" si="79">J$18*$D$64</f>
         <v>1.1875</v>
       </c>
       <c r="K64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2.375</v>
       </c>
       <c r="L64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.75</v>
       </c>
       <c r="M64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9.5</v>
       </c>
       <c r="N64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19</v>
       </c>
       <c r="O64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>38</v>
       </c>
       <c r="P64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>76</v>
       </c>
       <c r="Q64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>152</v>
       </c>
       <c r="R64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>304</v>
       </c>
       <c r="S64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>608</v>
       </c>
       <c r="T64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1216</v>
       </c>
       <c r="U64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2432</v>
       </c>
       <c r="V64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4864</v>
       </c>
       <c r="W64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9728</v>
       </c>
       <c r="X64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19456</v>
       </c>
       <c r="Y64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>38912</v>
       </c>
       <c r="Z64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>77824</v>
       </c>
       <c r="AA64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>155648</v>
       </c>
       <c r="AB64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>311296</v>
       </c>
       <c r="AC64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>622592</v>
       </c>
       <c r="AD64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1245184</v>
       </c>
       <c r="AE64" s="69">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2490368</v>
       </c>
       <c r="AF64" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4980736</v>
       </c>
       <c r="AG64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9961472</v>
       </c>
       <c r="AH64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19922944</v>
       </c>
       <c r="AI64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>39845888</v>
       </c>
       <c r="AJ64" s="69">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>52901928</v>
       </c>
       <c r="AK64" s="45"/>
@@ -41549,111 +41610,111 @@
       <c r="H65" s="15"/>
       <c r="I65" s="10"/>
       <c r="J65" s="29">
-        <f t="shared" ref="J65:AJ65" si="79">J$18*$D$64*$E$65</f>
+        <f t="shared" ref="J65:AJ65" si="80">J$18*$D$64*$E$65</f>
         <v>2.3749999999999999E-3</v>
       </c>
       <c r="K65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="L65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="M65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.9E-2</v>
       </c>
       <c r="N65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="P65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.152</v>
       </c>
       <c r="Q65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.30399999999999999</v>
       </c>
       <c r="R65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="S65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.216</v>
       </c>
       <c r="T65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.4319999999999999</v>
       </c>
       <c r="U65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4.8639999999999999</v>
       </c>
       <c r="V65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9.7279999999999998</v>
       </c>
       <c r="W65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>19.456</v>
       </c>
       <c r="X65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>38.911999999999999</v>
       </c>
       <c r="Y65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>77.823999999999998</v>
       </c>
       <c r="Z65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>155.648</v>
       </c>
       <c r="AA65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>311.29599999999999</v>
       </c>
       <c r="AB65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>622.59199999999998</v>
       </c>
       <c r="AC65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1245.184</v>
       </c>
       <c r="AD65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2490.3679999999999</v>
       </c>
       <c r="AE65" s="68">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4980.7359999999999</v>
       </c>
       <c r="AF65" s="29">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9961.4719999999998</v>
       </c>
       <c r="AG65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>19922.944</v>
       </c>
       <c r="AH65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>39845.887999999999</v>
       </c>
       <c r="AI65" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>79691.775999999998</v>
       </c>
       <c r="AJ65" s="68">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>105803.856</v>
       </c>
       <c r="AK65" s="45"/>
@@ -41667,7 +41728,7 @@
         <v>0.19798812289970874</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>275630353.22356695</v>
       </c>
       <c r="D66" s="23">
@@ -41680,111 +41741,111 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="20">
-        <f t="shared" ref="J66:AJ66" si="80">J$18*$D$66</f>
+        <f t="shared" ref="J66:AJ66" si="81">J$18*$D$66</f>
         <v>0.65625</v>
       </c>
       <c r="K66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1.3125</v>
       </c>
       <c r="L66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2.625</v>
       </c>
       <c r="M66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5.25</v>
       </c>
       <c r="N66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10.5</v>
       </c>
       <c r="O66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>21</v>
       </c>
       <c r="P66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>42</v>
       </c>
       <c r="Q66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>84</v>
       </c>
       <c r="R66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>168</v>
       </c>
       <c r="S66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>336</v>
       </c>
       <c r="T66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>672</v>
       </c>
       <c r="U66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1344</v>
       </c>
       <c r="V66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2688</v>
       </c>
       <c r="W66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5376</v>
       </c>
       <c r="X66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10752</v>
       </c>
       <c r="Y66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>21504</v>
       </c>
       <c r="Z66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>43008</v>
       </c>
       <c r="AA66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>86016</v>
       </c>
       <c r="AB66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>172032</v>
       </c>
       <c r="AC66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>344064</v>
       </c>
       <c r="AD66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>688128</v>
       </c>
       <c r="AE66" s="69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1376256</v>
       </c>
       <c r="AF66" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2752512</v>
       </c>
       <c r="AG66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5505024</v>
       </c>
       <c r="AH66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>11010048</v>
       </c>
       <c r="AI66" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>22020096</v>
       </c>
       <c r="AJ66" s="69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>29235276</v>
       </c>
       <c r="AK66" s="45"/>
@@ -41802,111 +41863,111 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="31">
-        <f t="shared" ref="J67:AJ67" si="81">J$18*$D$66*$E$67</f>
+        <f t="shared" ref="J67:AJ67" si="82">J$18*$D$66*$E$67</f>
         <v>0</v>
       </c>
       <c r="K67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="M67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="R67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="S67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="U67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="V67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="W67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="X67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Y67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Z67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AA67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AB67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AC67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AD67" s="32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AE67" s="70">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AF67" s="29">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AG67" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AH67" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AI67" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="68">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AK67" s="45"/>
@@ -41924,23 +41985,23 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="18">
-        <f t="shared" ref="J68:Z68" si="82">SUM(J50,J52,J54,J56,J58,J60,J62,J64,J66)</f>
+        <f t="shared" ref="J68:Z68" si="83">SUM(J50,J52,J54,J56,J58,J60,J62,J64,J66)</f>
         <v>31.25</v>
       </c>
       <c r="K68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>62.5</v>
       </c>
       <c r="L68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>125</v>
       </c>
       <c r="M68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>250</v>
       </c>
       <c r="N68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>500</v>
       </c>
       <c r="O68" s="19">
@@ -41948,87 +42009,87 @@
         <v>1000</v>
       </c>
       <c r="P68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2000</v>
       </c>
       <c r="Q68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4000</v>
       </c>
       <c r="R68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>8000</v>
       </c>
       <c r="S68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>16000</v>
       </c>
       <c r="T68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>32000</v>
       </c>
       <c r="U68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>64000</v>
       </c>
       <c r="V68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>128000</v>
       </c>
       <c r="W68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>256000</v>
       </c>
       <c r="X68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>512000</v>
       </c>
       <c r="Y68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1024000</v>
       </c>
       <c r="Z68" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2048000</v>
       </c>
       <c r="AA68" s="19">
-        <f t="shared" ref="AA68:AC69" si="83">SUM(AA50,AA52,AA54,AA56,AA58,AA60,AA62,AA64,AA66)</f>
+        <f t="shared" ref="AA68:AC69" si="84">SUM(AA50,AA52,AA54,AA56,AA58,AA60,AA62,AA64,AA66)</f>
         <v>4096000</v>
       </c>
       <c r="AB68" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>8192000</v>
       </c>
       <c r="AC68" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>16384000</v>
       </c>
       <c r="AD68" s="19">
-        <f t="shared" ref="AD68:AJ68" si="84">SUM(AD50,AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66)</f>
+        <f t="shared" ref="AD68:AJ68" si="85">SUM(AD50,AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66)</f>
         <v>32768000</v>
       </c>
       <c r="AE68" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>65536000</v>
       </c>
       <c r="AF68" s="18">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>131072000</v>
       </c>
       <c r="AG68" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>262144000</v>
       </c>
       <c r="AH68" s="19">
-        <f t="shared" ref="AH68" si="85">SUM(AH50,AH52,AH54,AH56,AH58,AH60,AH62,AH64,AH66)</f>
+        <f t="shared" ref="AH68" si="86">SUM(AH50,AH52,AH54,AH56,AH58,AH60,AH62,AH64,AH66)</f>
         <v>524288000</v>
       </c>
       <c r="AI68" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1048576000</v>
       </c>
       <c r="AJ68" s="59">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1392156000</v>
       </c>
       <c r="AK68" s="45"/>
@@ -42054,103 +42115,103 @@
         <v>0.74281249999999999</v>
       </c>
       <c r="L69" s="32">
-        <f t="shared" ref="L69:Z69" si="86">SUM(L51,L53,L55,L57,L59,L61,L63,L65,L67)</f>
+        <f t="shared" ref="L69:Z69" si="87">SUM(L51,L53,L55,L57,L59,L61,L63,L65,L67)</f>
         <v>1.485625</v>
       </c>
       <c r="M69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.9712499999999999</v>
       </c>
       <c r="N69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>5.9424999999999999</v>
       </c>
       <c r="O69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>11.885</v>
       </c>
       <c r="P69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>23.77</v>
       </c>
       <c r="Q69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>47.54</v>
       </c>
       <c r="R69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>95.08</v>
       </c>
       <c r="S69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>190.16</v>
       </c>
       <c r="T69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>380.32</v>
       </c>
       <c r="U69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>760.64</v>
       </c>
       <c r="V69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1521.28</v>
       </c>
       <c r="W69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3042.56</v>
       </c>
       <c r="X69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6085.12</v>
       </c>
       <c r="Y69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>12170.24</v>
       </c>
       <c r="Z69" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>24340.48</v>
       </c>
       <c r="AA69" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>48680.959999999999</v>
       </c>
       <c r="AB69" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>97361.919999999998</v>
       </c>
       <c r="AC69" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>194723.84</v>
       </c>
       <c r="AD69" s="32">
-        <f t="shared" ref="AD69:AJ69" si="87">SUM(AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67)</f>
+        <f t="shared" ref="AD69:AJ69" si="88">SUM(AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67)</f>
         <v>389447.67999999999</v>
       </c>
       <c r="AE69" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>778895.35999999999</v>
       </c>
       <c r="AF69" s="31">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1557790.72</v>
       </c>
       <c r="AG69" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3115581.4399999999</v>
       </c>
       <c r="AH69" s="32">
-        <f t="shared" ref="AH69" si="88">SUM(AH51,AH53,AH55,AH57,AH59,AH61,AH63,AH65,AH67)</f>
+        <f t="shared" ref="AH69" si="89">SUM(AH51,AH53,AH55,AH57,AH59,AH61,AH63,AH65,AH67)</f>
         <v>6231162.8799999999</v>
       </c>
       <c r="AI69" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>12462325.76</v>
       </c>
       <c r="AJ69" s="70">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>16545774.059999999</v>
       </c>
       <c r="AK69" s="45"/>
@@ -42278,111 +42339,111 @@
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="18">
-        <f t="shared" ref="J73:AJ73" si="89">J$18*$B$73</f>
+        <f t="shared" ref="J73:AJ73" si="90">J$18*$B$73</f>
         <v>1.21875</v>
       </c>
       <c r="K73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2.4375</v>
       </c>
       <c r="L73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4.875</v>
       </c>
       <c r="M73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>9.75</v>
       </c>
       <c r="N73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>19.5</v>
       </c>
       <c r="O73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>39</v>
       </c>
       <c r="P73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>78</v>
       </c>
       <c r="Q73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>156</v>
       </c>
       <c r="R73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>312</v>
       </c>
       <c r="S73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>624</v>
       </c>
       <c r="T73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1248</v>
       </c>
       <c r="U73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2496</v>
       </c>
       <c r="V73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4992</v>
       </c>
       <c r="W73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>9984</v>
       </c>
       <c r="X73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>19968</v>
       </c>
       <c r="Y73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>39936</v>
       </c>
       <c r="Z73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>79872</v>
       </c>
       <c r="AA73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>159744</v>
       </c>
       <c r="AB73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>319488</v>
       </c>
       <c r="AC73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>638976</v>
       </c>
       <c r="AD73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1277952</v>
       </c>
       <c r="AE73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2555904</v>
       </c>
       <c r="AF73" s="18">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>5111808</v>
       </c>
       <c r="AG73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>10223616</v>
       </c>
       <c r="AH73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>20447232</v>
       </c>
       <c r="AI73" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>40894464</v>
       </c>
       <c r="AJ73" s="59">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>54294084</v>
       </c>
       <c r="AK73" s="45"/>
@@ -42404,67 +42465,67 @@
         <v>0.12796874999999999</v>
       </c>
       <c r="K74" s="30">
-        <f t="shared" ref="K74:Z74" si="90">K73*$E$74</f>
+        <f t="shared" ref="K74:Z74" si="91">K73*$E$74</f>
         <v>0.25593749999999998</v>
       </c>
       <c r="L74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.51187499999999997</v>
       </c>
       <c r="M74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1.0237499999999999</v>
       </c>
       <c r="N74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.0474999999999999</v>
       </c>
       <c r="O74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4.0949999999999998</v>
       </c>
       <c r="P74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8.19</v>
       </c>
       <c r="Q74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>16.38</v>
       </c>
       <c r="R74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>32.76</v>
       </c>
       <c r="S74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>65.52</v>
       </c>
       <c r="T74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>131.04</v>
       </c>
       <c r="U74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>262.08</v>
       </c>
       <c r="V74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>524.16</v>
       </c>
       <c r="W74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1048.32</v>
       </c>
       <c r="X74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2096.64</v>
       </c>
       <c r="Y74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4193.28</v>
       </c>
       <c r="Z74" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8386.56</v>
       </c>
       <c r="AA74" s="30">
@@ -42480,31 +42541,31 @@
         <v>67092.479999999996</v>
       </c>
       <c r="AD74" s="30">
-        <f t="shared" ref="AD74:AJ74" si="91">AD73*$E$74</f>
+        <f t="shared" ref="AD74:AJ74" si="92">AD73*$E$74</f>
         <v>134184.95999999999</v>
       </c>
       <c r="AE74" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>268369.91999999998</v>
       </c>
       <c r="AF74" s="29">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>536739.83999999997</v>
       </c>
       <c r="AG74" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1073479.6799999999</v>
       </c>
       <c r="AH74" s="30">
-        <f t="shared" ref="AH74" si="92">AH73*$E$74</f>
+        <f t="shared" ref="AH74" si="93">AH73*$E$74</f>
         <v>2146959.3599999999</v>
       </c>
       <c r="AI74" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4293918.7199999997</v>
       </c>
       <c r="AJ74" s="68">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5700878.8199999994</v>
       </c>
       <c r="AK74" s="45"/>
@@ -42527,111 +42588,111 @@
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="20">
-        <f t="shared" ref="J75:AJ75" si="93">J$18*$B$75</f>
+        <f t="shared" ref="J75:AJ75" si="94">J$18*$B$75</f>
         <v>2.78125</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>5.5625</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>11.125</v>
       </c>
       <c r="M75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>22.25</v>
       </c>
       <c r="N75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>44.5</v>
       </c>
       <c r="O75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>89</v>
       </c>
       <c r="P75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>178</v>
       </c>
       <c r="Q75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>356</v>
       </c>
       <c r="R75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>712</v>
       </c>
       <c r="S75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1424</v>
       </c>
       <c r="T75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2848</v>
       </c>
       <c r="U75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>5696</v>
       </c>
       <c r="V75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>11392</v>
       </c>
       <c r="W75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>22784</v>
       </c>
       <c r="X75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>45568</v>
       </c>
       <c r="Y75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>91136</v>
       </c>
       <c r="Z75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>182272</v>
       </c>
       <c r="AA75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>364544</v>
       </c>
       <c r="AB75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>729088</v>
       </c>
       <c r="AC75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1458176</v>
       </c>
       <c r="AD75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2916352</v>
       </c>
       <c r="AE75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>5832704</v>
       </c>
       <c r="AF75" s="20">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>11665408</v>
       </c>
       <c r="AG75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>23330816</v>
       </c>
       <c r="AH75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>46661632</v>
       </c>
       <c r="AI75" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>93323264</v>
       </c>
       <c r="AJ75" s="69">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>123901884</v>
       </c>
       <c r="AK75" s="45"/>
@@ -42649,71 +42710,71 @@
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="29">
-        <f t="shared" ref="J76:Z76" si="94">J75*$E$76</f>
+        <f t="shared" ref="J76:Z76" si="95">J75*$E$76</f>
         <v>0.20303125</v>
       </c>
       <c r="K76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.40606249999999999</v>
       </c>
       <c r="L76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.81212499999999999</v>
       </c>
       <c r="M76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1.62425</v>
       </c>
       <c r="N76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3.2484999999999999</v>
       </c>
       <c r="O76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6.4969999999999999</v>
       </c>
       <c r="P76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>12.994</v>
       </c>
       <c r="Q76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>25.988</v>
       </c>
       <c r="R76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>51.975999999999999</v>
       </c>
       <c r="S76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>103.952</v>
       </c>
       <c r="T76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>207.904</v>
       </c>
       <c r="U76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>415.80799999999999</v>
       </c>
       <c r="V76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>831.61599999999999</v>
       </c>
       <c r="W76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1663.232</v>
       </c>
       <c r="X76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3326.4639999999999</v>
       </c>
       <c r="Y76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6652.9279999999999</v>
       </c>
       <c r="Z76" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>13305.856</v>
       </c>
       <c r="AA76" s="30">
@@ -42729,31 +42790,31 @@
         <v>106446.848</v>
       </c>
       <c r="AD76" s="30">
-        <f t="shared" ref="AD76:AJ76" si="95">AD75*$E$76</f>
+        <f t="shared" ref="AD76:AJ76" si="96">AD75*$E$76</f>
         <v>212893.696</v>
       </c>
       <c r="AE76" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>425787.39199999999</v>
       </c>
       <c r="AF76" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>851574.78399999999</v>
       </c>
       <c r="AG76" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1703149.568</v>
       </c>
       <c r="AH76" s="30">
-        <f t="shared" ref="AH76" si="96">AH75*$E$76</f>
+        <f t="shared" ref="AH76" si="97">AH75*$E$76</f>
         <v>3406299.1359999999</v>
       </c>
       <c r="AI76" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>6812598.2719999999</v>
       </c>
       <c r="AJ76" s="68">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>9044837.5319999997</v>
       </c>
       <c r="AK76" s="45"/>
@@ -42776,111 +42837,111 @@
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="20">
-        <f t="shared" ref="J77:AJ77" si="97">J$18*$B$77</f>
+        <f t="shared" ref="J77:AJ77" si="98">J$18*$B$77</f>
         <v>6.25</v>
       </c>
       <c r="K77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>12.5</v>
       </c>
       <c r="L77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>25</v>
       </c>
       <c r="M77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>50</v>
       </c>
       <c r="N77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>100</v>
       </c>
       <c r="O77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>200</v>
       </c>
       <c r="P77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>400</v>
       </c>
       <c r="Q77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>800</v>
       </c>
       <c r="R77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1600</v>
       </c>
       <c r="S77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3200</v>
       </c>
       <c r="T77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6400</v>
       </c>
       <c r="U77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>12800</v>
       </c>
       <c r="V77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>25600</v>
       </c>
       <c r="W77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>51200</v>
       </c>
       <c r="X77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>102400</v>
       </c>
       <c r="Y77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>204800</v>
       </c>
       <c r="Z77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>409600</v>
       </c>
       <c r="AA77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>819200</v>
       </c>
       <c r="AB77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1638400</v>
       </c>
       <c r="AC77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>3276800</v>
       </c>
       <c r="AD77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>6553600</v>
       </c>
       <c r="AE77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>13107200</v>
       </c>
       <c r="AF77" s="20">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>26214400</v>
       </c>
       <c r="AG77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>52428800</v>
       </c>
       <c r="AH77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>104857600</v>
       </c>
       <c r="AI77" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>209715200</v>
       </c>
       <c r="AJ77" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>278431200</v>
       </c>
       <c r="AK77" s="45"/>
@@ -42898,71 +42959,71 @@
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="29">
-        <f t="shared" ref="J78:Z78" si="98">J77*$E$78</f>
+        <f t="shared" ref="J78:Z78" si="99">J77*$E$78</f>
         <v>0.39374999999999999</v>
       </c>
       <c r="K78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="L78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.575</v>
       </c>
       <c r="M78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.15</v>
       </c>
       <c r="N78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>6.3</v>
       </c>
       <c r="O78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>12.6</v>
       </c>
       <c r="P78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>25.2</v>
       </c>
       <c r="Q78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>50.4</v>
       </c>
       <c r="R78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>100.8</v>
       </c>
       <c r="S78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>201.6</v>
       </c>
       <c r="T78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>403.2</v>
       </c>
       <c r="U78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>806.4</v>
       </c>
       <c r="V78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1612.8</v>
       </c>
       <c r="W78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3225.6</v>
       </c>
       <c r="X78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>6451.2</v>
       </c>
       <c r="Y78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>12902.4</v>
       </c>
       <c r="Z78" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>25804.799999999999</v>
       </c>
       <c r="AA78" s="30">
@@ -42978,11 +43039,11 @@
         <v>206438.39999999999</v>
       </c>
       <c r="AD78" s="30">
-        <f t="shared" ref="AD78:AJ78" si="99">AD77*$E$78</f>
+        <f t="shared" ref="AD78:AJ78" si="100">AD77*$E$78</f>
         <v>412876.79999999999</v>
       </c>
       <c r="AE78" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>825753.59999999998</v>
       </c>
       <c r="AF78" s="29">
@@ -42990,19 +43051,19 @@
         <v>1651507.2</v>
       </c>
       <c r="AG78" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>3303014.3999999999</v>
       </c>
       <c r="AH78" s="30">
-        <f t="shared" ref="AH78" si="100">AH77*$E$78</f>
+        <f t="shared" ref="AH78" si="101">AH77*$E$78</f>
         <v>6606028.7999999998</v>
       </c>
       <c r="AI78" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>13212057.6</v>
       </c>
       <c r="AJ78" s="68">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>17541165.600000001</v>
       </c>
       <c r="AK78" s="45"/>
@@ -43025,111 +43086,111 @@
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="20">
-        <f t="shared" ref="J79:AJ79" si="101">J$18*$B$79</f>
+        <f t="shared" ref="J79:AJ79" si="102">J$18*$B$79</f>
         <v>9.3125</v>
       </c>
       <c r="K79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>18.625</v>
       </c>
       <c r="L79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>37.25</v>
       </c>
       <c r="M79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>74.5</v>
       </c>
       <c r="N79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>149</v>
       </c>
       <c r="O79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>298</v>
       </c>
       <c r="P79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>596</v>
       </c>
       <c r="Q79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1192</v>
       </c>
       <c r="R79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2384</v>
       </c>
       <c r="S79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>4768</v>
       </c>
       <c r="T79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>9536</v>
       </c>
       <c r="U79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>19072</v>
       </c>
       <c r="V79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>38144</v>
       </c>
       <c r="W79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>76288</v>
       </c>
       <c r="X79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>152576</v>
       </c>
       <c r="Y79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>305152</v>
       </c>
       <c r="Z79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>610304</v>
       </c>
       <c r="AA79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1220608</v>
       </c>
       <c r="AB79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2441216</v>
       </c>
       <c r="AC79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>4882432</v>
       </c>
       <c r="AD79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>9764864</v>
       </c>
       <c r="AE79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>19529728</v>
       </c>
       <c r="AF79" s="20">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>39059456</v>
       </c>
       <c r="AG79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>78118912</v>
       </c>
       <c r="AH79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>156237824</v>
       </c>
       <c r="AI79" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>312475648</v>
       </c>
       <c r="AJ79" s="69">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>414862488</v>
       </c>
       <c r="AK79" s="45"/>
@@ -43147,71 +43208,71 @@
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="29">
-        <f t="shared" ref="J80:Z80" si="102">J79*$E$80</f>
+        <f t="shared" ref="J80:Z80" si="103">J79*$E$80</f>
         <v>0.55874999999999997</v>
       </c>
       <c r="K80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1.1174999999999999</v>
       </c>
       <c r="L80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2.2349999999999999</v>
       </c>
       <c r="M80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.47</v>
       </c>
       <c r="N80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>8.94</v>
       </c>
       <c r="O80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>17.88</v>
       </c>
       <c r="P80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>35.76</v>
       </c>
       <c r="Q80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>71.52</v>
       </c>
       <c r="R80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>143.04</v>
       </c>
       <c r="S80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>286.08</v>
       </c>
       <c r="T80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>572.16</v>
       </c>
       <c r="U80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1144.32</v>
       </c>
       <c r="V80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2288.64</v>
       </c>
       <c r="W80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4577.28</v>
       </c>
       <c r="X80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>9154.56</v>
       </c>
       <c r="Y80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>18309.12</v>
       </c>
       <c r="Z80" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>36618.239999999998</v>
       </c>
       <c r="AA80" s="30">
@@ -43227,31 +43288,31 @@
         <v>292945.91999999998</v>
       </c>
       <c r="AD80" s="30">
-        <f t="shared" ref="AD80:AJ80" si="103">AD79*$E$80</f>
+        <f t="shared" ref="AD80:AJ80" si="104">AD79*$E$80</f>
         <v>585891.83999999997</v>
       </c>
       <c r="AE80" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1171783.6799999999</v>
       </c>
       <c r="AF80" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2343567.3599999999</v>
       </c>
       <c r="AG80" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>4687134.7199999997</v>
       </c>
       <c r="AH80" s="30">
-        <f t="shared" ref="AH80" si="104">AH79*$E$80</f>
+        <f t="shared" ref="AH80" si="105">AH79*$E$80</f>
         <v>9374269.4399999995</v>
       </c>
       <c r="AI80" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>18748538.879999999</v>
       </c>
       <c r="AJ80" s="68">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>24891749.279999997</v>
       </c>
       <c r="AK80" s="45"/>
@@ -43274,111 +43335,111 @@
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="20">
-        <f t="shared" ref="J81:AJ81" si="105">J$18*$B$81</f>
+        <f t="shared" ref="J81:AJ81" si="106">J$18*$B$81</f>
         <v>2.9687499999999999E-2</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>5.9374999999999997E-2</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.11874999999999999</v>
       </c>
       <c r="M81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.23749999999999999</v>
       </c>
       <c r="N81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="O81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.95</v>
       </c>
       <c r="P81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1.9</v>
       </c>
       <c r="Q81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8</v>
       </c>
       <c r="R81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7.6</v>
       </c>
       <c r="S81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>15.2</v>
       </c>
       <c r="T81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>30.4</v>
       </c>
       <c r="U81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>60.8</v>
       </c>
       <c r="V81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>121.6</v>
       </c>
       <c r="W81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>243.2</v>
       </c>
       <c r="X81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>486.4</v>
       </c>
       <c r="Y81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>972.8</v>
       </c>
       <c r="Z81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1945.6</v>
       </c>
       <c r="AA81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3891.2</v>
       </c>
       <c r="AB81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7782.4</v>
       </c>
       <c r="AC81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>15564.8</v>
       </c>
       <c r="AD81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>31129.599999999999</v>
       </c>
       <c r="AE81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>62259.199999999997</v>
       </c>
       <c r="AF81" s="20">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>124518.39999999999</v>
       </c>
       <c r="AG81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>249036.79999999999</v>
       </c>
       <c r="AH81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>498073.59999999998</v>
       </c>
       <c r="AI81" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>996147.19999999995</v>
       </c>
       <c r="AJ81" s="69">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1322548.2</v>
       </c>
       <c r="AK81" s="45"/>
@@ -43396,71 +43457,71 @@
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="29">
-        <f t="shared" ref="J82:Z82" si="106">J81*$E$82</f>
+        <f t="shared" ref="J82:Z82" si="107">J81*$E$82</f>
         <v>1.6624999999999999E-3</v>
       </c>
       <c r="K82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>3.3249999999999998E-3</v>
       </c>
       <c r="L82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6.6499999999999997E-3</v>
       </c>
       <c r="M82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="N82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="O82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="P82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.10639999999999999</v>
       </c>
       <c r="Q82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.21279999999999999</v>
       </c>
       <c r="R82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.42559999999999998</v>
       </c>
       <c r="S82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.85119999999999996</v>
       </c>
       <c r="T82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7023999999999999</v>
       </c>
       <c r="U82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>3.4047999999999998</v>
       </c>
       <c r="V82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6.8095999999999997</v>
       </c>
       <c r="W82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>13.619199999999999</v>
       </c>
       <c r="X82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>27.238399999999999</v>
       </c>
       <c r="Y82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>54.476799999999997</v>
       </c>
       <c r="Z82" s="30">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>108.95359999999999</v>
       </c>
       <c r="AA82" s="30">
@@ -43476,31 +43537,31 @@
         <v>871.62879999999996</v>
       </c>
       <c r="AD82" s="30">
-        <f t="shared" ref="AD82:AJ82" si="107">AD81*$E$82</f>
+        <f t="shared" ref="AD82:AJ82" si="108">AD81*$E$82</f>
         <v>1743.2575999999999</v>
       </c>
       <c r="AE82" s="30">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>3486.5151999999998</v>
       </c>
       <c r="AF82" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6973.0303999999996</v>
       </c>
       <c r="AG82" s="30">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13946.060799999999</v>
       </c>
       <c r="AH82" s="30">
-        <f t="shared" ref="AH82" si="108">AH81*$E$82</f>
+        <f t="shared" ref="AH82" si="109">AH81*$E$82</f>
         <v>27892.121599999999</v>
       </c>
       <c r="AI82" s="30">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>55784.243199999997</v>
       </c>
       <c r="AJ82" s="68">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>74062.699200000003</v>
       </c>
       <c r="AK82" s="45"/>
@@ -43523,111 +43584,111 @@
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="20">
-        <f t="shared" ref="J83:AJ83" si="109">J$18*$B$83</f>
+        <f t="shared" ref="J83:AJ83" si="110">J$18*$B$83</f>
         <v>4.375</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>8.75</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>17.5</v>
       </c>
       <c r="M83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>35</v>
       </c>
       <c r="N83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>70</v>
       </c>
       <c r="O83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>140</v>
       </c>
       <c r="P83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>280</v>
       </c>
       <c r="Q83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>560</v>
       </c>
       <c r="R83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1120</v>
       </c>
       <c r="S83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2240</v>
       </c>
       <c r="T83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4480</v>
       </c>
       <c r="U83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>8960</v>
       </c>
       <c r="V83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>17920</v>
       </c>
       <c r="W83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>35840</v>
       </c>
       <c r="X83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>71680</v>
       </c>
       <c r="Y83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>143360</v>
       </c>
       <c r="Z83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>286720</v>
       </c>
       <c r="AA83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>573440</v>
       </c>
       <c r="AB83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1146880</v>
       </c>
       <c r="AC83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2293760</v>
       </c>
       <c r="AD83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4587520</v>
       </c>
       <c r="AE83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>9175040</v>
       </c>
       <c r="AF83" s="20">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>18350080</v>
       </c>
       <c r="AG83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>36700160</v>
       </c>
       <c r="AH83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>73400320</v>
       </c>
       <c r="AI83" s="21">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>146800640</v>
       </c>
       <c r="AJ83" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>194901840.00000003</v>
       </c>
       <c r="AK83" s="45"/>
@@ -43744,23 +43805,23 @@
         <v>23.967187500000001</v>
       </c>
       <c r="K85" s="19">
-        <f t="shared" ref="K85:Z85" si="110">SUM(K73,K75,K77,K79,K81,K83)</f>
+        <f t="shared" ref="K85:Z85" si="111">SUM(K73,K75,K77,K79,K81,K83)</f>
         <v>47.934375000000003</v>
       </c>
       <c r="L85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>95.868750000000006</v>
       </c>
       <c r="M85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>191.73750000000001</v>
       </c>
       <c r="N85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>383.47500000000002</v>
       </c>
       <c r="O85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>766.95</v>
       </c>
       <c r="P85" s="19">
@@ -43768,83 +43829,83 @@
         <v>1533.9</v>
       </c>
       <c r="Q85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>3067.8</v>
       </c>
       <c r="R85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6135.6</v>
       </c>
       <c r="S85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>12271.2</v>
       </c>
       <c r="T85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>24542.400000000001</v>
       </c>
       <c r="U85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>49084.800000000003</v>
       </c>
       <c r="V85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>98169.600000000006</v>
       </c>
       <c r="W85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>196339.20000000001</v>
       </c>
       <c r="X85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>392678.40000000002</v>
       </c>
       <c r="Y85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>785356.80000000005</v>
       </c>
       <c r="Z85" s="19">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1570713.6000000001</v>
       </c>
       <c r="AA85" s="19">
-        <f t="shared" ref="AA85:AC86" si="111">SUM(AA73,AA75,AA77,AA79,AA81,AA83)</f>
+        <f t="shared" ref="AA85:AC86" si="112">SUM(AA73,AA75,AA77,AA79,AA81,AA83)</f>
         <v>3141427.2000000002</v>
       </c>
       <c r="AB85" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6282854.4000000004</v>
       </c>
       <c r="AC85" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>12565708.800000001</v>
       </c>
       <c r="AD85" s="19">
-        <f t="shared" ref="AD85:AJ85" si="112">SUM(AD73,AD75,AD77,AD79,AD81,AD83)</f>
+        <f t="shared" ref="AD85:AJ85" si="113">SUM(AD73,AD75,AD77,AD79,AD81,AD83)</f>
         <v>25131417.600000001</v>
       </c>
       <c r="AE85" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>50262835.200000003</v>
       </c>
       <c r="AF85" s="18">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>100525670.40000001</v>
       </c>
       <c r="AG85" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>201051340.80000001</v>
       </c>
       <c r="AH85" s="19">
-        <f t="shared" ref="AH85" si="113">SUM(AH73,AH75,AH77,AH79,AH81,AH83)</f>
+        <f t="shared" ref="AH85" si="114">SUM(AH73,AH75,AH77,AH79,AH81,AH83)</f>
         <v>402102681.60000002</v>
       </c>
       <c r="AI85" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>804205363.20000005</v>
       </c>
       <c r="AJ85" s="59">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1067714044.2</v>
       </c>
       <c r="AK85" s="45"/>
@@ -43866,107 +43927,107 @@
         <v>1.2851625</v>
       </c>
       <c r="K86" s="32">
-        <f t="shared" ref="K86:Z86" si="114">SUM(K74,K76,K78,K80,K82,K84)</f>
+        <f t="shared" ref="K86:Z86" si="115">SUM(K74,K76,K78,K80,K82,K84)</f>
         <v>2.570325</v>
       </c>
       <c r="L86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>5.1406499999999999</v>
       </c>
       <c r="M86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>10.2813</v>
       </c>
       <c r="N86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>20.5626</v>
       </c>
       <c r="O86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>41.1252</v>
       </c>
       <c r="P86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>82.250399999999999</v>
       </c>
       <c r="Q86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>164.5008</v>
       </c>
       <c r="R86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>329.0016</v>
       </c>
       <c r="S86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>658.00319999999999</v>
       </c>
       <c r="T86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>1316.0064</v>
       </c>
       <c r="U86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>2632.0128</v>
       </c>
       <c r="V86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>5264.0255999999999</v>
       </c>
       <c r="W86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>10528.0512</v>
       </c>
       <c r="X86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>21056.1024</v>
       </c>
       <c r="Y86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>42112.2048</v>
       </c>
       <c r="Z86" s="32">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>84224.409599999999</v>
       </c>
       <c r="AA86" s="32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>168448.8192</v>
       </c>
       <c r="AB86" s="32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>336897.6384</v>
       </c>
       <c r="AC86" s="32">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>673795.27679999999</v>
       </c>
       <c r="AD86" s="32">
-        <f t="shared" ref="AD86:AJ86" si="115">SUM(AD74,AD76,AD78,AD80,AD82,AD84)</f>
+        <f t="shared" ref="AD86:AJ86" si="116">SUM(AD74,AD76,AD78,AD80,AD82,AD84)</f>
         <v>1347590.5536</v>
       </c>
       <c r="AE86" s="32">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>2695181.1072</v>
       </c>
       <c r="AF86" s="31">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>5390362.2143999999</v>
       </c>
       <c r="AG86" s="32">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>10780724.4288</v>
       </c>
       <c r="AH86" s="32">
-        <f t="shared" ref="AH86" si="116">SUM(AH74,AH76,AH78,AH80,AH82,AH84)</f>
+        <f t="shared" ref="AH86" si="117">SUM(AH74,AH76,AH78,AH80,AH82,AH84)</f>
         <v>21561448.8576</v>
       </c>
       <c r="AI86" s="32">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>43122897.7152</v>
       </c>
       <c r="AJ86" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>57252693.93119999</v>
       </c>
       <c r="AK86" s="45"/>
@@ -44125,7 +44186,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44171,7 +44232,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="152">
-        <v>56409</v>
+        <v>67259</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44180,7 +44241,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43959.756522800926</v>
+        <v>43962.728772685186</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44189,7 +44250,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>64.756522800926177</v>
+        <v>67.728772685186414</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44198,7 +44259,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>5.9860787596806793</v>
+        <v>6.1173121896439833</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44231,7 +44292,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B6</f>
-        <v>575602.04081632651</v>
+        <v>686316.32653061219</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44240,7 +44301,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B6)*(2^(((C7-21)-C5)/C9))</f>
-        <v>50590.278913257098</v>
+        <v>63551.296258538452</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44249,7 +44310,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>525011.76190306945</v>
+        <v>622765.03027207369</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44263,7 +44324,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B10</f>
-        <v>45691.29</v>
+        <v>54479.79</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44273,7 +44334,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B10)*(2^(((C7-21)-C5)/C9))</f>
-        <v>4015.856340134349</v>
+        <v>5044.701897002783</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44283,7 +44344,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>41675.433659865652</v>
+        <v>49435.088102997215</v>
       </c>
       <c r="F17" t="s">
         <v>143</v>
@@ -44296,7 +44357,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B11</f>
-        <v>7897.2600000000011</v>
+        <v>9416.26</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44305,7 +44366,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-49)-C5)/C9))</f>
-        <v>27.123611593446334</v>
+        <v>36.526828765456393</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44314,7 +44375,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>7870.1363884065549</v>
+        <v>9379.733171234544</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -44326,7 +44387,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B12</f>
-        <v>2820.4500000000003</v>
+        <v>3362.9500000000003</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44336,7 +44397,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>9.6870041405165477</v>
+        <v>13.045295987662996</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44346,7 +44407,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>2810.7629958594839</v>
+        <v>3349.9047040123373</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44356,7 +44417,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B13</f>
-        <v>1861.4970000000001</v>
+        <v>2286.806</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44365,7 +44426,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-42)-C5)/C9))</f>
-        <v>14.379766633257246</v>
+        <v>19.607828019314969</v>
       </c>
       <c r="F25" t="s">
         <v>154</v>
@@ -44377,7 +44438,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>47.495238997645721</v>
+        <v>46.983896213284076</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44392,7 +44453,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44007.251761798572</v>
+        <v>44009.712668898472</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -44404,7 +44465,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>24.470057968003704</v>
+        <v>23.453931734684048</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44416,7 +44477,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>43984.226580768933</v>
+        <v>43986.182704419873</v>
       </c>
       <c r="F29" t="s">
         <v>156</v>
@@ -44428,7 +44489,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>62.87176103898949</v>
+        <v>62.69751935359492</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44440,7 +44501,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44022.628283839913</v>
+        <v>44025.426292038785</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44449,7 +44510,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>43989.756522800926</v>
+        <v>43992.728772685186</v>
       </c>
       <c r="F34" t="s">
         <v>169</v>
@@ -44461,7 +44522,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>1819695.662102063</v>
+        <v>2013891.1883049419</v>
       </c>
       <c r="F35" t="s">
         <v>141</v>
@@ -44473,7 +44534,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B6</f>
-        <v>18568323.082674112</v>
+        <v>20549910.084744304</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44482,7 +44543,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B10</f>
-        <v>1473953.486302671</v>
+        <v>1631251.862527003</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44491,7 +44552,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B11</f>
-        <v>254757.39269428884</v>
+        <v>281944.76636269188</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44500,7 +44561,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B12</f>
-        <v>90984.783105103154</v>
+        <v>100694.5594152471</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44509,7 +44570,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B13</f>
-        <v>60049.956849368078</v>
+        <v>68472.300402368026</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358BCD6-F691-4262-B53E-45E262A191CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCA3D0-40D1-4496-BEC3-A54EDBF9CE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1545" windowWidth="36225" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="211">
   <si>
     <t>By Age</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>Relaxation of some measures in low risk areas</t>
+  </si>
+  <si>
+    <t>India partially reopens its rail network</t>
   </si>
 </sst>
 </file>
@@ -1473,6 +1476,7 @@
     <xf numFmtId="14" fontId="0" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1497,7 +1501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1820,46 +1823,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,46 +1972,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,46 +2121,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,6 +3336,9 @@
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
                   <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>2649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12612,6 +12618,9 @@
                 <c:pt idx="11" formatCode="#,##0">
                   <c:v>2212</c:v>
                 </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>2649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12939,46 +12948,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13079,46 +13088,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13222,46 +13231,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13359,46 +13368,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13766,46 +13775,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13915,46 +13924,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14064,46 +14073,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14481,46 +14490,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14621,46 +14630,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14764,46 +14773,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14901,46 +14910,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.728772685186</c:v>
+                  <c:v>43926.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.728772685186</c:v>
+                  <c:v>43929.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.728772685186</c:v>
+                  <c:v>43932.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.728772685186</c:v>
+                  <c:v>43935.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.728772685186</c:v>
+                  <c:v>43938.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.728772685186</c:v>
+                  <c:v>43941.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.728772685186</c:v>
+                  <c:v>43944.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.728772685186</c:v>
+                  <c:v>43947.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.728772685186</c:v>
+                  <c:v>43950.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.728772685186</c:v>
+                  <c:v>43953.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.728772685186</c:v>
+                  <c:v>43956.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.728772685186</c:v>
+                  <c:v>43959.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.728772685186</c:v>
+                  <c:v>43962.835208680553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.728772685186</c:v>
+                  <c:v>43965.835208680553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35092,167 +35101,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43922.728772685186</v>
+        <v>43926.835208680553</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43923.728772685186</v>
+        <v>43927.835208680553</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43924.728772685186</v>
+        <v>43928.835208680553</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43925.728772685186</v>
+        <v>43929.835208680553</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43926.728772685186</v>
+        <v>43930.835208680553</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43927.728772685186</v>
+        <v>43931.835208680553</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43928.728772685186</v>
+        <v>43932.835208680553</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43929.728772685186</v>
+        <v>43933.835208680553</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43930.728772685186</v>
+        <v>43934.835208680553</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43931.728772685186</v>
+        <v>43935.835208680553</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43932.728772685186</v>
+        <v>43936.835208680553</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.728772685186</v>
+        <v>43937.835208680553</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.728772685186</v>
+        <v>43938.835208680553</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.728772685186</v>
+        <v>43939.835208680553</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.728772685186</v>
+        <v>43940.835208680553</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.728772685186</v>
+        <v>43941.835208680553</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.728772685186</v>
+        <v>43942.835208680553</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43939.728772685186</v>
+        <v>43943.835208680553</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43940.728772685186</v>
+        <v>43944.835208680553</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43941.728772685186</v>
+        <v>43945.835208680553</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43942.728772685186</v>
+        <v>43946.835208680553</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.728772685186</v>
+        <v>43947.835208680553</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.728772685186</v>
+        <v>43948.835208680553</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.728772685186</v>
+        <v>43949.835208680553</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43946.728772685186</v>
+        <v>43950.835208680553</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.728772685186</v>
+        <v>43951.835208680553</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.728772685186</v>
+        <v>43952.835208680553</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.728772685186</v>
+        <v>43953.835208680553</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.728772685186</v>
+        <v>43954.835208680553</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.728772685186</v>
+        <v>43955.835208680553</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.728772685186</v>
+        <v>43956.835208680553</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.728772685186</v>
+        <v>43957.835208680553</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.728772685186</v>
+        <v>43958.835208680553</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.728772685186</v>
+        <v>43959.835208680553</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.728772685186</v>
+        <v>43960.835208680553</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.728772685186</v>
+        <v>43961.835208680553</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43958.728772685186</v>
+        <v>43962.835208680553</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43959.728772685186</v>
+        <v>43963.835208680553</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43960.728772685186</v>
+        <v>43964.835208680553</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43961.728772685186</v>
+        <v>43965.835208680553</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43962.728772685186</v>
+        <v>43966.835208680553</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35387,59 +35396,59 @@
       <c r="A28" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="291" t="s">
+      <c r="B28" s="292" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="292"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="293"/>
-      <c r="H28" s="297" t="s">
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="298" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="297"/>
-      <c r="J28" s="297"/>
-      <c r="K28" s="297"/>
-      <c r="L28" s="297"/>
-      <c r="M28" s="297"/>
-      <c r="N28" s="298"/>
-      <c r="O28" s="296" t="s">
+      <c r="I28" s="298"/>
+      <c r="J28" s="298"/>
+      <c r="K28" s="298"/>
+      <c r="L28" s="298"/>
+      <c r="M28" s="298"/>
+      <c r="N28" s="299"/>
+      <c r="O28" s="297" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="297"/>
-      <c r="Q28" s="297"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="298"/>
-      <c r="V28" s="296" t="s">
+      <c r="P28" s="298"/>
+      <c r="Q28" s="298"/>
+      <c r="R28" s="298"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="299"/>
+      <c r="V28" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="298"/>
-      <c r="AC28" s="296" t="s">
+      <c r="W28" s="298"/>
+      <c r="X28" s="298"/>
+      <c r="Y28" s="298"/>
+      <c r="Z28" s="298"/>
+      <c r="AA28" s="298"/>
+      <c r="AB28" s="299"/>
+      <c r="AC28" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="297"/>
-      <c r="AI28" s="298"/>
-      <c r="AJ28" s="296" t="s">
+      <c r="AD28" s="298"/>
+      <c r="AE28" s="298"/>
+      <c r="AF28" s="298"/>
+      <c r="AG28" s="298"/>
+      <c r="AH28" s="298"/>
+      <c r="AI28" s="299"/>
+      <c r="AJ28" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="AK28" s="297"/>
-      <c r="AL28" s="297"/>
-      <c r="AM28" s="297"/>
-      <c r="AN28" s="297"/>
-      <c r="AO28" s="297"/>
-      <c r="AP28" s="298"/>
+      <c r="AK28" s="298"/>
+      <c r="AL28" s="298"/>
+      <c r="AM28" s="298"/>
+      <c r="AN28" s="298"/>
+      <c r="AO28" s="298"/>
+      <c r="AP28" s="299"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -35450,43 +35459,43 @@
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
-      <c r="H29" s="294" t="s">
+      <c r="H29" s="295" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
-      <c r="N29" s="294"/>
-      <c r="O29" s="294"/>
-      <c r="P29" s="294"/>
-      <c r="Q29" s="294"/>
-      <c r="R29" s="294"/>
-      <c r="S29" s="294"/>
-      <c r="T29" s="294"/>
-      <c r="U29" s="294"/>
-      <c r="V29" s="294"/>
-      <c r="W29" s="294"/>
-      <c r="X29" s="294"/>
-      <c r="Y29" s="294"/>
-      <c r="Z29" s="294"/>
-      <c r="AA29" s="294"/>
-      <c r="AB29" s="294"/>
-      <c r="AC29" s="294"/>
-      <c r="AD29" s="294"/>
-      <c r="AE29" s="294"/>
-      <c r="AF29" s="294"/>
-      <c r="AG29" s="294"/>
-      <c r="AH29" s="294"/>
-      <c r="AI29" s="294"/>
-      <c r="AJ29" s="294"/>
-      <c r="AK29" s="294"/>
-      <c r="AL29" s="294"/>
-      <c r="AM29" s="294"/>
-      <c r="AN29" s="294"/>
-      <c r="AO29" s="294"/>
-      <c r="AP29" s="295"/>
+      <c r="I29" s="295"/>
+      <c r="J29" s="295"/>
+      <c r="K29" s="295"/>
+      <c r="L29" s="295"/>
+      <c r="M29" s="295"/>
+      <c r="N29" s="295"/>
+      <c r="O29" s="295"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="295"/>
+      <c r="R29" s="295"/>
+      <c r="S29" s="295"/>
+      <c r="T29" s="295"/>
+      <c r="U29" s="295"/>
+      <c r="V29" s="295"/>
+      <c r="W29" s="295"/>
+      <c r="X29" s="295"/>
+      <c r="Y29" s="295"/>
+      <c r="Z29" s="295"/>
+      <c r="AA29" s="295"/>
+      <c r="AB29" s="295"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="295"/>
+      <c r="AE29" s="295"/>
+      <c r="AF29" s="295"/>
+      <c r="AG29" s="295"/>
+      <c r="AH29" s="295"/>
+      <c r="AI29" s="295"/>
+      <c r="AJ29" s="295"/>
+      <c r="AK29" s="295"/>
+      <c r="AL29" s="295"/>
+      <c r="AM29" s="295"/>
+      <c r="AN29" s="295"/>
+      <c r="AO29" s="295"/>
+      <c r="AP29" s="296"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="56" t="s">
@@ -35770,8 +35779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36224,9 +36233,14 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="251"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
+      <c r="U13" s="267">
+        <v>43963</v>
+      </c>
+      <c r="V13" s="267" t="s">
+        <v>210</v>
+      </c>
+      <c r="W13" s="267"/>
+      <c r="Y13" s="204"/>
       <c r="AB13" s="165"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -36363,7 +36377,7 @@
         <f t="shared" si="0"/>
         <v>43905</v>
       </c>
-      <c r="M17" s="287">
+      <c r="M17" s="288">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
@@ -36387,11 +36401,11 @@
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
-      <c r="S17" s="289">
+      <c r="S17" s="291">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
-      <c r="T17" s="299">
+      <c r="T17" s="291">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
@@ -39521,7 +39535,9 @@
         <f t="shared" ref="U45" si="63">U42-U46-U44</f>
         <v>20969</v>
       </c>
-      <c r="V45" s="283"/>
+      <c r="V45" s="283">
+        <v>28086</v>
+      </c>
       <c r="W45" s="283"/>
       <c r="X45" s="283"/>
       <c r="Y45" s="283"/>
@@ -39586,7 +39602,9 @@
       <c r="U46" s="280">
         <v>2212</v>
       </c>
-      <c r="V46" s="284"/>
+      <c r="V46" s="284">
+        <v>2649</v>
+      </c>
       <c r="W46" s="284"/>
       <c r="X46" s="284"/>
       <c r="Y46" s="284"/>
@@ -44186,7 +44204,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44232,7 +44250,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="152">
-        <v>67259</v>
+        <v>82264</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44241,7 +44259,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43962.728772685186</v>
+        <v>43966.835208680553</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44250,7 +44268,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>67.728772685186414</v>
+        <v>71.835208680553478</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44259,7 +44277,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>6.1173121896439833</v>
+        <v>6.3223034461375125</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44292,7 +44310,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B6</f>
-        <v>686316.32653061219</v>
+        <v>839428.57142857136</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44301,7 +44319,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B6)*(2^(((C7-21)-C5)/C9))</f>
-        <v>63551.296258538452</v>
+        <v>83963.451059494255</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44310,7 +44328,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>622765.03027207369</v>
+        <v>755465.12036907708</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44324,7 +44342,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B10</f>
-        <v>54479.79</v>
+        <v>66633.840000000011</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44334,7 +44352,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B10)*(2^(((C7-21)-C5)/C9))</f>
-        <v>5044.701897002783</v>
+        <v>6665.018745102655</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44344,7 +44362,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>49435.088102997215</v>
+        <v>59968.821254897353</v>
       </c>
       <c r="F17" t="s">
         <v>143</v>
@@ -44357,7 +44375,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B11</f>
-        <v>9416.26</v>
+        <v>11516.960000000001</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44366,7 +44384,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-49)-C5)/C9))</f>
-        <v>36.526828765456393</v>
+        <v>53.487599001313249</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44375,7 +44393,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>9379.733171234544</v>
+        <v>11463.472400998688</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -44387,7 +44405,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B12</f>
-        <v>3362.9500000000003</v>
+        <v>4113.2</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44397,7 +44415,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>13.045295987662996</v>
+        <v>19.102713929040448</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44407,7 +44425,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>3349.9047040123373</v>
+        <v>4094.0972860709594</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44417,7 +44435,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B13</f>
-        <v>2286.806</v>
+        <v>2796.9760000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44426,7 +44444,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-42)-C5)/C9))</f>
-        <v>19.607828019314969</v>
+        <v>27.98348546949282</v>
       </c>
       <c r="F25" t="s">
         <v>154</v>
@@ -44438,7 +44456,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>46.983896213284076</v>
+        <v>46.721484097069769</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44453,7 +44471,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44009.712668898472</v>
+        <v>44013.556692777624</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -44465,7 +44483,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>23.453931734684048</v>
+        <v>22.403030027913619</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44477,7 +44495,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>43986.182704419873</v>
+        <v>43989.238238708465</v>
       </c>
       <c r="F29" t="s">
         <v>156</v>
@@ -44489,7 +44507,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>62.69751935359492</v>
+        <v>62.961671069949311</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44501,7 +44519,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44025.426292038785</v>
+        <v>44029.796879750502</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44510,7 +44528,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>43992.728772685186</v>
+        <v>43996.835208680553</v>
       </c>
       <c r="F34" t="s">
         <v>169</v>
@@ -44522,7 +44540,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>2013891.1883049419</v>
+        <v>2206119.638391328</v>
       </c>
       <c r="F35" t="s">
         <v>141</v>
@@ -44534,7 +44552,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B6</f>
-        <v>20549910.084744304</v>
+        <v>22511424.881544162</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44543,7 +44561,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B10</f>
-        <v>1631251.862527003</v>
+        <v>1786956.9070969759</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44552,7 +44570,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B11</f>
-        <v>281944.76636269188</v>
+        <v>308856.74937478598</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44561,7 +44579,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B12</f>
-        <v>100694.5594152471</v>
+        <v>110305.9819195664</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44570,7 +44588,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B13</f>
-        <v>68472.300402368026</v>
+        <v>75008.067705305162</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCA3D0-40D1-4496-BEC3-A54EDBF9CE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C94CC1-1FC3-435B-AB20-3DCF29AC3C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
   <si>
     <t>By Age</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>India partially reopens its rail network</t>
+  </si>
+  <si>
+    <t>India has extended its lockdown to 31/5</t>
   </si>
 </sst>
 </file>
@@ -1823,46 +1826,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,46 +1975,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,46 +2124,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3338,7 +3341,7 @@
                   <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>2649</c:v>
+                  <c:v>3302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12619,7 +12622,7 @@
                   <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>2649</c:v>
+                  <c:v>3302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12948,46 +12951,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13088,46 +13091,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13231,46 +13234,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13368,46 +13371,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13775,46 +13778,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13924,46 +13927,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14073,46 +14076,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14490,46 +14493,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14630,46 +14633,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14773,46 +14776,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14910,46 +14913,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.835208680553</c:v>
+                  <c:v>43931.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.835208680553</c:v>
+                  <c:v>43934.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.835208680553</c:v>
+                  <c:v>43937.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.835208680553</c:v>
+                  <c:v>43940.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.835208680553</c:v>
+                  <c:v>43943.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.835208680553</c:v>
+                  <c:v>43946.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.835208680553</c:v>
+                  <c:v>43949.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.835208680553</c:v>
+                  <c:v>43952.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.835208680553</c:v>
+                  <c:v>43955.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.835208680553</c:v>
+                  <c:v>43958.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.835208680553</c:v>
+                  <c:v>43961.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.835208680553</c:v>
+                  <c:v>43964.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.835208680553</c:v>
+                  <c:v>43967.496979745367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.835208680553</c:v>
+                  <c:v>43970.496979745367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35101,167 +35104,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43926.835208680553</v>
+        <v>43931.496979745367</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43927.835208680553</v>
+        <v>43932.496979745367</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43928.835208680553</v>
+        <v>43933.496979745367</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43929.835208680553</v>
+        <v>43934.496979745367</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43930.835208680553</v>
+        <v>43935.496979745367</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43931.835208680553</v>
+        <v>43936.496979745367</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43932.835208680553</v>
+        <v>43937.496979745367</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.835208680553</v>
+        <v>43938.496979745367</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.835208680553</v>
+        <v>43939.496979745367</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.835208680553</v>
+        <v>43940.496979745367</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.835208680553</v>
+        <v>43941.496979745367</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.835208680553</v>
+        <v>43942.496979745367</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.835208680553</v>
+        <v>43943.496979745367</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43939.835208680553</v>
+        <v>43944.496979745367</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43940.835208680553</v>
+        <v>43945.496979745367</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43941.835208680553</v>
+        <v>43946.496979745367</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43942.835208680553</v>
+        <v>43947.496979745367</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43943.835208680553</v>
+        <v>43948.496979745367</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43944.835208680553</v>
+        <v>43949.496979745367</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43945.835208680553</v>
+        <v>43950.496979745367</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43946.835208680553</v>
+        <v>43951.496979745367</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.835208680553</v>
+        <v>43952.496979745367</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.835208680553</v>
+        <v>43953.496979745367</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.835208680553</v>
+        <v>43954.496979745367</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.835208680553</v>
+        <v>43955.496979745367</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.835208680553</v>
+        <v>43956.496979745367</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.835208680553</v>
+        <v>43957.496979745367</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.835208680553</v>
+        <v>43958.496979745367</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.835208680553</v>
+        <v>43959.496979745367</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.835208680553</v>
+        <v>43960.496979745367</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.835208680553</v>
+        <v>43961.496979745367</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.835208680553</v>
+        <v>43962.496979745367</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43958.835208680553</v>
+        <v>43963.496979745367</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43959.835208680553</v>
+        <v>43964.496979745367</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43960.835208680553</v>
+        <v>43965.496979745367</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43961.835208680553</v>
+        <v>43966.496979745367</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43962.835208680553</v>
+        <v>43967.496979745367</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43963.835208680553</v>
+        <v>43968.496979745367</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43964.835208680553</v>
+        <v>43969.496979745367</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43965.835208680553</v>
+        <v>43970.496979745367</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43966.835208680553</v>
+        <v>43971.496979745367</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35779,8 +35782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36263,6 +36266,12 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
+      <c r="U14" s="147">
+        <v>43969</v>
+      </c>
+      <c r="V14" s="148" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
@@ -39536,7 +39545,7 @@
         <v>20969</v>
       </c>
       <c r="V45" s="283">
-        <v>28086</v>
+        <v>42309</v>
       </c>
       <c r="W45" s="283"/>
       <c r="X45" s="283"/>
@@ -39603,7 +39612,7 @@
         <v>2212</v>
       </c>
       <c r="V46" s="284">
-        <v>2649</v>
+        <v>3302</v>
       </c>
       <c r="W46" s="284"/>
       <c r="X46" s="284"/>
@@ -44204,7 +44213,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44250,7 +44259,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="152">
-        <v>82264</v>
+        <v>106475</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44259,7 +44268,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43966.835208680553</v>
+        <v>43971.496979745367</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44268,7 +44277,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>71.835208680553478</v>
+        <v>76.496979745366843</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44277,7 +44286,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>6.3223034461375125</v>
+        <v>6.5190524715034259</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44310,7 +44319,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B6</f>
-        <v>839428.57142857136</v>
+        <v>1086479.5918367347</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44319,7 +44328,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B6)*(2^(((C7-21)-C5)/C9))</f>
-        <v>83963.451059494255</v>
+        <v>116494.5232134017</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44328,7 +44337,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>755465.12036907708</v>
+        <v>969985.06862333301</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44342,7 +44351,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B10</f>
-        <v>66633.840000000011</v>
+        <v>86244.75</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44352,7 +44361,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B10)*(2^(((C7-21)-C5)/C9))</f>
-        <v>6665.018745102655</v>
+        <v>9247.335252679828</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44362,7 +44371,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>59968.821254897353</v>
+        <v>76997.414747320174</v>
       </c>
       <c r="F17" t="s">
         <v>143</v>
@@ -44375,7 +44384,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B11</f>
-        <v>11516.960000000001</v>
+        <v>14906.500000000002</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44384,7 +44393,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-49)-C5)/C9))</f>
-        <v>53.487599001313249</v>
+        <v>81.415082358366632</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44393,7 +44402,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>11463.472400998688</v>
+        <v>14825.084917641636</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -44405,7 +44414,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B12</f>
-        <v>4113.2</v>
+        <v>5323.75</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44415,7 +44424,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>19.102713929040448</v>
+        <v>29.07681512798808</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44425,7 +44434,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>4094.0972860709594</v>
+        <v>5294.6731848720119</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44435,7 +44444,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B13</f>
-        <v>2796.9760000000001</v>
+        <v>3620.15</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44444,7 +44453,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-42)-C5)/C9))</f>
-        <v>27.98348546949282</v>
+        <v>41.619267866195351</v>
       </c>
       <c r="F25" t="s">
         <v>154</v>
@@ -44456,7 +44465,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>46.721484097069769</v>
+        <v>45.749177474026268</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44471,7 +44480,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44013.556692777624</v>
+        <v>44017.246157219393</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -44483,7 +44492,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>22.403030027913619</v>
+        <v>20.673937183317385</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44495,7 +44504,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>43989.238238708465</v>
+        <v>43992.170916928684</v>
       </c>
       <c r="F29" t="s">
         <v>156</v>
@@ -44507,7 +44516,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>62.961671069949311</v>
+        <v>62.494756348116482</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44519,7 +44528,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44029.796879750502</v>
+        <v>44033.991736093485</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44528,7 +44537,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>43996.835208680553</v>
+        <v>44001.496979745367</v>
       </c>
       <c r="F34" t="s">
         <v>169</v>
@@ -44540,7 +44549,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>2206119.638391328</v>
+        <v>2585570.0755529888</v>
       </c>
       <c r="F35" t="s">
         <v>141</v>
@@ -44552,7 +44561,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B6</f>
-        <v>22511424.881544162</v>
+        <v>26383368.117887639</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44561,7 +44570,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B10</f>
-        <v>1786956.9070969759</v>
+        <v>2094311.7611979211</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44570,7 +44579,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B11</f>
-        <v>308856.74937478598</v>
+        <v>361979.81057741848</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44579,7 +44588,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B12</f>
-        <v>110305.9819195664</v>
+        <v>129278.50377764944</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44588,7 +44597,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B13</f>
-        <v>75008.067705305162</v>
+        <v>87909.382568801622</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B182B-6E1B-4C1A-96A0-5AAC5F2E6B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEA3C2-BA68-4744-AADE-0F73879AE4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="217">
   <si>
     <t>By Age</t>
   </si>
@@ -684,7 +684,10 @@
     <t>India announces that it will run additional special trains to get at least 3.6 million migrant workers stranded by the pandemic lockdown in large cities, back to their homes, with many dying already in their attempts to return home by foot.  About 4 million have already been moved by the "Shramik" or labourer trains.</t>
   </si>
   <si>
-    <t>Lockdowns to end</t>
+    <t>India's confirmed coronavirus cases have surpassed China's</t>
+  </si>
+  <si>
+    <t>Lockdowns to end in most areas, high risk areas to remain under lockdown</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +868,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,7 +1154,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1486,13 +1495,14 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1839,46 +1849,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,46 +1998,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,46 +2147,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +2602,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,7 +2751,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,7 +3181,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,7 +3330,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,7 +3388,7 @@
                   <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>4980</c:v>
+                  <c:v>6088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,31 +3765,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,31 +3847,31 @@
                   <c:v>23844.437956518799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42137.415728049069</c:v>
+                  <c:v>99050.076427667722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83775.652124757922</c:v>
+                  <c:v>168343.85349456573</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>163384.40422015599</c:v>
+                  <c:v>296487.23499021621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>320336.15013261209</c:v>
+                  <c:v>541777.41652409709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>630443.24926000752</c:v>
+                  <c:v>1012893.2308333364</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1244232.923073899</c:v>
+                  <c:v>1922595.1323335657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2460828.0462744394</c:v>
+                  <c:v>3688069.0507997544</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4875053.9601374241</c:v>
+                  <c:v>7129101.4931781534</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9670468.0593217257</c:v>
+                  <c:v>13859800.489215309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,31 +3962,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,31 +4044,31 @@
                   <c:v>18479.218827140961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28370.954103857839</c:v>
+                  <c:v>86004.690915828483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59674.384286196801</c:v>
+                  <c:v>124708.3155660998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114416.42944885735</c:v>
+                  <c:v>149363.32894511722</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>231206.55578417089</c:v>
+                  <c:v>301260.99746981933</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>458278.98712400655</c:v>
+                  <c:v>597810.63679947879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>912177.1721235119</c:v>
+                  <c:v>1173807.1212784057</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1816129.3637683322</c:v>
+                  <c:v>2300464.9740950167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3617135.6474213023</c:v>
+                  <c:v>4512132.0058458466</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7206709.3112805709</c:v>
+                  <c:v>8864209.5907323882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,31 +4159,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,31 +4241,31 @@
                   <c:v>5418.0589453962111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11256.180833326916</c:v>
+                  <c:v>12339.076736441166</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18918.039334017998</c:v>
+                  <c:v>23207.025207795061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36452.700254129806</c:v>
+                  <c:v>43768.607958425477</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69324.264739547973</c:v>
+                  <c:v>83964.064602074126</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133243.48478417165</c:v>
+                  <c:v>162781.9583939607</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>258045.3756086721</c:v>
+                  <c:v>317802.01957544073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>502547.90302361763</c:v>
+                  <c:v>623482.30131076311</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>982893.87227280345</c:v>
+                  <c:v>1227512.7558340074</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1928736.7269399972</c:v>
+                  <c:v>2423123.110554711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,31 +4356,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,31 +4438,31 @@
                   <c:v>4256.8857960445075</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9534.2016666602503</c:v>
+                  <c:v>7568.9397036532737</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14986.402103946342</c:v>
+                  <c:v>12118.231595150568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29220.160301908527</c:v>
+                  <c:v>22609.077912993747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54580.179486405956</c:v>
+                  <c:v>43664.804986849966</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103903.46608767209</c:v>
+                  <c:v>84934.518816903583</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199598.21020663422</c:v>
+                  <c:v>166093.48563506134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>386029.24897182453</c:v>
+                  <c:v>326105.56063728023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>750475.42585555464</c:v>
+                  <c:v>642226.63275183504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1464936.98123152</c:v>
+                  <c:v>1267787.5790387755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4543,31 +4553,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5022,31 +5032,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5221,31 +5231,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5420,31 +5430,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5620,31 +5630,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5820,31 +5830,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6019,31 +6029,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,31 +6226,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6416,31 +6426,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6615,31 +6625,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,31 +7104,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7293,31 +7303,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7492,31 +7502,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7692,31 +7702,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7889,31 +7899,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8088,31 +8098,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8285,31 +8295,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,31 +8492,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8681,31 +8691,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9160,31 +9170,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9359,31 +9369,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9558,31 +9568,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9755,31 +9765,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9954,31 +9964,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10151,31 +10161,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10630,31 +10640,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10829,31 +10839,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11026,31 +11036,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11225,31 +11235,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11422,31 +11432,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11896,7 +11906,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12045,7 +12055,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12476,7 +12486,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12625,7 +12635,7 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12683,7 +12693,7 @@
                   <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="#,##0">
-                  <c:v>4980</c:v>
+                  <c:v>6088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13012,46 +13022,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13152,46 +13162,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13295,46 +13305,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13432,46 +13442,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13839,46 +13849,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13988,46 +13998,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14137,46 +14147,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14554,46 +14564,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14694,46 +14704,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14837,46 +14847,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14974,46 +14984,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.643229745372</c:v>
+                  <c:v>43946.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.643229745372</c:v>
+                  <c:v>43949.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.643229745372</c:v>
+                  <c:v>43952.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.643229745372</c:v>
+                  <c:v>43955.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.643229745372</c:v>
+                  <c:v>43958.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.643229745372</c:v>
+                  <c:v>43961.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.643229745372</c:v>
+                  <c:v>43964.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.643229745372</c:v>
+                  <c:v>43967.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.643229745372</c:v>
+                  <c:v>43970.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.643229745372</c:v>
+                  <c:v>43973.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.643229745372</c:v>
+                  <c:v>43976.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.643229745372</c:v>
+                  <c:v>43979.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.643229745372</c:v>
+                  <c:v>43982.718292939811</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.643229745372</c:v>
+                  <c:v>43985.718292939811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15431,31 +15441,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15513,31 +15523,31 @@
                   <c:v>23844.437956518799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42137.415728049069</c:v>
+                  <c:v>99050.076427667722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83775.652124757922</c:v>
+                  <c:v>168343.85349456573</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>163384.40422015599</c:v>
+                  <c:v>296487.23499021621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>320336.15013261209</c:v>
+                  <c:v>541777.41652409709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>630443.24926000752</c:v>
+                  <c:v>1012893.2308333364</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1244232.923073899</c:v>
+                  <c:v>1922595.1323335657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2460828.0462744394</c:v>
+                  <c:v>3688069.0507997544</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4875053.9601374241</c:v>
+                  <c:v>7129101.4931781534</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9670468.0593217257</c:v>
+                  <c:v>13859800.489215309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15628,31 +15638,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15710,31 +15720,31 @@
                   <c:v>18479.218827140961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28370.954103857839</c:v>
+                  <c:v>86004.690915828483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59674.384286196801</c:v>
+                  <c:v>124708.3155660998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114416.42944885735</c:v>
+                  <c:v>149363.32894511722</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>231206.55578417089</c:v>
+                  <c:v>301260.99746981933</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>458278.98712400655</c:v>
+                  <c:v>597810.63679947879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>912177.1721235119</c:v>
+                  <c:v>1173807.1212784057</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1816129.3637683322</c:v>
+                  <c:v>2300464.9740950167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3617135.6474213023</c:v>
+                  <c:v>4512132.0058458466</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7206709.3112805709</c:v>
+                  <c:v>8864209.5907323882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15825,31 +15835,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15907,31 +15917,31 @@
                   <c:v>5418.0589453962111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11256.180833326916</c:v>
+                  <c:v>12339.076736441166</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18918.039334017998</c:v>
+                  <c:v>23207.025207795061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36452.700254129806</c:v>
+                  <c:v>43768.607958425477</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69324.264739547973</c:v>
+                  <c:v>83964.064602074126</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133243.48478417165</c:v>
+                  <c:v>162781.9583939607</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>258045.3756086721</c:v>
+                  <c:v>317802.01957544073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>502547.90302361763</c:v>
+                  <c:v>623482.30131076311</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>982893.87227280345</c:v>
+                  <c:v>1227512.7558340074</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1928736.7269399972</c:v>
+                  <c:v>2423123.110554711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16022,31 +16032,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16104,31 +16114,31 @@
                   <c:v>4256.8857960445075</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9534.2016666602503</c:v>
+                  <c:v>7568.9397036532737</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14986.402103946342</c:v>
+                  <c:v>12118.231595150568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29220.160301908527</c:v>
+                  <c:v>22609.077912993747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54580.179486405956</c:v>
+                  <c:v>43664.804986849966</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103903.46608767209</c:v>
+                  <c:v>84934.518816903583</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199598.21020663422</c:v>
+                  <c:v>166093.48563506134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>386029.24897182453</c:v>
+                  <c:v>326105.56063728023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>750475.42585555464</c:v>
+                  <c:v>642226.63275183504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1464936.98123152</c:v>
+                  <c:v>1267787.5790387755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16219,31 +16229,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16697,31 +16707,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16896,31 +16906,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17095,31 +17105,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17295,31 +17305,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17495,31 +17505,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17694,31 +17704,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17891,31 +17901,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18091,31 +18101,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18290,31 +18300,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18768,31 +18778,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18967,31 +18977,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19166,31 +19176,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19366,31 +19376,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19563,31 +19573,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19762,31 +19772,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19959,31 +19969,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20156,31 +20166,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20355,31 +20365,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20833,31 +20843,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21032,31 +21042,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21231,31 +21241,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21428,31 +21438,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21627,31 +21637,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21824,31 +21834,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22302,31 +22312,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22501,31 +22511,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22698,31 +22708,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22897,31 +22907,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23094,31 +23104,31 @@
                   <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43985</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43997</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44009</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44021</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44033</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44045</c:v>
+                  <c:v>44093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44057</c:v>
+                  <c:v>44113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44069</c:v>
+                  <c:v>44133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44081</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35165,167 +35175,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43941.643229745372</v>
+        <v>43946.718292939811</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43942.643229745372</v>
+        <v>43947.718292939811</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43943.643229745372</v>
+        <v>43948.718292939811</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43944.643229745372</v>
+        <v>43949.718292939811</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43945.643229745372</v>
+        <v>43950.718292939811</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43946.643229745372</v>
+        <v>43951.718292939811</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43947.643229745372</v>
+        <v>43952.718292939811</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43948.643229745372</v>
+        <v>43953.718292939811</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43949.643229745372</v>
+        <v>43954.718292939811</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43950.643229745372</v>
+        <v>43955.718292939811</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43951.643229745372</v>
+        <v>43956.718292939811</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43952.643229745372</v>
+        <v>43957.718292939811</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43953.643229745372</v>
+        <v>43958.718292939811</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43954.643229745372</v>
+        <v>43959.718292939811</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43955.643229745372</v>
+        <v>43960.718292939811</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43956.643229745372</v>
+        <v>43961.718292939811</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43957.643229745372</v>
+        <v>43962.718292939811</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43958.643229745372</v>
+        <v>43963.718292939811</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43959.643229745372</v>
+        <v>43964.718292939811</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43960.643229745372</v>
+        <v>43965.718292939811</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43961.643229745372</v>
+        <v>43966.718292939811</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43962.643229745372</v>
+        <v>43967.718292939811</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43963.643229745372</v>
+        <v>43968.718292939811</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43964.643229745372</v>
+        <v>43969.718292939811</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43965.643229745372</v>
+        <v>43970.718292939811</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43966.643229745372</v>
+        <v>43971.718292939811</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43967.643229745372</v>
+        <v>43972.718292939811</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43968.643229745372</v>
+        <v>43973.718292939811</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43969.643229745372</v>
+        <v>43974.718292939811</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43970.643229745372</v>
+        <v>43975.718292939811</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43971.643229745372</v>
+        <v>43976.718292939811</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43972.643229745372</v>
+        <v>43977.718292939811</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43973.643229745372</v>
+        <v>43978.718292939811</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43974.643229745372</v>
+        <v>43979.718292939811</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43975.643229745372</v>
+        <v>43980.718292939811</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43976.643229745372</v>
+        <v>43981.718292939811</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43977.643229745372</v>
+        <v>43982.718292939811</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43978.643229745372</v>
+        <v>43983.718292939811</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43979.643229745372</v>
+        <v>43984.718292939811</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43980.643229745372</v>
+        <v>43985.718292939811</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43981.643229745372</v>
+        <v>43986.718292939811</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35460,59 +35470,59 @@
       <c r="A28" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="295"/>
-      <c r="H28" s="299" t="s">
+      <c r="C28" s="295"/>
+      <c r="D28" s="295"/>
+      <c r="E28" s="295"/>
+      <c r="F28" s="295"/>
+      <c r="G28" s="296"/>
+      <c r="H28" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="299"/>
-      <c r="L28" s="299"/>
-      <c r="M28" s="299"/>
-      <c r="N28" s="300"/>
-      <c r="O28" s="298" t="s">
+      <c r="I28" s="300"/>
+      <c r="J28" s="300"/>
+      <c r="K28" s="300"/>
+      <c r="L28" s="300"/>
+      <c r="M28" s="300"/>
+      <c r="N28" s="301"/>
+      <c r="O28" s="299" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="299"/>
-      <c r="Q28" s="299"/>
-      <c r="R28" s="299"/>
-      <c r="S28" s="299"/>
-      <c r="T28" s="299"/>
-      <c r="U28" s="300"/>
-      <c r="V28" s="298" t="s">
+      <c r="P28" s="300"/>
+      <c r="Q28" s="300"/>
+      <c r="R28" s="300"/>
+      <c r="S28" s="300"/>
+      <c r="T28" s="300"/>
+      <c r="U28" s="301"/>
+      <c r="V28" s="299" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="299"/>
-      <c r="X28" s="299"/>
-      <c r="Y28" s="299"/>
-      <c r="Z28" s="299"/>
-      <c r="AA28" s="299"/>
-      <c r="AB28" s="300"/>
-      <c r="AC28" s="298" t="s">
+      <c r="W28" s="300"/>
+      <c r="X28" s="300"/>
+      <c r="Y28" s="300"/>
+      <c r="Z28" s="300"/>
+      <c r="AA28" s="300"/>
+      <c r="AB28" s="301"/>
+      <c r="AC28" s="299" t="s">
         <v>59</v>
       </c>
-      <c r="AD28" s="299"/>
-      <c r="AE28" s="299"/>
-      <c r="AF28" s="299"/>
-      <c r="AG28" s="299"/>
-      <c r="AH28" s="299"/>
-      <c r="AI28" s="300"/>
-      <c r="AJ28" s="298" t="s">
+      <c r="AD28" s="300"/>
+      <c r="AE28" s="300"/>
+      <c r="AF28" s="300"/>
+      <c r="AG28" s="300"/>
+      <c r="AH28" s="300"/>
+      <c r="AI28" s="301"/>
+      <c r="AJ28" s="299" t="s">
         <v>60</v>
       </c>
-      <c r="AK28" s="299"/>
-      <c r="AL28" s="299"/>
-      <c r="AM28" s="299"/>
-      <c r="AN28" s="299"/>
-      <c r="AO28" s="299"/>
-      <c r="AP28" s="300"/>
+      <c r="AK28" s="300"/>
+      <c r="AL28" s="300"/>
+      <c r="AM28" s="300"/>
+      <c r="AN28" s="300"/>
+      <c r="AO28" s="300"/>
+      <c r="AP28" s="301"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -35523,43 +35533,43 @@
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
-      <c r="H29" s="296" t="s">
+      <c r="H29" s="297" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="296"/>
-      <c r="J29" s="296"/>
-      <c r="K29" s="296"/>
-      <c r="L29" s="296"/>
-      <c r="M29" s="296"/>
-      <c r="N29" s="296"/>
-      <c r="O29" s="296"/>
-      <c r="P29" s="296"/>
-      <c r="Q29" s="296"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="296"/>
-      <c r="V29" s="296"/>
-      <c r="W29" s="296"/>
-      <c r="X29" s="296"/>
-      <c r="Y29" s="296"/>
-      <c r="Z29" s="296"/>
-      <c r="AA29" s="296"/>
-      <c r="AB29" s="296"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="296"/>
-      <c r="AE29" s="296"/>
-      <c r="AF29" s="296"/>
-      <c r="AG29" s="296"/>
-      <c r="AH29" s="296"/>
-      <c r="AI29" s="296"/>
-      <c r="AJ29" s="296"/>
-      <c r="AK29" s="296"/>
-      <c r="AL29" s="296"/>
-      <c r="AM29" s="296"/>
-      <c r="AN29" s="296"/>
-      <c r="AO29" s="296"/>
-      <c r="AP29" s="297"/>
+      <c r="I29" s="297"/>
+      <c r="J29" s="297"/>
+      <c r="K29" s="297"/>
+      <c r="L29" s="297"/>
+      <c r="M29" s="297"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297"/>
+      <c r="P29" s="297"/>
+      <c r="Q29" s="297"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="297"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="297"/>
+      <c r="V29" s="297"/>
+      <c r="W29" s="297"/>
+      <c r="X29" s="297"/>
+      <c r="Y29" s="297"/>
+      <c r="Z29" s="297"/>
+      <c r="AA29" s="297"/>
+      <c r="AB29" s="297"/>
+      <c r="AC29" s="297"/>
+      <c r="AD29" s="297"/>
+      <c r="AE29" s="297"/>
+      <c r="AF29" s="297"/>
+      <c r="AG29" s="297"/>
+      <c r="AH29" s="297"/>
+      <c r="AI29" s="297"/>
+      <c r="AJ29" s="297"/>
+      <c r="AK29" s="297"/>
+      <c r="AL29" s="297"/>
+      <c r="AM29" s="297"/>
+      <c r="AN29" s="297"/>
+      <c r="AO29" s="297"/>
+      <c r="AP29" s="298"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="56" t="s">
@@ -35843,8 +35853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AP98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36113,7 +36123,7 @@
       <c r="A10" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="292">
+      <c r="B10" s="290">
         <v>1.4E-2</v>
       </c>
       <c r="D10" s="66"/>
@@ -36315,11 +36325,11 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
-      <c r="W15" s="147">
-        <v>43969</v>
-      </c>
-      <c r="X15" s="148" t="s">
-        <v>210</v>
+      <c r="W15" s="204">
+        <v>43968</v>
+      </c>
+      <c r="X15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -36339,11 +36349,11 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
-      <c r="X16" s="267">
-        <v>43974</v>
-      </c>
-      <c r="Y16" s="268" t="s">
-        <v>214</v>
+      <c r="W16" s="147">
+        <v>43969</v>
+      </c>
+      <c r="X16" s="148" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -36358,10 +36368,10 @@
         <v>169</v>
       </c>
       <c r="X17" s="267">
-        <v>43982</v>
+        <v>43974</v>
       </c>
       <c r="Y17" s="268" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE17" s="164"/>
       <c r="AF17" s="164"/>
@@ -36382,6 +36392,12 @@
       <c r="D18" s="168" t="s">
         <v>161</v>
       </c>
+      <c r="X18" s="267">
+        <v>43982</v>
+      </c>
+      <c r="Y18" s="268" t="s">
+        <v>216</v>
+      </c>
       <c r="AD18" s="165"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -36394,7 +36410,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="271">
         <f>(AG22-L22)/(LOG(AG23/L23)/LOG(2))</f>
-        <v>8.8571428571428577</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="E19" s="164"/>
       <c r="O19" s="16"/>
@@ -36459,7 +36475,9 @@
       <c r="G21" s="178">
         <v>43961</v>
       </c>
-      <c r="H21" s="178"/>
+      <c r="H21" s="178">
+        <v>43973</v>
+      </c>
       <c r="I21" s="178"/>
       <c r="J21" s="178"/>
       <c r="K21" s="178"/>
@@ -36493,29 +36511,31 @@
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="146">
+      <c r="B22" s="285">
         <v>5</v>
       </c>
-      <c r="C22" s="285">
+      <c r="C22" s="291">
         <v>4</v>
       </c>
-      <c r="D22" s="146">
+      <c r="D22" s="285">
         <v>5</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="146">
         <v>8</v>
       </c>
-      <c r="F22" s="207">
+      <c r="F22" s="78">
         <v>11</v>
       </c>
-      <c r="G22" s="207">
+      <c r="G22" s="78">
         <v>12</v>
       </c>
-      <c r="H22" s="207"/>
+      <c r="H22" s="207">
+        <v>20</v>
+      </c>
       <c r="I22" s="207"/>
       <c r="J22" s="207"/>
       <c r="K22" s="207"/>
-      <c r="L22" s="286">
+      <c r="L22" s="293">
         <v>43895</v>
       </c>
       <c r="M22" s="287">
@@ -36526,19 +36546,19 @@
         <f t="shared" si="0"/>
         <v>43905</v>
       </c>
-      <c r="O22" s="288">
+      <c r="O22" s="292">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="P22" s="288">
+      <c r="P22" s="292">
         <f t="shared" si="0"/>
         <v>43914</v>
       </c>
-      <c r="Q22" s="288">
+      <c r="Q22" s="292">
         <f t="shared" si="0"/>
         <v>43918</v>
       </c>
-      <c r="R22" s="288">
+      <c r="R22" s="292">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
@@ -36546,85 +36566,85 @@
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="T22" s="289">
+      <c r="T22" s="286">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
-      <c r="U22" s="291">
+      <c r="U22" s="288">
         <f t="shared" si="0"/>
         <v>43939</v>
       </c>
-      <c r="V22" s="291">
+      <c r="V22" s="288">
         <f t="shared" si="0"/>
         <v>43950</v>
       </c>
-      <c r="W22" s="291">
+      <c r="W22" s="288">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
-      <c r="X22" s="290">
+      <c r="X22" s="289">
         <f t="shared" si="0"/>
         <v>43973</v>
       </c>
       <c r="Y22" s="217">
         <f t="shared" si="0"/>
-        <v>43985</v>
+        <v>43993</v>
       </c>
       <c r="Z22" s="217">
         <f t="shared" si="0"/>
-        <v>43997</v>
+        <v>44013</v>
       </c>
       <c r="AA22" s="217">
         <f t="shared" si="0"/>
-        <v>44009</v>
+        <v>44033</v>
       </c>
       <c r="AB22" s="217">
         <f t="shared" si="0"/>
-        <v>44021</v>
+        <v>44053</v>
       </c>
       <c r="AC22" s="217">
         <f t="shared" si="0"/>
-        <v>44033</v>
+        <v>44073</v>
       </c>
       <c r="AD22" s="217">
         <f t="shared" si="0"/>
-        <v>44045</v>
+        <v>44093</v>
       </c>
       <c r="AE22" s="217">
         <f t="shared" si="0"/>
-        <v>44057</v>
+        <v>44113</v>
       </c>
       <c r="AF22" s="217">
         <f t="shared" ref="AF22" si="1">AE22+HLOOKUP(AE22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44069</v>
+        <v>44133</v>
       </c>
       <c r="AG22" s="224">
         <f t="shared" ref="AG22" si="2">AF22+HLOOKUP(AF22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44081</v>
+        <v>44153</v>
       </c>
       <c r="AH22" s="217">
         <f>AG22+HLOOKUP(AG22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44093</v>
+        <v>44173</v>
       </c>
       <c r="AI22" s="217">
         <f>AH22+HLOOKUP(AH22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44105</v>
+        <v>44193</v>
       </c>
       <c r="AJ22" s="217">
         <f>AI22+HLOOKUP(AI22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44117</v>
+        <v>44213</v>
       </c>
       <c r="AK22" s="224">
         <f>AI22+HLOOKUP(AI22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44117</v>
+        <v>44213</v>
       </c>
       <c r="AL22" s="224">
         <f>AK22+HLOOKUP(AK22+1, $B$21:$K$22,2,TRUE)</f>
-        <v>44129</v>
+        <v>44233</v>
       </c>
       <c r="AM22" s="236">
         <f>AL22+(7*8)</f>
-        <v>44185</v>
+        <v>44289</v>
       </c>
       <c r="AN22" s="67"/>
       <c r="AO22" s="67"/>
@@ -36957,59 +36977,59 @@
       </c>
       <c r="Y25" s="273">
         <f t="shared" si="9"/>
-        <v>58161.429709246055</v>
+        <v>38291.434325025977</v>
       </c>
       <c r="Z25" s="273">
         <f t="shared" si="9"/>
-        <v>177494.85772027567</v>
+        <v>81321.860092609582</v>
       </c>
       <c r="AA25" s="273">
         <f t="shared" si="9"/>
-        <v>377265.74115957716</v>
+        <v>146665.11498297646</v>
       </c>
       <c r="AB25" s="273">
         <f t="shared" si="9"/>
-        <v>821073.23161773954</v>
+        <v>406966.47477689723</v>
       </c>
       <c r="AC25" s="273">
         <f t="shared" si="9"/>
-        <v>1735951.2656639188</v>
+        <v>966002.24040692218</v>
       </c>
       <c r="AD25" s="273">
         <f t="shared" si="9"/>
-        <v>3621161.9987870865</v>
+        <v>2143110.7378823208</v>
       </c>
       <c r="AE25" s="273">
         <f t="shared" si="9"/>
-        <v>7481506.6344594946</v>
+        <v>4598605.9013874158</v>
       </c>
       <c r="AF25" s="273">
         <f t="shared" ref="AF25:AK25" si="10">MAX(AF23-(AF31-AF32)-(AF33-AF34)-(AF35-AF36),0)</f>
-        <v>15354782.510047209</v>
+        <v>9680037.7450746037</v>
       </c>
       <c r="AG25" s="273">
         <f t="shared" si="10"/>
-        <v>31362906.529822413</v>
+        <v>20130479.179014832</v>
       </c>
       <c r="AH25" s="227">
         <f t="shared" si="10"/>
-        <v>63831863.764536567</v>
+        <v>41520625.043130979</v>
       </c>
       <c r="AI25" s="185">
         <f t="shared" si="10"/>
-        <v>129560182.23724906</v>
+        <v>85141284.919321865</v>
       </c>
       <c r="AJ25" s="185">
         <f t="shared" ref="AJ25" si="11">MAX(AJ23-(AJ31-AJ32)-(AJ33-AJ34)-(AJ35-AJ36),0)</f>
-        <v>262407822.29272473</v>
+        <v>173839561.7183789</v>
       </c>
       <c r="AK25" s="186">
         <f t="shared" si="10"/>
-        <v>786695822.29272473</v>
+        <v>698127561.7183789</v>
       </c>
       <c r="AL25" s="185">
         <f t="shared" si="9"/>
-        <v>874148724.69642568</v>
+        <v>697364038.82993293</v>
       </c>
       <c r="AM25" s="231"/>
       <c r="AN25" s="45"/>
@@ -37084,59 +37104,59 @@
       </c>
       <c r="Y26" s="211">
         <f t="shared" si="12"/>
-        <v>196839.82237408726</v>
+        <v>214941.88619595705</v>
       </c>
       <c r="Z26" s="211">
         <f t="shared" si="12"/>
-        <v>332224.79268628277</v>
+        <v>424246.63961205661</v>
       </c>
       <c r="AA26" s="211">
         <f t="shared" si="12"/>
-        <v>642539.38566813455</v>
+        <v>865062.35759067314</v>
       </c>
       <c r="AB26" s="211">
         <f t="shared" si="12"/>
-        <v>1218375.1989354382</v>
+        <v>1617659.9546462728</v>
       </c>
       <c r="AC26" s="211">
         <f t="shared" si="12"/>
-        <v>2343031.5234921114</v>
+        <v>3084846.2446383848</v>
       </c>
       <c r="AD26" s="211">
         <f t="shared" si="12"/>
-        <v>4536938.6452797316</v>
+        <v>5960898.3124322593</v>
       </c>
       <c r="AE26" s="211">
         <f t="shared" si="12"/>
-        <v>8834912.5461904649</v>
+        <v>11612915.589021964</v>
       </c>
       <c r="AF26" s="211">
         <f t="shared" si="12"/>
-        <v>17278414.791030787</v>
+        <v>22748496.303537738</v>
       </c>
       <c r="AG26" s="211">
         <f t="shared" si="12"/>
-        <v>33904089.617666677</v>
+        <v>44735426.212705925</v>
       </c>
       <c r="AH26" s="253">
         <f>MAX(AH23-AH25-AH38,0)</f>
-        <v>66703151.267939329</v>
+        <v>88225714.370397374</v>
       </c>
       <c r="AI26" s="200">
         <f>MAX(AI23-AI25-AI38,0)</f>
-        <v>131511608.04705907</v>
+        <v>174375700.49682349</v>
       </c>
       <c r="AJ26" s="200">
         <f t="shared" ref="AJ26:AK26" si="13">MAX(AJ23-AJ25-AJ38,0)</f>
-        <v>259738819.76290423</v>
+        <v>345235673.33666468</v>
       </c>
       <c r="AK26" s="201">
         <f t="shared" si="13"/>
-        <v>259738819.76290423</v>
+        <v>345235673.33666468</v>
       </c>
       <c r="AL26" s="200">
         <f>MAX(AL23-AL25-AL38,0)</f>
-        <v>513729932.99343264</v>
+        <v>684437358.39742661</v>
       </c>
       <c r="AM26" s="232"/>
       <c r="AN26" s="25"/>
@@ -37632,27 +37652,27 @@
       </c>
       <c r="AG30" s="184">
         <f t="shared" si="25"/>
-        <v>79904807.258942753</v>
+        <v>100386528.86583802</v>
       </c>
       <c r="AH30" s="228">
         <f t="shared" si="25"/>
-        <v>157209594.70363557</v>
+        <v>198566328.49897164</v>
       </c>
       <c r="AI30" s="189">
         <f t="shared" si="25"/>
-        <v>309959102.75994492</v>
+        <v>393392790.50820631</v>
       </c>
       <c r="AJ30" s="189">
         <f t="shared" si="25"/>
-        <v>612183782.89449251</v>
+        <v>780366753.42058361</v>
       </c>
       <c r="AK30" s="190">
         <f t="shared" si="25"/>
-        <v>612183782.89449251</v>
+        <v>780366753.42058361</v>
       </c>
       <c r="AL30" s="189">
         <f t="shared" si="25"/>
-        <v>1210827837.9413269</v>
+        <v>1392156000</v>
       </c>
       <c r="AM30" s="233"/>
       <c r="AN30" s="25"/>
@@ -37857,59 +37877,59 @@
       </c>
       <c r="Y32" s="191">
         <f t="shared" si="29"/>
-        <v>25009.870500103949</v>
+        <v>7466.956869653106</v>
       </c>
       <c r="Z32" s="191">
         <f t="shared" si="29"/>
-        <v>108247.76278890844</v>
+        <v>38766.191633720009</v>
       </c>
       <c r="AA32" s="191">
         <f t="shared" si="29"/>
-        <v>238906.25588309707</v>
+        <v>120388.55107350717</v>
       </c>
       <c r="AB32" s="191">
         <f t="shared" si="29"/>
-        <v>535826.91121932282</v>
+        <v>298662.15344639914</v>
       </c>
       <c r="AC32" s="191">
         <f t="shared" si="29"/>
-        <v>1159215.5464964192</v>
+        <v>680692.2740178369</v>
       </c>
       <c r="AD32" s="191">
         <f t="shared" si="29"/>
-        <v>2455184.9151395117</v>
+        <v>1487127.2828778606</v>
       </c>
       <c r="AE32" s="191">
         <f t="shared" si="29"/>
-        <v>5129763.9710173942</v>
+        <v>3170626.7187656369</v>
       </c>
       <c r="AF32" s="191">
         <f t="shared" si="29"/>
-        <v>10619199.269180583</v>
+        <v>6656373.3554890826</v>
       </c>
       <c r="AG32" s="191">
         <f t="shared" si="29"/>
-        <v>21838625.023572046</v>
+        <v>13829565.609013684</v>
       </c>
       <c r="AH32" s="228">
         <f t="shared" si="29"/>
-        <v>44693947.450371467</v>
+        <v>28522038.442126274</v>
       </c>
       <c r="AI32" s="189">
         <f t="shared" si="29"/>
-        <v>91131942.575938791</v>
+        <v>58506493.642653137</v>
       </c>
       <c r="AJ32" s="189">
         <f t="shared" si="29"/>
-        <v>185288311.1026364</v>
+        <v>119522970.214158</v>
       </c>
       <c r="AK32" s="190">
         <f t="shared" si="29"/>
-        <v>609961591.10263634</v>
+        <v>544196250.21415806</v>
       </c>
       <c r="AL32" s="189">
         <f t="shared" si="29"/>
-        <v>654170922.68087435</v>
+        <v>521700701.42588234</v>
       </c>
       <c r="AM32" s="231"/>
       <c r="AN32" s="25"/>
@@ -37984,59 +38004,59 @@
       </c>
       <c r="Y33" s="198">
         <f t="shared" si="30"/>
-        <v>42137.415728049069</v>
+        <v>99050.076427667722</v>
       </c>
       <c r="Z33" s="198">
         <f t="shared" si="30"/>
-        <v>83775.652124757922</v>
+        <v>168343.85349456573</v>
       </c>
       <c r="AA33" s="198">
         <f t="shared" si="30"/>
-        <v>163384.40422015599</v>
+        <v>296487.23499021621</v>
       </c>
       <c r="AB33" s="198">
         <f t="shared" si="30"/>
-        <v>320336.15013261209</v>
+        <v>541777.41652409709</v>
       </c>
       <c r="AC33" s="198">
         <f t="shared" si="30"/>
-        <v>630443.24926000752</v>
+        <v>1012893.2308333364</v>
       </c>
       <c r="AD33" s="198">
         <f t="shared" si="30"/>
-        <v>1244232.923073899</v>
+        <v>1922595.1323335657</v>
       </c>
       <c r="AE33" s="198">
         <f t="shared" si="30"/>
-        <v>2460828.0462744394</v>
+        <v>3688069.0507997544</v>
       </c>
       <c r="AF33" s="198">
         <f t="shared" si="30"/>
-        <v>4875053.9601374241</v>
+        <v>7129101.4931781534</v>
       </c>
       <c r="AG33" s="198">
         <f t="shared" si="30"/>
-        <v>9670468.0593217257</v>
+        <v>13859800.489215309</v>
       </c>
       <c r="AH33" s="225">
         <f t="shared" si="30"/>
-        <v>19203269.026524834</v>
+        <v>27063711.056680385</v>
       </c>
       <c r="AI33" s="194">
         <f t="shared" si="30"/>
-        <v>38166196.049171478</v>
+        <v>53029076.824208044</v>
       </c>
       <c r="AJ33" s="194">
         <f t="shared" si="30"/>
-        <v>75909156.029367983</v>
+        <v>104192355.39221598</v>
       </c>
       <c r="AK33" s="195">
         <f t="shared" si="30"/>
-        <v>75909156.029367983</v>
+        <v>104192355.39221598</v>
       </c>
       <c r="AL33" s="194">
         <f>($L$23*($B$16+$B$17))*(2^(((AL22 - 7) - $L$22)/AL48))</f>
-        <v>162490709.14479673</v>
+        <v>191159207.97668895</v>
       </c>
       <c r="AM33" s="231">
         <f>AM23*(B16+B17)</f>
@@ -38114,59 +38134,59 @@
       </c>
       <c r="Y34" s="184">
         <f t="shared" si="32"/>
-        <v>28370.954103857839</v>
+        <v>86004.690915828483</v>
       </c>
       <c r="Z34" s="184">
         <f t="shared" si="32"/>
-        <v>59674.384286196801</v>
+        <v>124708.3155660998</v>
       </c>
       <c r="AA34" s="184">
         <f t="shared" si="32"/>
-        <v>114416.42944885735</v>
+        <v>149363.32894511722</v>
       </c>
       <c r="AB34" s="184">
         <f t="shared" si="32"/>
-        <v>231206.55578417089</v>
+        <v>301260.99746981933</v>
       </c>
       <c r="AC34" s="184">
         <f t="shared" si="32"/>
-        <v>458278.98712400655</v>
+        <v>597810.63679947879</v>
       </c>
       <c r="AD34" s="184">
         <f t="shared" si="32"/>
-        <v>912177.1721235119</v>
+        <v>1173807.1212784057</v>
       </c>
       <c r="AE34" s="184">
         <f t="shared" si="32"/>
-        <v>1816129.3637683322</v>
+        <v>2300464.9740950167</v>
       </c>
       <c r="AF34" s="184">
         <f t="shared" si="32"/>
-        <v>3617135.6474213023</v>
+        <v>4512132.0058458466</v>
       </c>
       <c r="AG34" s="184">
         <f t="shared" si="32"/>
-        <v>7206709.3112805709</v>
+        <v>8864209.5907323882</v>
       </c>
       <c r="AH34" s="228">
         <f t="shared" si="32"/>
-        <v>14363341.491593558</v>
+        <v>17444239.358498268</v>
       </c>
       <c r="AI34" s="189">
         <f t="shared" si="32"/>
-        <v>28635713.151329797</v>
+        <v>34385843.59028136</v>
       </c>
       <c r="AJ34" s="189">
         <f t="shared" si="32"/>
-        <v>57105943.675268471</v>
+        <v>67881752.663603082</v>
       </c>
       <c r="AK34" s="190">
         <f t="shared" si="32"/>
-        <v>57105943.675268471</v>
+        <v>67881752.663603082</v>
       </c>
       <c r="AL34" s="189">
         <f t="shared" si="32"/>
-        <v>125333599.28128196</v>
+        <v>120165668.78184372</v>
       </c>
       <c r="AM34" s="233"/>
       <c r="AN34" s="45"/>
@@ -38241,59 +38261,59 @@
       </c>
       <c r="Y35" s="198">
         <f t="shared" si="33"/>
-        <v>11256.180833326916</v>
+        <v>12339.076736441166</v>
       </c>
       <c r="Z35" s="198">
         <f t="shared" si="33"/>
-        <v>18918.039334017998</v>
+        <v>23207.025207795061</v>
       </c>
       <c r="AA35" s="198">
         <f t="shared" si="33"/>
-        <v>36452.700254129806</v>
+        <v>43768.607958425477</v>
       </c>
       <c r="AB35" s="198">
         <f t="shared" si="33"/>
-        <v>69324.264739547973</v>
+        <v>83964.064602074126</v>
       </c>
       <c r="AC35" s="198">
         <f t="shared" si="33"/>
-        <v>133243.48478417165</v>
+        <v>162781.9583939607</v>
       </c>
       <c r="AD35" s="198">
         <f t="shared" si="33"/>
-        <v>258045.3756086721</v>
+        <v>317802.01957544073</v>
       </c>
       <c r="AE35" s="198">
         <f t="shared" si="33"/>
-        <v>502547.90302361763</v>
+        <v>623482.30131076311</v>
       </c>
       <c r="AF35" s="198">
         <f t="shared" si="33"/>
-        <v>982893.87227280345</v>
+        <v>1227512.7558340074</v>
       </c>
       <c r="AG35" s="198">
         <f t="shared" si="33"/>
-        <v>1928736.7269399972</v>
+        <v>2423123.110554711</v>
       </c>
       <c r="AH35" s="225">
         <f t="shared" si="33"/>
-        <v>3794714.3549153414</v>
+        <v>4792980.3430786254</v>
       </c>
       <c r="AI35" s="194">
         <f t="shared" si="33"/>
-        <v>7481771.4459297042</v>
+        <v>9495688.046749806</v>
       </c>
       <c r="AJ35" s="194">
         <f t="shared" si="33"/>
-        <v>14776849.931936024</v>
+        <v>18836438.87566926</v>
       </c>
       <c r="AK35" s="195">
         <f t="shared" si="33"/>
-        <v>14776849.931936024</v>
+        <v>18836438.87566926</v>
       </c>
       <c r="AL35" s="194">
         <f t="shared" si="33"/>
-        <v>29226878.846859612</v>
+        <v>37404052.998402327</v>
       </c>
       <c r="AM35" s="231">
         <f>AM23*B17</f>
@@ -38371,59 +38391,59 @@
       </c>
       <c r="Y36" s="191">
         <f t="shared" si="35"/>
-        <v>9534.2016666602503</v>
+        <v>7568.9397036532737</v>
       </c>
       <c r="Z36" s="191">
         <f t="shared" si="35"/>
-        <v>14986.402103946342</v>
+        <v>12118.231595150568</v>
       </c>
       <c r="AA36" s="191">
         <f t="shared" si="35"/>
-        <v>29220.160301908527</v>
+        <v>22609.077912993747</v>
       </c>
       <c r="AB36" s="191">
         <f t="shared" si="35"/>
-        <v>54580.179486405956</v>
+        <v>43664.804986849966</v>
       </c>
       <c r="AC36" s="191">
         <f t="shared" si="35"/>
-        <v>103903.46608767209</v>
+        <v>84934.518816903583</v>
       </c>
       <c r="AD36" s="191">
         <f t="shared" si="35"/>
-        <v>199598.21020663422</v>
+        <v>166093.48563506134</v>
       </c>
       <c r="AE36" s="191">
         <f t="shared" si="35"/>
-        <v>386029.24897182453</v>
+        <v>326105.56063728023</v>
       </c>
       <c r="AF36" s="191">
         <f t="shared" si="35"/>
-        <v>750475.42585555464</v>
+        <v>642226.63275183504</v>
       </c>
       <c r="AG36" s="191">
         <f t="shared" si="35"/>
-        <v>1464936.98123152</v>
+        <v>1267787.5790387755</v>
       </c>
       <c r="AH36" s="228">
         <f t="shared" si="35"/>
-        <v>2868878.2040117076</v>
+        <v>2507358.6422654521</v>
       </c>
       <c r="AI36" s="189">
         <f t="shared" si="35"/>
-        <v>5633134.0050816499</v>
+        <v>4966352.5573452245</v>
       </c>
       <c r="AJ36" s="189">
         <f t="shared" si="35"/>
-        <v>11084853.476123881</v>
+        <v>9848913.1085030586</v>
       </c>
       <c r="AK36" s="190">
         <f t="shared" si="35"/>
-        <v>11084853.476123881</v>
+        <v>9848913.1085030586</v>
       </c>
       <c r="AL36" s="189">
         <f t="shared" si="35"/>
-        <v>21852150.725925669</v>
+        <v>19551289.597298082</v>
       </c>
       <c r="AM36" s="231"/>
       <c r="AN36" s="45"/>
@@ -38604,63 +38624,63 @@
       </c>
       <c r="Y38" s="196">
         <f t="shared" si="39"/>
-        <v>998.74791666666636</v>
+        <v>2766.6794790169774</v>
       </c>
       <c r="Z38" s="196">
         <f t="shared" si="39"/>
-        <v>2280.3495934415605</v>
+        <v>6431.5002953338062</v>
       </c>
       <c r="AA38" s="196">
         <f t="shared" si="39"/>
-        <v>4194.8731722883422</v>
+        <v>12272.527426350402</v>
       </c>
       <c r="AB38" s="196">
         <f t="shared" si="39"/>
-        <v>8551.5694468223701</v>
+        <v>23373.570576830014</v>
       </c>
       <c r="AC38" s="196">
         <f t="shared" si="39"/>
-        <v>17017.210843969748</v>
+        <v>45151.514954693128</v>
       </c>
       <c r="AD38" s="196">
         <f t="shared" si="39"/>
-        <v>33899.355933181978</v>
+        <v>87990.949685420041</v>
       </c>
       <c r="AE38" s="196">
         <f t="shared" si="39"/>
-        <v>67580.819350039979</v>
+        <v>172478.50959062009</v>
       </c>
       <c r="AF38" s="196">
         <f t="shared" si="39"/>
-        <v>134802.69892200435</v>
+        <v>339465.95138765994</v>
       </c>
       <c r="AG38" s="196">
         <f t="shared" si="39"/>
-        <v>269003.85251091688</v>
+        <v>670094.60827924265</v>
       </c>
       <c r="AH38" s="228">
         <f t="shared" si="39"/>
-        <v>536984.96752410755</v>
+        <v>1325660.5864716405</v>
       </c>
       <c r="AI38" s="189">
         <f t="shared" si="39"/>
-        <v>1072209.7156918715</v>
+        <v>2627014.5838546571</v>
       </c>
       <c r="AJ38" s="189">
         <f t="shared" si="39"/>
-        <v>2141357.9443710428</v>
+        <v>5212764.9449563967</v>
       </c>
       <c r="AK38" s="190">
         <f t="shared" si="39"/>
-        <v>2141357.9443710428</v>
+        <v>5212764.9449563967</v>
       </c>
       <c r="AL38" s="189">
         <f t="shared" si="39"/>
-        <v>4277342.3101416854</v>
+        <v>10354602.772640463</v>
       </c>
       <c r="AM38" s="234">
         <f>($L$23*$B$18)*(2^(((AM22 - 35) - $L$22)/AM48))</f>
-        <v>4995044.7473992435</v>
+        <v>8765455.3894519899</v>
       </c>
       <c r="AN38" s="45"/>
       <c r="AO38" s="45"/>
@@ -38734,31 +38754,31 @@
       </c>
       <c r="Y39" s="140">
         <f t="shared" si="40"/>
-        <v>43978</v>
+        <v>43986</v>
       </c>
       <c r="Z39" s="140">
         <f t="shared" si="40"/>
-        <v>43990</v>
+        <v>44006</v>
       </c>
       <c r="AA39" s="140">
         <f t="shared" si="40"/>
-        <v>44002</v>
+        <v>44026</v>
       </c>
       <c r="AB39" s="140">
         <f t="shared" si="40"/>
-        <v>44014</v>
+        <v>44046</v>
       </c>
       <c r="AC39" s="140">
         <f t="shared" si="40"/>
-        <v>44026</v>
+        <v>44066</v>
       </c>
       <c r="AD39" s="140">
         <f t="shared" si="40"/>
-        <v>44038</v>
+        <v>44086</v>
       </c>
       <c r="AE39" s="140">
         <f t="shared" si="40"/>
-        <v>44050</v>
+        <v>44106</v>
       </c>
       <c r="AF39" s="140"/>
       <c r="AG39" s="140"/>
@@ -38768,7 +38788,7 @@
       <c r="AK39" s="140"/>
       <c r="AL39" s="140">
         <f t="shared" si="40"/>
-        <v>44122</v>
+        <v>44226</v>
       </c>
       <c r="AM39" s="140"/>
       <c r="AN39" s="45"/>
@@ -38842,31 +38862,31 @@
       </c>
       <c r="Y40" s="140">
         <f t="shared" si="41"/>
-        <v>43971</v>
+        <v>43979</v>
       </c>
       <c r="Z40" s="140">
         <f t="shared" si="41"/>
-        <v>43983</v>
+        <v>43999</v>
       </c>
       <c r="AA40" s="140">
         <f t="shared" si="41"/>
-        <v>43995</v>
+        <v>44019</v>
       </c>
       <c r="AB40" s="140">
         <f t="shared" si="41"/>
-        <v>44007</v>
+        <v>44039</v>
       </c>
       <c r="AC40" s="140">
         <f t="shared" si="41"/>
-        <v>44019</v>
+        <v>44059</v>
       </c>
       <c r="AD40" s="140">
         <f t="shared" si="41"/>
-        <v>44031</v>
+        <v>44079</v>
       </c>
       <c r="AE40" s="140">
         <f t="shared" si="41"/>
-        <v>44043</v>
+        <v>44099</v>
       </c>
       <c r="AF40" s="140"/>
       <c r="AG40" s="140"/>
@@ -38876,7 +38896,7 @@
       <c r="AK40" s="140"/>
       <c r="AL40" s="140">
         <f t="shared" si="41"/>
-        <v>44115</v>
+        <v>44219</v>
       </c>
       <c r="AM40" s="140"/>
       <c r="AN40" s="45"/>
@@ -38950,31 +38970,31 @@
       </c>
       <c r="Y41" s="140">
         <f t="shared" si="42"/>
-        <v>43950</v>
+        <v>43958</v>
       </c>
       <c r="Z41" s="140">
         <f t="shared" si="42"/>
-        <v>43962</v>
+        <v>43978</v>
       </c>
       <c r="AA41" s="140">
         <f t="shared" si="42"/>
-        <v>43974</v>
+        <v>43998</v>
       </c>
       <c r="AB41" s="140">
         <f t="shared" si="42"/>
-        <v>43986</v>
+        <v>44018</v>
       </c>
       <c r="AC41" s="140">
         <f t="shared" si="42"/>
-        <v>43998</v>
+        <v>44038</v>
       </c>
       <c r="AD41" s="140">
         <f t="shared" si="42"/>
-        <v>44010</v>
+        <v>44058</v>
       </c>
       <c r="AE41" s="140">
         <f t="shared" si="42"/>
-        <v>44022</v>
+        <v>44078</v>
       </c>
       <c r="AF41" s="140"/>
       <c r="AG41" s="140"/>
@@ -38984,7 +39004,7 @@
       <c r="AK41" s="140"/>
       <c r="AL41" s="140">
         <f t="shared" si="42"/>
-        <v>44094</v>
+        <v>44198</v>
       </c>
       <c r="AM41" s="140"/>
       <c r="AN41" s="45"/>
@@ -39058,31 +39078,31 @@
       </c>
       <c r="Y42" s="140">
         <f t="shared" si="43"/>
-        <v>43943</v>
+        <v>43951</v>
       </c>
       <c r="Z42" s="140">
         <f t="shared" si="43"/>
-        <v>43955</v>
+        <v>43971</v>
       </c>
       <c r="AA42" s="140">
         <f t="shared" si="43"/>
-        <v>43967</v>
+        <v>43991</v>
       </c>
       <c r="AB42" s="140">
         <f t="shared" si="43"/>
-        <v>43979</v>
+        <v>44011</v>
       </c>
       <c r="AC42" s="140">
         <f t="shared" si="43"/>
-        <v>43991</v>
+        <v>44031</v>
       </c>
       <c r="AD42" s="140">
         <f t="shared" si="43"/>
-        <v>44003</v>
+        <v>44051</v>
       </c>
       <c r="AE42" s="140">
         <f t="shared" si="43"/>
-        <v>44015</v>
+        <v>44071</v>
       </c>
       <c r="AF42" s="140"/>
       <c r="AG42" s="140"/>
@@ -39092,7 +39112,7 @@
       <c r="AK42" s="140"/>
       <c r="AL42" s="140">
         <f t="shared" si="43"/>
-        <v>44087</v>
+        <v>44191</v>
       </c>
       <c r="AM42" s="140"/>
       <c r="AN42" s="45"/>
@@ -39181,63 +39201,63 @@
       </c>
       <c r="Y45" s="281">
         <f t="shared" si="44"/>
-        <v>17.857142857142858</v>
+        <v>19</v>
       </c>
       <c r="Z45" s="256">
         <f t="shared" si="44"/>
-        <v>19.571428571428573</v>
+        <v>21.857142857142858</v>
       </c>
       <c r="AA45" s="256">
         <f t="shared" si="44"/>
-        <v>21.285714285714285</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="AB45" s="255">
         <f t="shared" si="44"/>
-        <v>23</v>
+        <v>27.571428571428573</v>
       </c>
       <c r="AC45" s="255">
         <f t="shared" si="44"/>
-        <v>24.714285714285715</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="AD45" s="256">
         <f t="shared" si="44"/>
-        <v>26.428571428571427</v>
+        <v>33.285714285714285</v>
       </c>
       <c r="AE45" s="257">
         <f t="shared" si="44"/>
-        <v>28.142857142857142</v>
+        <v>36.142857142857146</v>
       </c>
       <c r="AF45" s="281">
         <f t="shared" ref="AF45:AK45" si="45">(AF22-$B$19)/7</f>
-        <v>29.857142857142858</v>
+        <v>39</v>
       </c>
       <c r="AG45" s="256">
         <f t="shared" si="45"/>
-        <v>31.571428571428573</v>
+        <v>41.857142857142854</v>
       </c>
       <c r="AH45" s="138">
         <f t="shared" si="45"/>
-        <v>33.285714285714285</v>
+        <v>44.714285714285715</v>
       </c>
       <c r="AI45" s="135">
         <f t="shared" si="45"/>
-        <v>35</v>
+        <v>47.571428571428569</v>
       </c>
       <c r="AJ45" s="135">
         <f t="shared" si="45"/>
-        <v>36.714285714285715</v>
+        <v>50.428571428571431</v>
       </c>
       <c r="AK45" s="138">
         <f t="shared" si="45"/>
-        <v>36.714285714285715</v>
+        <v>50.428571428571431</v>
       </c>
       <c r="AL45" s="136">
         <f>(AL22-$B$19)/7</f>
-        <v>38.428571428571431</v>
+        <v>53.285714285714285</v>
       </c>
       <c r="AM45" s="136">
         <f t="shared" si="44"/>
-        <v>46.428571428571431</v>
+        <v>61.285714285714285</v>
       </c>
     </row>
     <row r="46" spans="1:42" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -39308,63 +39328,63 @@
       </c>
       <c r="Y46" s="221">
         <f t="shared" si="47"/>
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Z46" s="221">
         <f t="shared" si="47"/>
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="AA46" s="221">
         <f t="shared" si="47"/>
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="AB46" s="221">
         <f t="shared" si="47"/>
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AC46" s="221">
         <f t="shared" si="47"/>
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="AD46" s="221">
         <f t="shared" si="47"/>
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="AE46" s="221">
         <f t="shared" si="47"/>
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="AF46" s="221">
         <f t="shared" ref="AF46:AK46" si="48">AF22-$B$19</f>
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="AG46" s="222">
         <f t="shared" si="48"/>
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AH46" s="254">
         <f t="shared" si="48"/>
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="AI46" s="177">
         <f t="shared" si="48"/>
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="AJ46" s="177">
         <f t="shared" si="48"/>
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="AK46" s="252">
         <f t="shared" si="48"/>
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="AL46" s="252">
         <f t="shared" si="47"/>
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="AM46" s="177">
         <f t="shared" si="47"/>
-        <v>325</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
@@ -39549,63 +39569,63 @@
       </c>
       <c r="Y48" s="172">
         <f t="shared" si="53"/>
-        <v>6.8918548648145608</v>
+        <v>7.5044641861314112</v>
       </c>
       <c r="Z48" s="172">
         <f t="shared" si="53"/>
-        <v>7.2551939189509964</v>
+        <v>8.3932635532962507</v>
       </c>
       <c r="AA48" s="172">
         <f t="shared" si="53"/>
-        <v>7.5702772297853143</v>
+        <v>9.1640198044769594</v>
       </c>
       <c r="AB48" s="172">
         <f t="shared" si="53"/>
-        <v>7.8461195671210548</v>
+        <v>9.8387848540089422</v>
       </c>
       <c r="AC48" s="172">
         <f t="shared" si="53"/>
-        <v>8.0896219013635395</v>
+        <v>10.434439843787755</v>
       </c>
       <c r="AD48" s="172">
         <f t="shared" si="53"/>
-        <v>8.3061566551511845</v>
+        <v>10.964126784799564</v>
       </c>
       <c r="AE48" s="172">
         <f t="shared" si="53"/>
-        <v>8.4999687097811094</v>
+        <v>11.43822949834742</v>
       </c>
       <c r="AF48" s="172">
         <f t="shared" ref="AF48" si="54">(AF22-$L$22)/(LOG(AF47/$L$47)/LOG(2))</f>
-        <v>8.6744564629182079</v>
+        <v>11.865061138934101</v>
       </c>
       <c r="AG48" s="172">
         <f t="shared" ref="AG48" si="55">(AG22-$L$22)/(LOG(AG47/$L$47)/LOG(2))</f>
-        <v>8.8323728086762205</v>
+        <v>12.251355831389596</v>
       </c>
       <c r="AH48" s="175">
         <f t="shared" ref="AH48" si="56">(AH22-$L$22)/(LOG(AH47/$L$47)/LOG(2))</f>
-        <v>8.9759714512906346</v>
+        <v>12.602626583125236</v>
       </c>
       <c r="AI48" s="175">
         <f t="shared" ref="AI48:AJ48" si="57">(AI22-$L$22)/(LOG(AI47/$L$47)/LOG(2))</f>
-        <v>9.1071151474925447</v>
+        <v>12.923430066441801</v>
       </c>
       <c r="AJ48" s="175">
         <f t="shared" si="57"/>
-        <v>9.2273569545305669</v>
+        <v>13.217565367300541</v>
       </c>
       <c r="AK48" s="175">
         <f t="shared" ref="AK48" si="58">(AK22-$L$22)/(LOG(AK47/$L$47)/LOG(2))</f>
-        <v>9.2273569545305669</v>
+        <v>13.217565367300541</v>
       </c>
       <c r="AL48" s="175">
         <f t="shared" si="53"/>
-        <v>9.1880788640576476</v>
+        <v>13.271669470305492</v>
       </c>
       <c r="AM48" s="176">
         <f t="shared" si="53"/>
-        <v>11.386935344344948</v>
+        <v>15.470525950592791</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
@@ -39744,7 +39764,7 @@
         <v>51824</v>
       </c>
       <c r="Y50" s="283">
-        <v>82627</v>
+        <v>104107</v>
       </c>
       <c r="Z50" s="283"/>
       <c r="AA50" s="283"/>
@@ -39815,7 +39835,7 @@
         <v>3726</v>
       </c>
       <c r="Y51" s="284">
-        <v>4980</v>
+        <v>6088</v>
       </c>
       <c r="Z51" s="284"/>
       <c r="AA51" s="284"/>
@@ -44492,7 +44512,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44538,7 +44558,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>173763</v>
+        <v>217187</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44547,7 +44567,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43981.643229745372</v>
+        <v>43986.718292939811</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44556,7 +44576,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>86.643229745372082</v>
+        <v>91.718292939811363</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44565,7 +44585,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>6.9643428330102548</v>
+        <v>7.1863804557606485</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44598,7 +44618,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B11</f>
-        <v>359937.6428571429</v>
+        <v>449887.35714285716</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44607,7 +44627,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B11)*(2^(((C7-21)-C5)/C9))</f>
-        <v>44515.729556833336</v>
+        <v>59352.040093179981</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44616,7 +44636,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>315421.91330030956</v>
+        <v>390535.31704967719</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44630,7 +44650,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B15</f>
-        <v>140748.03</v>
+        <v>175921.47</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44640,7 +44660,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B15)*(2^(((C7-21)-C5)/C9))</f>
-        <v>17407.185281878963</v>
+        <v>23208.69429850555</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44650,7 +44670,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>123340.84471812104</v>
+        <v>152712.77570149445</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -44663,7 +44683,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B16</f>
-        <v>24326.820000000003</v>
+        <v>30406.180000000004</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44672,7 +44692,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B16)*(2^(((C7-49)-C5)/C9))</f>
-        <v>185.39009978026331</v>
+        <v>269.40327769510543</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44681,7 +44701,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>24141.42990021974</v>
+        <v>30136.776722304898</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -44693,7 +44713,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B17</f>
-        <v>8688.15</v>
+        <v>10859.35</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44703,7 +44723,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B17)*(2^(((C7-49)-C5)/C9))</f>
-        <v>66.21074992152262</v>
+        <v>96.215456319680513</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44713,7 +44733,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>8621.9392500784779</v>
+        <v>10763.13454368032</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44723,7 +44743,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B18</f>
-        <v>5039.1270000000004</v>
+        <v>6298.4230000000007</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44732,7 +44752,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B18)*(2^(((C7-42)-C5)/C9))</f>
-        <v>77.07752451635308</v>
+        <v>109.62145190813619</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -44744,7 +44764,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>43.953072802501623</v>
+        <v>43.041689262124891</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44759,7 +44779,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44025.59630254787</v>
+        <v>44029.759982201933</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -44771,7 +44791,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>17.165043289320767</v>
+        <v>15.399602082069652</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44783,7 +44803,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>43998.808273034694</v>
+        <v>44002.117895021882</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -44795,7 +44815,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>77.863586193868471</v>
+        <v>78.033339806013274</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44807,7 +44827,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44059.506815939239</v>
+        <v>44064.751632745822</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44816,7 +44836,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44011.643229745372</v>
+        <v>44016.718292939811</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -44828,7 +44848,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>3441052.2517520362</v>
+        <v>3921954.8880511699</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -44840,7 +44860,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B11</f>
-        <v>7127893.9500577897</v>
+        <v>8124049.4109631386</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44849,7 +44869,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B15</f>
-        <v>2787252.3239191496</v>
+        <v>3176783.4593214476</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44858,7 +44878,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B16</f>
-        <v>481747.31524528511</v>
+        <v>549073.68432716385</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44867,7 +44887,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B17</f>
-        <v>172052.61258760182</v>
+        <v>196097.74440255851</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44876,7 +44896,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B18</f>
-        <v>99790.515300809056</v>
+        <v>113736.69175348393</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57F894-ECA2-4CE8-A9E9-9B998DC557FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6765F1A-5F9A-4238-A41B-E0C6C9C309CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="219">
   <si>
     <t>By Age</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>India's confirmed coronavirus cases have surpassed UK's, becoming the fourth largest behind the US, Brazil, and Russia, as hospitals struggle and many are turned away from care.  Mumbai, New Delhi and Chennai are the worst hit cities in the country, while infections in rural areas surge following return of migrant workers from the cities after losing their jobs.</t>
+  </si>
+  <si>
+    <t>India to convert another 500 railway carriages to create 8,000 more beds for COVID-19 patients in Delhi having begun converting railway carriages into quarantine/isolation wards since April, as well as requisitioning nursing homes, 40 hotels and 77 banquet halls and construct a new 10,000 bed hospital in an attempt to deal with the surge in cases as patients are turned away from existing hospitals</t>
   </si>
 </sst>
 </file>
@@ -1853,46 +1856,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,46 +2005,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,46 +2154,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,7 +3419,7 @@
                   <c:v>7207</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>11922</c:v>
+                  <c:v>12280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12745,7 +12748,7 @@
                   <c:v>7207</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>11922</c:v>
+                  <c:v>12280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13074,46 +13077,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13214,46 +13217,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13357,46 +13360,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13494,46 +13497,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13901,46 +13904,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14050,46 +14053,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14199,46 +14202,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14616,46 +14619,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14756,46 +14759,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14899,46 +14902,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15036,46 +15039,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.841645370368</c:v>
+                  <c:v>43960.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.841645370368</c:v>
+                  <c:v>43963.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.841645370368</c:v>
+                  <c:v>43966.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.841645370368</c:v>
+                  <c:v>43969.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.841645370368</c:v>
+                  <c:v>43972.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.841645370368</c:v>
+                  <c:v>43975.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.841645370368</c:v>
+                  <c:v>43978.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.841645370368</c:v>
+                  <c:v>43981.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.841645370368</c:v>
+                  <c:v>43984.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.841645370368</c:v>
+                  <c:v>43987.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.841645370368</c:v>
+                  <c:v>43990.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.841645370368</c:v>
+                  <c:v>43993.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.841645370368</c:v>
+                  <c:v>43996.950536111108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.841645370368</c:v>
+                  <c:v>43999.950536111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35227,167 +35230,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43959.841645370368</v>
+        <v>43960.950536111108</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43960.841645370368</v>
+        <v>43961.950536111108</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.841645370368</v>
+        <v>43962.950536111108</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.841645370368</v>
+        <v>43963.950536111108</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.841645370368</v>
+        <v>43964.950536111108</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.841645370368</v>
+        <v>43965.950536111108</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43965.841645370368</v>
+        <v>43966.950536111108</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43966.841645370368</v>
+        <v>43967.950536111108</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.841645370368</v>
+        <v>43968.950536111108</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.841645370368</v>
+        <v>43969.950536111108</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.841645370368</v>
+        <v>43970.950536111108</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.841645370368</v>
+        <v>43971.950536111108</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.841645370368</v>
+        <v>43972.950536111108</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.841645370368</v>
+        <v>43973.950536111108</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.841645370368</v>
+        <v>43974.950536111108</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.841645370368</v>
+        <v>43975.950536111108</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.841645370368</v>
+        <v>43976.950536111108</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.841645370368</v>
+        <v>43977.950536111108</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.841645370368</v>
+        <v>43978.950536111108</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.841645370368</v>
+        <v>43979.950536111108</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43979.841645370368</v>
+        <v>43980.950536111108</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43980.841645370368</v>
+        <v>43981.950536111108</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.841645370368</v>
+        <v>43982.950536111108</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.841645370368</v>
+        <v>43983.950536111108</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.841645370368</v>
+        <v>43984.950536111108</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.841645370368</v>
+        <v>43985.950536111108</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.841645370368</v>
+        <v>43986.950536111108</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.841645370368</v>
+        <v>43987.950536111108</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.841645370368</v>
+        <v>43988.950536111108</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.841645370368</v>
+        <v>43989.950536111108</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.841645370368</v>
+        <v>43990.950536111108</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.841645370368</v>
+        <v>43991.950536111108</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.841645370368</v>
+        <v>43992.950536111108</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.841645370368</v>
+        <v>43993.950536111108</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.841645370368</v>
+        <v>43994.950536111108</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.841645370368</v>
+        <v>43995.950536111108</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.841645370368</v>
+        <v>43996.950536111108</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.841645370368</v>
+        <v>43997.950536111108</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.841645370368</v>
+        <v>43998.950536111108</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43998.841645370368</v>
+        <v>43999.950536111108</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>43999.841645370368</v>
+        <v>44000.950536111108</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35906,7 +35909,7 @@
   <dimension ref="A1:AP104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36400,6 +36403,12 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
+      <c r="Y20" s="204">
+        <v>43996</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>218</v>
+      </c>
       <c r="AA20" s="204"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
@@ -39839,7 +39848,7 @@
         <v>123848</v>
       </c>
       <c r="Z56" s="283">
-        <v>187718</v>
+        <v>195139</v>
       </c>
       <c r="AA56" s="283"/>
       <c r="AB56" s="283"/>
@@ -39912,7 +39921,7 @@
         <v>7207</v>
       </c>
       <c r="Z57" s="284">
-        <v>11922</v>
+        <v>12280</v>
       </c>
       <c r="AA57" s="284"/>
       <c r="AB57" s="284"/>
@@ -44634,7 +44643,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>355060</v>
+        <v>368705</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44643,7 +44652,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>43999.841645370368</v>
+        <v>44000.950536111108</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44652,7 +44661,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>104.8416453703685</v>
+        <v>105.95053611110779</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44661,7 +44670,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>7.78223541429006</v>
+        <v>7.8329147377363277</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44694,7 +44703,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B17</f>
-        <v>722800.71428571432</v>
+        <v>750578.0357142858</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44703,7 +44712,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>111353.31301342264</v>
+        <v>117040.49230087566</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44712,7 +44721,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>611447.40127229167</v>
+        <v>633537.5434134102</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44726,7 +44735,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B21</f>
-        <v>287598.60000000003</v>
+        <v>298651.05000000005</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44736,7 +44745,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>44306.897177972372</v>
+        <v>46569.795883927363</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44746,7 +44755,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>243291.70282202767</v>
+        <v>252081.25411607267</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -44759,7 +44768,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B22</f>
-        <v>49708.4</v>
+        <v>51618.700000000004</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44768,7 +44777,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>632.45133525161577</v>
+        <v>675.56592470538283</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44777,7 +44786,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>49075.948664748386</v>
+        <v>50943.13407529462</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -44789,7 +44798,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B23</f>
-        <v>17753</v>
+        <v>18435.25</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44799,7 +44808,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>225.87547687557708</v>
+        <v>241.27354453763675</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44809,7 +44818,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>17527.124523124425</v>
+        <v>18193.976455462362</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44819,7 +44828,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B24</f>
-        <v>10119.210000000001</v>
+        <v>10508.092500000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44828,7 +44837,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>240.16833552587531</v>
+        <v>255.50797732834388</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -44840,7 +44849,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>41.091889929774801</v>
+        <v>40.933344744446586</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44855,7 +44864,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44040.933535300144</v>
+        <v>44041.883880855552</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -44867,7 +44876,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>11.157873619090921</v>
+        <v>10.804392709784297</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44879,7 +44888,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44010.999518989462</v>
+        <v>44011.75492882089</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -44891,7 +44900,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>79.180118708507933</v>
+        <v>79.269610952403255</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44903,7 +44912,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44079.021764078876</v>
+        <v>44080.220147063512</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44912,7 +44921,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44029.841645370368</v>
+        <v>44030.950536111108</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -44924,7 +44933,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>5137506.2520302888</v>
+        <v>5243502.4129672544</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -44936,7 +44945,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B17</f>
-        <v>10458494.870204518</v>
+        <v>10674272.769254768</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44945,7 +44954,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B21</f>
-        <v>4161380.0641445341</v>
+        <v>4247236.9545034766</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44954,7 +44963,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B22</f>
-        <v>719250.87528424046</v>
+        <v>734090.3378154157</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44963,7 +44972,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B23</f>
-        <v>256875.31260151445</v>
+        <v>262175.12064836273</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44972,7 +44981,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B24</f>
-        <v>146418.92818286322</v>
+        <v>149439.81876956674</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6765F1A-5F9A-4238-A41B-E0C6C9C309CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFA4C9-A5EF-4FDC-97D7-505FECF89998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="220">
   <si>
     <t>By Age</t>
   </si>
@@ -690,10 +690,13 @@
     <t>Lockdowns to end in most areas, high risk areas to remain under lockdown</t>
   </si>
   <si>
-    <t>India's confirmed coronavirus cases have surpassed UK's, becoming the fourth largest behind the US, Brazil, and Russia, as hospitals struggle and many are turned away from care.  Mumbai, New Delhi and Chennai are the worst hit cities in the country, while infections in rural areas surge following return of migrant workers from the cities after losing their jobs.</t>
+    <t>India to convert another 500 railway carriages to create 8,000 more beds for COVID-19 patients in Delhi having begun converting railway carriages into quarantine/isolation wards since April, as well as requisitioning nursing homes, 40 hotels and 77 banquet halls and construct a new 10,000 bed hospital in an attempt to deal with the surge in cases as patients are turned away from existing hospitals</t>
   </si>
   <si>
-    <t>India to convert another 500 railway carriages to create 8,000 more beds for COVID-19 patients in Delhi having begun converting railway carriages into quarantine/isolation wards since April, as well as requisitioning nursing homes, 40 hotels and 77 banquet halls and construct a new 10,000 bed hospital in an attempt to deal with the surge in cases as patients are turned away from existing hospitals</t>
+    <t>India's confirmed coronavirus cases have surpassed UK's, becoming the fourth largest behind the US, Brazil, and Russia, as hospitals struggle and many are turned away from care.  Mumbai, New Delhi and Chennai are the worst hit cities in the country, while infections in rural areas surge following return of migrant workers from the cities after losing their jobs. Balram Bhargava, Director General, Indian Council of Medical Research (ICMR) released the results of India's first sero-survey on the spread of COVID-19.  According to the survey 0.73% tested positive, claiming the lockdown had been successful and that there were no community transmission.</t>
+  </si>
+  <si>
+    <t>India releases the phone tracing app Aarogya Setu. It was downloaded 5 million times within 3 days of its launch, 100 million times within 40 days of its launch, making it the worlds fastest growing mobile app beating Pokemon Go</t>
   </si>
 </sst>
 </file>
@@ -1856,46 +1859,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,46 +2008,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,46 +2157,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,7 +3422,7 @@
                   <c:v>7207</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>12280</c:v>
+                  <c:v>13703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12748,7 +12751,7 @@
                   <c:v>7207</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
-                  <c:v>12280</c:v>
+                  <c:v>13703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13077,46 +13080,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13217,46 +13220,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13360,46 +13363,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13497,46 +13500,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13904,46 +13907,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14053,46 +14056,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14202,46 +14205,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14619,46 +14622,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14759,46 +14762,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14902,46 +14905,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15039,46 +15042,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.950536111108</c:v>
+                  <c:v>43964.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.950536111108</c:v>
+                  <c:v>43967.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.950536111108</c:v>
+                  <c:v>43970.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.950536111108</c:v>
+                  <c:v>43973.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.950536111108</c:v>
+                  <c:v>43976.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.950536111108</c:v>
+                  <c:v>43979.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.950536111108</c:v>
+                  <c:v>43982.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.950536111108</c:v>
+                  <c:v>43985.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.950536111108</c:v>
+                  <c:v>43988.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.950536111108</c:v>
+                  <c:v>43991.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.950536111108</c:v>
+                  <c:v>43994.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.950536111108</c:v>
+                  <c:v>43997.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.950536111108</c:v>
+                  <c:v>44000.929896064816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.950536111108</c:v>
+                  <c:v>44003.929896064816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35230,167 +35233,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43960.950536111108</v>
+        <v>43964.929896064816</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.950536111108</v>
+        <v>43965.929896064816</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.950536111108</v>
+        <v>43966.929896064816</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.950536111108</v>
+        <v>43967.929896064816</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.950536111108</v>
+        <v>43968.929896064816</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43965.950536111108</v>
+        <v>43969.929896064816</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43966.950536111108</v>
+        <v>43970.929896064816</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.950536111108</v>
+        <v>43971.929896064816</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.950536111108</v>
+        <v>43972.929896064816</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.950536111108</v>
+        <v>43973.929896064816</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.950536111108</v>
+        <v>43974.929896064816</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.950536111108</v>
+        <v>43975.929896064816</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.950536111108</v>
+        <v>43976.929896064816</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.950536111108</v>
+        <v>43977.929896064816</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.950536111108</v>
+        <v>43978.929896064816</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.950536111108</v>
+        <v>43979.929896064816</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.950536111108</v>
+        <v>43980.929896064816</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.950536111108</v>
+        <v>43981.929896064816</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.950536111108</v>
+        <v>43982.929896064816</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43979.950536111108</v>
+        <v>43983.929896064816</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43980.950536111108</v>
+        <v>43984.929896064816</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.950536111108</v>
+        <v>43985.929896064816</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.950536111108</v>
+        <v>43986.929896064816</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.950536111108</v>
+        <v>43987.929896064816</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.950536111108</v>
+        <v>43988.929896064816</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.950536111108</v>
+        <v>43989.929896064816</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.950536111108</v>
+        <v>43990.929896064816</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.950536111108</v>
+        <v>43991.929896064816</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.950536111108</v>
+        <v>43992.929896064816</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.950536111108</v>
+        <v>43993.929896064816</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.950536111108</v>
+        <v>43994.929896064816</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.950536111108</v>
+        <v>43995.929896064816</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.950536111108</v>
+        <v>43996.929896064816</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.950536111108</v>
+        <v>43997.929896064816</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.950536111108</v>
+        <v>43998.929896064816</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.950536111108</v>
+        <v>43999.929896064816</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.950536111108</v>
+        <v>44000.929896064816</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.950536111108</v>
+        <v>44001.929896064816</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43998.950536111108</v>
+        <v>44002.929896064816</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>43999.950536111108</v>
+        <v>44003.929896064816</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44000.950536111108</v>
+        <v>44004.929896064816</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35908,8 +35911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36041,19 +36044,14 @@
       <c r="O6" s="154"/>
       <c r="P6" s="154"/>
       <c r="Q6" s="66"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="147">
-        <v>43934</v>
-      </c>
-      <c r="U6" s="148" t="s">
-        <v>199</v>
-      </c>
-      <c r="V6" s="147"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="148"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
+      <c r="R6" s="147">
+        <v>43923</v>
+      </c>
+      <c r="S6" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M7" s="66"/>
@@ -36063,15 +36061,15 @@
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="154"/>
-      <c r="T7" s="154">
-        <v>43935</v>
-      </c>
-      <c r="U7" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="268"/>
+      <c r="T7" s="147">
+        <v>43934</v>
+      </c>
+      <c r="U7" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="V7" s="147"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
       <c r="Y7" s="154"/>
       <c r="Z7" s="154"/>
     </row>
@@ -36083,16 +36081,17 @@
       <c r="Q8" s="47"/>
       <c r="R8" s="47"/>
       <c r="S8" s="154"/>
-      <c r="U8" s="267">
-        <v>43941</v>
-      </c>
-      <c r="V8" s="268" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y8" s="66"/>
+      <c r="T8" s="154">
+        <v>43935</v>
+      </c>
+      <c r="U8" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="V8" s="267"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="154"/>
       <c r="Z8" s="154"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M9" s="66"/>
@@ -36102,17 +36101,14 @@
       <c r="Q9" s="154"/>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
-      <c r="T9" s="154"/>
       <c r="U9" s="267">
-        <v>43946</v>
+        <v>43941</v>
       </c>
       <c r="V9" s="268" t="s">
-        <v>205</v>
-      </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="154"/>
+        <v>204</v>
+      </c>
       <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
+      <c r="Z9" s="154"/>
       <c r="AA9" s="66"/>
       <c r="AB9" s="66"/>
     </row>
@@ -36125,14 +36121,14 @@
       <c r="R10" s="66"/>
       <c r="S10" s="66"/>
       <c r="T10" s="154"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="147">
-        <v>43952</v>
-      </c>
-      <c r="W10" s="148" t="s">
-        <v>206</v>
-      </c>
-      <c r="X10" s="147"/>
+      <c r="U10" s="267">
+        <v>43946</v>
+      </c>
+      <c r="V10" s="268" t="s">
+        <v>205</v>
+      </c>
+      <c r="W10" s="66"/>
+      <c r="X10" s="154"/>
       <c r="Y10" s="66"/>
       <c r="Z10" s="66"/>
       <c r="AA10" s="66"/>
@@ -36146,14 +36142,17 @@
       <c r="Q11" s="66"/>
       <c r="R11" s="140"/>
       <c r="S11" s="66"/>
-      <c r="T11" s="223"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="204">
+      <c r="T11" s="154"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="147">
         <v>43952</v>
       </c>
-      <c r="W11" t="s">
-        <v>213</v>
-      </c>
+      <c r="W11" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
       <c r="AA11" s="66"/>
       <c r="AB11" s="66"/>
     </row>
@@ -36174,17 +36173,14 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="66"/>
       <c r="S12" s="154"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="267">
-        <v>43955</v>
-      </c>
-      <c r="W12" s="268" t="s">
-        <v>208</v>
-      </c>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="204">
+        <v>43952</v>
+      </c>
+      <c r="W12" t="s">
+        <v>213</v>
+      </c>
       <c r="AA12" s="66"/>
       <c r="AB12" s="66"/>
     </row>
@@ -36202,15 +36198,17 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="251"/>
-      <c r="T13" s="251"/>
+      <c r="T13" s="184"/>
       <c r="U13" s="16"/>
       <c r="V13" s="267">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="W13" s="268" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X13" s="267"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
       <c r="AA13" s="66"/>
       <c r="AB13" s="66"/>
     </row>
@@ -36227,15 +36225,15 @@
       <c r="Q14" s="251"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="T14" s="251"/>
       <c r="U14" s="16"/>
-      <c r="W14" s="267">
-        <v>43963</v>
-      </c>
-      <c r="X14" s="267" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y14" s="267"/>
+      <c r="V14" s="267">
+        <v>43956</v>
+      </c>
+      <c r="W14" s="268" t="s">
+        <v>207</v>
+      </c>
+      <c r="X14" s="267"/>
       <c r="AA14" s="66"/>
       <c r="AB14" s="66"/>
       <c r="AC14" s="204"/>
@@ -36259,13 +36257,16 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
-      <c r="W15" s="204">
-        <v>43968</v>
-      </c>
-      <c r="X15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA15" s="154"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="W15" s="267">
+        <v>43963</v>
+      </c>
+      <c r="X15" s="267" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y15" s="267"/>
+      <c r="AA15" s="66"/>
       <c r="AB15" s="66"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -36284,13 +36285,13 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
-      <c r="W16" s="147">
-        <v>43969</v>
-      </c>
-      <c r="X16" s="148" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA16" s="66"/>
+      <c r="W16" s="204">
+        <v>43968</v>
+      </c>
+      <c r="X16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA16" s="154"/>
       <c r="AB16" s="66"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -36313,12 +36314,13 @@
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="66"/>
-      <c r="X17" s="267">
-        <v>43974</v>
-      </c>
-      <c r="Y17" s="268" t="s">
-        <v>214</v>
-      </c>
+      <c r="W17" s="147">
+        <v>43969</v>
+      </c>
+      <c r="X17" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA17" s="66"/>
       <c r="AB17" s="66"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -36339,12 +36341,11 @@
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
       <c r="X18" s="267">
-        <v>43982</v>
+        <v>43974</v>
       </c>
       <c r="Y18" s="268" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA18" s="66"/>
+        <v>214</v>
+      </c>
       <c r="AB18" s="66"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -36369,12 +36370,14 @@
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="66"/>
-      <c r="Y19" s="204">
-        <v>43994</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>217</v>
-      </c>
+      <c r="X19" s="267">
+        <v>43982</v>
+      </c>
+      <c r="Y19" s="268" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -36404,12 +36407,11 @@
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
       <c r="Y20" s="204">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="Z20" t="s">
         <v>218</v>
       </c>
-      <c r="AA20" s="204"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -36428,6 +36430,13 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="66"/>
+      <c r="Y21" s="204">
+        <v>43996</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA21" s="204"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
@@ -39848,7 +39857,7 @@
         <v>123848</v>
       </c>
       <c r="Z56" s="283">
-        <v>195139</v>
+        <v>237252</v>
       </c>
       <c r="AA56" s="283"/>
       <c r="AB56" s="283"/>
@@ -39921,7 +39930,7 @@
         <v>7207</v>
       </c>
       <c r="Z57" s="284">
-        <v>12280</v>
+        <v>13703</v>
       </c>
       <c r="AA57" s="284"/>
       <c r="AB57" s="284"/>
@@ -44597,7 +44606,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44643,7 +44652,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>368705</v>
+        <v>426910</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44652,7 +44661,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44000.950536111108</v>
+        <v>44004.929896064816</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44661,7 +44670,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>105.95053611110779</v>
+        <v>109.92989606481569</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44670,7 +44679,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>7.8329147377363277</v>
+        <v>8.0020083940250775</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44703,7 +44712,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B17</f>
-        <v>750578.0357142858</v>
+        <v>869066.7857142858</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44712,7 +44721,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>117040.49230087566</v>
+        <v>140944.37361755961</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44721,7 +44730,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>633537.5434134102</v>
+        <v>728122.41209672624</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44735,7 +44744,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B21</f>
-        <v>298651.05000000005</v>
+        <v>345797.10000000003</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44745,7 +44754,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>46569.795883927363</v>
+        <v>56081.024449934252</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44755,7 +44764,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>252081.25411607267</v>
+        <v>289716.07555006578</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -44768,7 +44777,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B22</f>
-        <v>51618.700000000004</v>
+        <v>59767.400000000009</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44777,7 +44786,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>675.56592470538283</v>
+        <v>857.27154918505778</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44786,7 +44795,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>50943.13407529462</v>
+        <v>58910.128450814947</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -44798,7 +44807,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B23</f>
-        <v>18435.25</v>
+        <v>21345.5</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44808,7 +44817,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>241.27354453763675</v>
+        <v>306.16841042323489</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44818,7 +44827,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>18193.976455462362</v>
+        <v>21039.331589576766</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44828,7 +44837,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B24</f>
-        <v>10508.092500000001</v>
+        <v>12166.935000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44837,7 +44846,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>255.50797732834388</v>
+        <v>320.01502638679784</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -44849,7 +44858,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>40.933344744446586</v>
+        <v>40.124851996032014</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44864,7 +44873,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44041.883880855552</v>
+        <v>44045.054748060851</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -44876,7 +44885,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>10.804392709784297</v>
+        <v>9.3454888653386039</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44888,7 +44897,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44011.75492882089</v>
+        <v>44014.275384930152</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -44900,7 +44909,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>79.269610952403255</v>
+        <v>79.288705333251329</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44912,7 +44921,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44080.220147063512</v>
+        <v>44084.218601398068</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44921,7 +44930,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44030.950536111108</v>
+        <v>44034.929896064816</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -44933,7 +44942,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>5243502.4129672544</v>
+        <v>5740047.4524298832</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -44945,7 +44954,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B17</f>
-        <v>10674272.769254768</v>
+        <v>11685096.599589406</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -44954,7 +44963,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B21</f>
-        <v>4247236.9545034766</v>
+        <v>4649438.4364682054</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -44963,7 +44972,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B22</f>
-        <v>734090.3378154157</v>
+        <v>803606.64334018377</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -44972,7 +44981,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B23</f>
-        <v>262175.12064836273</v>
+        <v>287002.37262149417</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -44981,7 +44990,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B24</f>
-        <v>149439.81876956674</v>
+        <v>163591.35239425168</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17370520-E85A-42B5-9C04-C01E0F81FEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759EC3CB-FCDB-4268-B716-A376A41175A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="555" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1884,46 +1884,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,46 +2033,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,46 +2182,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13105,46 +13105,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13245,46 +13245,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13388,46 +13388,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13525,46 +13525,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13932,46 +13932,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14081,46 +14081,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14230,46 +14230,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14647,46 +14647,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14787,46 +14787,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14930,46 +14930,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15067,46 +15067,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43970.538431365741</c:v>
+                  <c:v>43976.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43973.538431365741</c:v>
+                  <c:v>43979.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43976.538431365741</c:v>
+                  <c:v>43982.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43979.538431365741</c:v>
+                  <c:v>43985.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43982.538431365741</c:v>
+                  <c:v>43988.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985.538431365741</c:v>
+                  <c:v>43991.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43988.538431365741</c:v>
+                  <c:v>43994.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43991.538431365741</c:v>
+                  <c:v>43997.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43994.538431365741</c:v>
+                  <c:v>44000.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43997.538431365741</c:v>
+                  <c:v>44003.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.538431365741</c:v>
+                  <c:v>44006.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44003.538431365741</c:v>
+                  <c:v>44009.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44006.538431365741</c:v>
+                  <c:v>44012.839126967592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44009.538431365741</c:v>
+                  <c:v>44015.839126967592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35258,167 +35258,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43970.538431365741</v>
+        <v>43976.839126967592</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43971.538431365741</v>
+        <v>43977.839126967592</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43972.538431365741</v>
+        <v>43978.839126967592</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43973.538431365741</v>
+        <v>43979.839126967592</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43974.538431365741</v>
+        <v>43980.839126967592</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>43975.538431365741</v>
+        <v>43981.839126967592</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43976.538431365741</v>
+        <v>43982.839126967592</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.538431365741</v>
+        <v>43983.839126967592</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.538431365741</v>
+        <v>43984.839126967592</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43979.538431365741</v>
+        <v>43985.839126967592</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43980.538431365741</v>
+        <v>43986.839126967592</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43981.538431365741</v>
+        <v>43987.839126967592</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43982.538431365741</v>
+        <v>43988.839126967592</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>43983.538431365741</v>
+        <v>43989.839126967592</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43984.538431365741</v>
+        <v>43990.839126967592</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43985.538431365741</v>
+        <v>43991.839126967592</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43986.538431365741</v>
+        <v>43992.839126967592</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43987.538431365741</v>
+        <v>43993.839126967592</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>43988.538431365741</v>
+        <v>43994.839126967592</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43989.538431365741</v>
+        <v>43995.839126967592</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43990.538431365741</v>
+        <v>43996.839126967592</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.538431365741</v>
+        <v>43997.839126967592</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.538431365741</v>
+        <v>43998.839126967592</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.538431365741</v>
+        <v>43999.839126967592</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.538431365741</v>
+        <v>44000.839126967592</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.538431365741</v>
+        <v>44001.839126967592</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.538431365741</v>
+        <v>44002.839126967592</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.538431365741</v>
+        <v>44003.839126967592</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43998.538431365741</v>
+        <v>44004.839126967592</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>43999.538431365741</v>
+        <v>44005.839126967592</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44000.538431365741</v>
+        <v>44006.839126967592</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44001.538431365741</v>
+        <v>44007.839126967592</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44002.538431365741</v>
+        <v>44008.839126967592</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44003.538431365741</v>
+        <v>44009.839126967592</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44004.538431365741</v>
+        <v>44010.839126967592</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44005.538431365741</v>
+        <v>44011.839126967592</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44006.538431365741</v>
+        <v>44012.839126967592</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44007.538431365741</v>
+        <v>44013.839126967592</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44008.538431365741</v>
+        <v>44014.839126967592</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>44009.538431365741</v>
+        <v>44015.839126967592</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44010.538431365741</v>
+        <v>44016.839126967592</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35936,8 +35936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39564,7 +39564,7 @@
         <v>509446</v>
       </c>
       <c r="AA53" s="259">
-        <f t="shared" ref="Z53:AG53" si="48">AA29</f>
+        <f t="shared" ref="AA53:AG53" si="48">AA29</f>
         <v>1024000</v>
       </c>
       <c r="AB53" s="259">
@@ -39890,7 +39890,9 @@
         <f t="shared" si="61"/>
         <v>295917</v>
       </c>
-      <c r="AA56" s="280"/>
+      <c r="AA56" s="280">
+        <v>394411</v>
+      </c>
       <c r="AB56" s="280"/>
       <c r="AC56" s="280"/>
       <c r="AD56" s="280"/>
@@ -39963,7 +39965,9 @@
       <c r="Z57" s="277">
         <v>15689</v>
       </c>
-      <c r="AA57" s="281"/>
+      <c r="AA57" s="281">
+        <v>18669</v>
+      </c>
       <c r="AB57" s="281"/>
       <c r="AC57" s="281"/>
       <c r="AD57" s="281"/>
@@ -44657,7 +44661,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44703,7 +44707,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>529577</v>
+        <v>650431</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -44712,7 +44716,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44010.538431365741</v>
+        <v>44016.839126967592</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -44721,7 +44725,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>115.53843136574142</v>
+        <v>121.83912696759216</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -44730,7 +44734,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>8.2241388078114781</v>
+        <v>8.4933415735830327</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -44763,7 +44767,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B17</f>
-        <v>1153721.3214285714</v>
+        <v>1417010.3928571427</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44772,7 +44776,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>196531.97250297942</v>
+        <v>255310.5865252965</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -44781,7 +44785,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>957189.34892559191</v>
+        <v>1161699.8063318462</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -44795,7 +44799,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B21</f>
-        <v>428957.37000000005</v>
+        <v>526849.11</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -44805,7 +44809,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>73071.231743730707</v>
+        <v>94925.313153995492</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -44815,7 +44819,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>355886.13825626933</v>
+        <v>431923.79684600449</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -44828,7 +44832,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B22</f>
-        <v>74140.780000000013</v>
+        <v>91060.340000000011</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -44837,7 +44841,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1192.6119885340188</v>
+        <v>1669.6269225025756</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44846,7 +44850,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>72948.168011465998</v>
+        <v>89390.713077497436</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -44858,7 +44862,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B23</f>
-        <v>26478.850000000002</v>
+        <v>32521.550000000003</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -44868,7 +44872,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>425.93285304786389</v>
+        <v>596.29532946520555</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -44878,7 +44882,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>26052.917146952139</v>
+        <v>31925.254670534796</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -44888,7 +44892,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B24</f>
-        <v>16152.0985</v>
+        <v>19838.145499999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -44897,7 +44901,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>468.69847768193915</v>
+        <v>644.01005305715807</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -44909,7 +44913,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>38.681736379276835</v>
+        <v>37.429167598349714</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -44924,7 +44928,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44049.220167745021</v>
+        <v>44054.26829456594</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -44936,7 +44940,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>7.0479586651885988</v>
+        <v>4.7599136293682038</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -44948,7 +44952,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44017.586390030927</v>
+        <v>44021.599040596957</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -44960,7 +44964,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>78.128042183987418</v>
+        <v>78.166679068510945</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -44972,7 +44976,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44088.666473549732</v>
+        <v>44095.005806036104</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -44981,7 +44985,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44040.538431365741</v>
+        <v>44046.839126967592</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -44993,7 +44997,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>6637825.5968091385</v>
+        <v>7524765.384951964</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -45005,7 +45009,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B17</f>
-        <v>14460977.193048481</v>
+        <v>16393238.874359636</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -45014,7 +45018,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B21</f>
-        <v>5376638.7334154025</v>
+        <v>6095059.9618110908</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -45023,7 +45027,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B22</f>
-        <v>929295.58355327952</v>
+        <v>1053467.153893275</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -45032,7 +45036,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B23</f>
-        <v>331891.27984045696</v>
+        <v>376238.26924759825</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -45041,7 +45045,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B24</f>
-        <v>202453.68070267871</v>
+        <v>229505.34424103491</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C6E1D-B857-4A1E-894B-333AB2A2D7D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E47A6-B01B-46CA-B06E-67F49FC06FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1890,46 +1890,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,46 +2039,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,46 +2188,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2655,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,7 +2828,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,7 +3282,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,7 +3455,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3523,6 +3523,9 @@
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>45578</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>63657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,19 +3914,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,19 +3996,19 @@
                   <c:v>613826.46830447321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1130712.3383375546</c:v>
+                  <c:v>2160340.3143666848</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2076477.4155147364</c:v>
+                  <c:v>3525960.1257974552</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3946445.6579263145</c:v>
+                  <c:v>6186238.171291858</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7574477.5277785007</c:v>
+                  <c:v>11207425.41127911</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14643400.233504599</c:v>
+                  <c:v>20747040.567050006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4108,19 +4111,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,19 +4193,19 @@
                   <c:v>494481.7332995428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>892701.81554373458</c:v>
+                  <c:v>1699346.4315334931</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1610551.1783329831</c:v>
+                  <c:v>2415019.0421491833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3024877.0765085318</c:v>
+                  <c:v>4270209.9722007131</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5741276.6030261926</c:v>
+                  <c:v>7607305.1634356929</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10993761.175946385</c:v>
+                  <c:v>13893256.798386922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,19 +4308,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4387,19 +4390,19 @@
                   <c:v>93560.484304590718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179837.69459841074</c:v>
+                  <c:v>343598.10936079785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>341429.59844683058</c:v>
+                  <c:v>593181.32683140342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>665664.84653128218</c:v>
+                  <c:v>1083049.3480503368</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1304199.104616927</c:v>
+                  <c:v>2022085.1557456085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2564504.8288418073</c:v>
+                  <c:v>3832389.553287704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4502,19 +4505,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,19 +4587,19 @@
                   <c:v>45050.526671597006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86277.210293820026</c:v>
+                  <c:v>154788.21714627522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161591.90384841984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>324235.2480844516</c:v>
+                  <c:v>28638.430511685787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>638534.2580856448</c:v>
+                  <c:v>193088.2064832591</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1260305.7242248803</c:v>
+                  <c:v>547223.30781822046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,19 +4702,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5178,19 +5181,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5377,19 +5380,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,19 +5579,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5776,19 +5779,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5976,19 +5979,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6175,19 +6178,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6372,19 +6375,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6572,19 +6575,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6771,19 +6774,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,19 +7253,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7449,19 +7452,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7648,19 +7651,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7848,19 +7851,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8045,19 +8048,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8244,19 +8247,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8441,19 +8444,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8638,19 +8641,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8837,19 +8840,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9316,19 +9319,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9515,19 +9518,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9714,19 +9717,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9911,19 +9914,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,19 +10113,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10307,19 +10310,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10786,19 +10789,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10985,19 +10988,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11182,19 +11185,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11381,19 +11384,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11578,19 +11581,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12052,7 +12055,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12225,7 +12228,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12680,7 +12683,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12853,7 +12856,7 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12921,6 +12924,9 @@
                 </c:pt>
                 <c:pt idx="16" formatCode="#,##0">
                   <c:v>45578</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>63657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13249,46 +13255,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13389,46 +13395,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13532,46 +13538,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13669,46 +13675,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14076,46 +14082,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14225,46 +14231,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14374,46 +14380,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14791,46 +14797,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14931,46 +14937,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15074,46 +15080,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15211,46 +15217,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.868929861113</c:v>
+                  <c:v>44033.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.868929861113</c:v>
+                  <c:v>44036.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.868929861113</c:v>
+                  <c:v>44039.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.868929861113</c:v>
+                  <c:v>44042.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.868929861113</c:v>
+                  <c:v>44045.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.868929861113</c:v>
+                  <c:v>44048.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.868929861113</c:v>
+                  <c:v>44051.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.868929861113</c:v>
+                  <c:v>44054.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.868929861113</c:v>
+                  <c:v>44057.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.868929861113</c:v>
+                  <c:v>44060.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.868929861113</c:v>
+                  <c:v>44063.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.868929861113</c:v>
+                  <c:v>44066.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.868929861113</c:v>
+                  <c:v>44069.627557754633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.868929861113</c:v>
+                  <c:v>44072.627557754633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15680,19 +15686,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15762,19 +15768,19 @@
                   <c:v>613826.46830447321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1130712.3383375546</c:v>
+                  <c:v>2160340.3143666848</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2076477.4155147364</c:v>
+                  <c:v>3525960.1257974552</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3946445.6579263145</c:v>
+                  <c:v>6186238.171291858</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7574477.5277785007</c:v>
+                  <c:v>11207425.41127911</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14643400.233504599</c:v>
+                  <c:v>20747040.567050006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15877,19 +15883,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15959,19 +15965,19 @@
                   <c:v>494481.7332995428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>892701.81554373458</c:v>
+                  <c:v>1699346.4315334931</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1610551.1783329831</c:v>
+                  <c:v>2415019.0421491833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3024877.0765085318</c:v>
+                  <c:v>4270209.9722007131</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5741276.6030261926</c:v>
+                  <c:v>7607305.1634356929</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10993761.175946385</c:v>
+                  <c:v>13893256.798386922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16074,19 +16080,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16156,19 +16162,19 @@
                   <c:v>93560.484304590718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179837.69459841074</c:v>
+                  <c:v>343598.10936079785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>341429.59844683058</c:v>
+                  <c:v>593181.32683140342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>665664.84653128218</c:v>
+                  <c:v>1083049.3480503368</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1304199.104616927</c:v>
+                  <c:v>2022085.1557456085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2564504.8288418073</c:v>
+                  <c:v>3832389.553287704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16271,19 +16277,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16353,19 +16359,19 @@
                   <c:v>45050.526671597006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86277.210293820026</c:v>
+                  <c:v>154788.21714627522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>161591.90384841984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>324235.2480844516</c:v>
+                  <c:v>28638.430511685787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>638534.2580856448</c:v>
+                  <c:v>193088.2064832591</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1260305.7242248803</c:v>
+                  <c:v>547223.30781822046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16468,19 +16474,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16946,19 +16952,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17145,19 +17151,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17344,19 +17350,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17544,19 +17550,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17744,19 +17750,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17943,19 +17949,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18140,19 +18146,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18340,19 +18346,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18539,19 +18545,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19017,19 +19023,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19216,19 +19222,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19415,19 +19421,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19615,19 +19621,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19812,19 +19818,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20011,19 +20017,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20208,19 +20214,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20405,19 +20411,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20604,19 +20610,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21082,19 +21088,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21281,19 +21287,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21480,19 +21486,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21677,19 +21683,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21876,19 +21882,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22073,19 +22079,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22551,19 +22557,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22750,19 +22756,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22947,19 +22953,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23146,19 +23152,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23343,19 +23349,19 @@
                   <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44071</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44092</c:v>
+                  <c:v>44110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44113</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44134</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44155</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35402,167 +35408,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44019.868929861113</v>
+        <v>44033.627557754633</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44020.868929861113</v>
+        <v>44034.627557754633</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44021.868929861113</v>
+        <v>44035.627557754633</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44022.868929861113</v>
+        <v>44036.627557754633</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44023.868929861113</v>
+        <v>44037.627557754633</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>44024.868929861113</v>
+        <v>44038.627557754633</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44025.868929861113</v>
+        <v>44039.627557754633</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44026.868929861113</v>
+        <v>44040.627557754633</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44027.868929861113</v>
+        <v>44041.627557754633</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44028.868929861113</v>
+        <v>44042.627557754633</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44029.868929861113</v>
+        <v>44043.627557754633</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44030.868929861113</v>
+        <v>44044.627557754633</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44031.868929861113</v>
+        <v>44045.627557754633</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44032.868929861113</v>
+        <v>44046.627557754633</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44033.868929861113</v>
+        <v>44047.627557754633</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44034.868929861113</v>
+        <v>44048.627557754633</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44035.868929861113</v>
+        <v>44049.627557754633</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44036.868929861113</v>
+        <v>44050.627557754633</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44037.868929861113</v>
+        <v>44051.627557754633</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44038.868929861113</v>
+        <v>44052.627557754633</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44039.868929861113</v>
+        <v>44053.627557754633</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44040.868929861113</v>
+        <v>44054.627557754633</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44041.868929861113</v>
+        <v>44055.627557754633</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44042.868929861113</v>
+        <v>44056.627557754633</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44043.868929861113</v>
+        <v>44057.627557754633</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44044.868929861113</v>
+        <v>44058.627557754633</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44045.868929861113</v>
+        <v>44059.627557754633</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44046.868929861113</v>
+        <v>44060.627557754633</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44047.868929861113</v>
+        <v>44061.627557754633</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44048.868929861113</v>
+        <v>44062.627557754633</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44049.868929861113</v>
+        <v>44063.627557754633</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44050.868929861113</v>
+        <v>44064.627557754633</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44051.868929861113</v>
+        <v>44065.627557754633</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44052.868929861113</v>
+        <v>44066.627557754633</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44053.868929861113</v>
+        <v>44067.627557754633</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44054.868929861113</v>
+        <v>44068.627557754633</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44055.868929861113</v>
+        <v>44069.627557754633</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44056.868929861113</v>
+        <v>44070.627557754633</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44057.868929861113</v>
+        <v>44071.627557754633</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>44058.868929861113</v>
+        <v>44072.627557754633</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44059.868929861113</v>
+        <v>44073.627557754633</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -36080,8 +36086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AR104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="L20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36705,7 +36711,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="268">
         <f>(AI28-N28)/(LOG(AI29/N29)/LOG(2))</f>
-        <v>12.380952380952381</v>
+        <v>14.523809523809524</v>
       </c>
       <c r="E25" s="164"/>
       <c r="Q25" s="16"/>
@@ -36784,7 +36790,9 @@
       <c r="J27" s="178">
         <v>44008</v>
       </c>
-      <c r="K27" s="178"/>
+      <c r="K27" s="178">
+        <v>44050</v>
+      </c>
       <c r="L27" s="178"/>
       <c r="M27" s="178"/>
       <c r="O27" s="127" t="s">
@@ -36841,7 +36849,9 @@
       <c r="J28" s="206">
         <v>21</v>
       </c>
-      <c r="K28" s="206"/>
+      <c r="K28" s="206">
+        <v>30</v>
+      </c>
       <c r="L28" s="206"/>
       <c r="M28" s="206"/>
       <c r="N28" s="290">
@@ -36913,47 +36923,47 @@
       </c>
       <c r="AE28" s="216">
         <f t="shared" si="0"/>
-        <v>44071</v>
+        <v>44080</v>
       </c>
       <c r="AF28" s="216">
         <f t="shared" si="0"/>
-        <v>44092</v>
+        <v>44110</v>
       </c>
       <c r="AG28" s="216">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44140</v>
       </c>
       <c r="AH28" s="216">
         <f t="shared" ref="AH28" si="1">AG28+HLOOKUP(AG28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44134</v>
+        <v>44170</v>
       </c>
       <c r="AI28" s="223">
         <f t="shared" ref="AI28" si="2">AH28+HLOOKUP(AH28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44155</v>
+        <v>44200</v>
       </c>
       <c r="AJ28" s="216">
         <f>AI28+HLOOKUP(AI28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44176</v>
+        <v>44230</v>
       </c>
       <c r="AK28" s="216">
         <f>AJ28+HLOOKUP(AJ28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44197</v>
+        <v>44260</v>
       </c>
       <c r="AL28" s="216">
         <f>AK28+HLOOKUP(AK28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44218</v>
+        <v>44290</v>
       </c>
       <c r="AM28" s="223">
         <f>AK28+HLOOKUP(AK28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44218</v>
+        <v>44290</v>
       </c>
       <c r="AN28" s="223">
         <f>AM28+HLOOKUP(AM28+1, $B$27:$M$28,2,TRUE)</f>
-        <v>44239</v>
+        <v>44320</v>
       </c>
       <c r="AO28" s="235">
         <f>AN28+(7*8)</f>
-        <v>44295</v>
+        <v>44376</v>
       </c>
       <c r="AP28" s="67"/>
       <c r="AQ28" s="67"/>
@@ -37308,43 +37318,43 @@
       </c>
       <c r="AE31" s="270">
         <f t="shared" si="9"/>
-        <v>851058.3404073352</v>
+        <v>128436.2249522857</v>
       </c>
       <c r="AF31" s="270">
         <f t="shared" si="9"/>
-        <v>2015076.5733811799</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="270">
         <f t="shared" si="9"/>
-        <v>4337231.3063286161</v>
+        <v>142520.88337020413</v>
       </c>
       <c r="AH31" s="270">
         <f t="shared" ref="AH31:AM31" si="10">MAX(AH29-(AH37-AH38)-(AH39-AH40)-(AH41-AH42),0)</f>
-        <v>9141108.7339221947</v>
+        <v>796802.80289423326</v>
       </c>
       <c r="AI31" s="270">
         <f t="shared" si="10"/>
-        <v>19037183.610587582</v>
+        <v>2312889.9858674323</v>
       </c>
       <c r="AJ31" s="270">
         <f t="shared" si="10"/>
-        <v>39320786.036446229</v>
+        <v>5690501.1763516515</v>
       </c>
       <c r="AK31" s="270">
         <f t="shared" si="10"/>
-        <v>80734077.627599984</v>
+        <v>13019180.633083928</v>
       </c>
       <c r="AL31" s="226">
         <f t="shared" ref="AL31" si="11">MAX(AL29-(AL37-AL38)-(AL39-AL40)-(AL41-AL42),0)</f>
-        <v>165030793.44225243</v>
+        <v>28635446.386399403</v>
       </c>
       <c r="AM31" s="186">
         <f t="shared" si="10"/>
-        <v>689318793.44225228</v>
+        <v>531904484.92311698</v>
       </c>
       <c r="AN31" s="185">
         <f t="shared" si="9"/>
-        <v>679780254.4150182</v>
+        <v>385156083.88442975</v>
       </c>
       <c r="AO31" s="230"/>
       <c r="AP31" s="45"/>
@@ -37437,43 +37447,43 @@
       </c>
       <c r="AE32" s="210">
         <f t="shared" si="12"/>
-        <v>3203775.0464986451</v>
+        <v>3884487.4224733245</v>
       </c>
       <c r="AF32" s="210">
         <f t="shared" si="12"/>
-        <v>6097794.8409955194</v>
+        <v>7903149.2624014225</v>
       </c>
       <c r="AG32" s="210">
         <f t="shared" si="12"/>
-        <v>11896539.670354778</v>
+        <v>15777538.31291279</v>
       </c>
       <c r="AH32" s="210">
         <f t="shared" si="12"/>
-        <v>23333998.73360404</v>
+        <v>31166438.539430331</v>
       </c>
       <c r="AI32" s="210">
         <f t="shared" si="12"/>
-        <v>45924968.78338097</v>
+        <v>61777636.866125993</v>
       </c>
       <c r="AJ32" s="210">
         <f>MAX(AJ29-AJ31-AJ44,0)</f>
-        <v>90622831.838863373</v>
+        <v>122723588.31845975</v>
       </c>
       <c r="AK32" s="210">
         <f>MAX(AK29-AK31-AK44,0)</f>
-        <v>179185043.25550291</v>
+        <v>244156025.93675405</v>
       </c>
       <c r="AL32" s="292">
         <f t="shared" ref="AL32:AM32" si="13">MAX(AL29-AL31-AL44,0)</f>
-        <v>354860977.53581798</v>
+        <v>486250715.53262228</v>
       </c>
       <c r="AM32" s="293">
         <f t="shared" si="13"/>
-        <v>354860977.5358181</v>
+        <v>507269676.99590468</v>
       </c>
       <c r="AN32" s="200">
         <f>MAX(AN29-AN31-AN44,0)</f>
-        <v>703674424.79707038</v>
+        <v>989047165.23541677</v>
       </c>
       <c r="AO32" s="231"/>
       <c r="AP32" s="25"/>
@@ -37977,23 +37987,23 @@
       </c>
       <c r="AI36" s="184">
         <f t="shared" si="24"/>
-        <v>112838212.46903951</v>
+        <v>144179200</v>
       </c>
       <c r="AJ36" s="184">
         <f t="shared" si="24"/>
-        <v>222487911.68971121</v>
+        <v>288358400</v>
       </c>
       <c r="AK36" s="184">
         <f t="shared" si="24"/>
-        <v>439622902.19296128</v>
+        <v>576716800</v>
       </c>
       <c r="AL36" s="227">
         <f t="shared" si="24"/>
-        <v>870132078.79113722</v>
+        <v>1153433600</v>
       </c>
       <c r="AM36" s="190">
         <f t="shared" si="24"/>
-        <v>870132078.79113722</v>
+        <v>1210522137.3076808</v>
       </c>
       <c r="AN36" s="189">
         <f t="shared" si="24"/>
@@ -38222,43 +38232,43 @@
       </c>
       <c r="AE38" s="191">
         <f t="shared" si="28"/>
-        <v>404389.34750574594</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="191">
         <f t="shared" si="28"/>
-        <v>1104360.5051613441</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="191">
         <f t="shared" si="28"/>
-        <v>2487269.4861932285</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="191">
         <f t="shared" si="28"/>
-        <v>5414054.505205784</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="191">
         <f t="shared" si="28"/>
-        <v>11539181.772762723</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="191">
         <f t="shared" si="28"/>
-        <v>24252316.150606334</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="191">
         <f t="shared" si="28"/>
-        <v>50475480.556227893</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="227">
         <f t="shared" si="28"/>
-        <v>104306469.17235404</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="190">
         <f t="shared" si="28"/>
-        <v>528979749.17235404</v>
+        <v>403654318.53671753</v>
       </c>
       <c r="AN38" s="189">
         <f t="shared" si="28"/>
-        <v>492694506.60019159</v>
+        <v>258388327.3955977</v>
       </c>
       <c r="AO38" s="230"/>
       <c r="AP38" s="25"/>
@@ -38351,43 +38361,43 @@
       </c>
       <c r="AE39" s="198">
         <f t="shared" si="29"/>
-        <v>1130712.3383375546</v>
+        <v>2160340.3143666848</v>
       </c>
       <c r="AF39" s="198">
         <f t="shared" si="29"/>
-        <v>2076477.4155147364</v>
+        <v>3525960.1257974552</v>
       </c>
       <c r="AG39" s="198">
         <f t="shared" si="29"/>
-        <v>3946445.6579263145</v>
+        <v>6186238.171291858</v>
       </c>
       <c r="AH39" s="198">
         <f t="shared" si="29"/>
-        <v>7574477.5277785007</v>
+        <v>11207425.41127911</v>
       </c>
       <c r="AI39" s="198">
         <f t="shared" si="29"/>
-        <v>14643400.233504599</v>
+        <v>20747040.567050006</v>
       </c>
       <c r="AJ39" s="198">
         <f t="shared" si="29"/>
-        <v>28465078.188948456</v>
+        <v>38995302.803976551</v>
       </c>
       <c r="AK39" s="198">
         <f t="shared" si="29"/>
-        <v>55568690.677641883</v>
+        <v>74113884.460975721</v>
       </c>
       <c r="AL39" s="224">
         <f t="shared" si="29"/>
-        <v>108845357.51685539</v>
+        <v>142045262.54452562</v>
       </c>
       <c r="AM39" s="195">
         <f t="shared" si="29"/>
-        <v>108845357.51685539</v>
+        <v>142045262.54452562</v>
       </c>
       <c r="AN39" s="194">
         <f>($N$29*($B$22+$B$23))*(2^(((AN28 - 7) - $N$28)/AN54))</f>
-        <v>192382052.8753719</v>
+        <v>206014319.92070228</v>
       </c>
       <c r="AO39" s="230">
         <f>AO29*(B22+B23)</f>
@@ -38483,43 +38493,43 @@
       </c>
       <c r="AE40" s="184">
         <f t="shared" si="31"/>
-        <v>892701.81554373458</v>
+        <v>1699346.4315334931</v>
       </c>
       <c r="AF40" s="184">
         <f t="shared" si="31"/>
-        <v>1610551.1783329831</v>
+        <v>2415019.0421491833</v>
       </c>
       <c r="AG40" s="184">
         <f t="shared" si="31"/>
-        <v>3024877.0765085318</v>
+        <v>4270209.9722007131</v>
       </c>
       <c r="AH40" s="184">
         <f t="shared" si="31"/>
-        <v>5741276.6030261926</v>
+        <v>7607305.1634356929</v>
       </c>
       <c r="AI40" s="184">
         <f t="shared" si="31"/>
-        <v>10993761.175946385</v>
+        <v>13893256.798386922</v>
       </c>
       <c r="AJ40" s="184">
         <f t="shared" si="31"/>
-        <v>21194372.90363016</v>
+        <v>25822829.673938662</v>
       </c>
       <c r="AK40" s="184">
         <f t="shared" si="31"/>
-        <v>41076471.196507402</v>
+        <v>48618417.435336947</v>
       </c>
       <c r="AL40" s="227">
         <f t="shared" si="31"/>
-        <v>79946391.382048339</v>
+        <v>92433802.751330331</v>
       </c>
       <c r="AM40" s="190">
         <f t="shared" si="31"/>
-        <v>79946391.382048339</v>
+        <v>92433802.751330331</v>
       </c>
       <c r="AN40" s="189">
         <f t="shared" si="31"/>
-        <v>134733889.75363353</v>
+        <v>109074142.95533797</v>
       </c>
       <c r="AO40" s="232"/>
       <c r="AP40" s="45"/>
@@ -38612,43 +38622,43 @@
       </c>
       <c r="AE41" s="198">
         <f t="shared" si="32"/>
-        <v>179837.69459841074</v>
+        <v>343598.10936079785</v>
       </c>
       <c r="AF41" s="198">
         <f t="shared" si="32"/>
-        <v>341429.59844683058</v>
+        <v>593181.32683140342</v>
       </c>
       <c r="AG41" s="198">
         <f t="shared" si="32"/>
-        <v>665664.84653128218</v>
+        <v>1083049.3480503368</v>
       </c>
       <c r="AH41" s="198">
         <f t="shared" si="32"/>
-        <v>1304199.104616927</v>
+        <v>2022085.1557456085</v>
       </c>
       <c r="AI41" s="198">
         <f t="shared" si="32"/>
-        <v>2564504.8288418073</v>
+        <v>3832389.553287704</v>
       </c>
       <c r="AJ41" s="198">
         <f t="shared" si="32"/>
-        <v>5056543.4474934367</v>
+        <v>7340661.9177636048</v>
       </c>
       <c r="AK41" s="198">
         <f t="shared" si="32"/>
-        <v>9991429.5952945743</v>
+        <v>14169730.469394304</v>
       </c>
       <c r="AL41" s="224">
         <f t="shared" si="32"/>
-        <v>19775729.063434936</v>
+        <v>27511866.756992746</v>
       </c>
       <c r="AM41" s="195">
         <f t="shared" si="32"/>
-        <v>19775729.063434936</v>
+        <v>27511866.756992746</v>
       </c>
       <c r="AN41" s="194">
         <f t="shared" si="32"/>
-        <v>39194558.851840027</v>
+        <v>53657903.247185335</v>
       </c>
       <c r="AO41" s="230">
         <f>AO29*B23</f>
@@ -38744,43 +38754,43 @@
       </c>
       <c r="AE42" s="191">
         <f t="shared" si="34"/>
-        <v>86277.210293820026</v>
+        <v>154788.21714627522</v>
       </c>
       <c r="AF42" s="191">
         <f t="shared" si="34"/>
-        <v>161591.90384841984</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="191">
         <f t="shared" si="34"/>
-        <v>324235.2480844516</v>
+        <v>28638.430511685787</v>
       </c>
       <c r="AH42" s="191">
         <f t="shared" si="34"/>
-        <v>638534.2580856448</v>
+        <v>193088.2064832591</v>
       </c>
       <c r="AI42" s="191">
         <f t="shared" si="34"/>
-        <v>1260305.7242248803</v>
+        <v>547223.30781822046</v>
       </c>
       <c r="AJ42" s="191">
         <f t="shared" si="34"/>
-        <v>2492038.6186516294</v>
+        <v>1299956.2241531452</v>
       </c>
       <c r="AK42" s="191">
         <f t="shared" si="34"/>
-        <v>4934886.1478011375</v>
+        <v>2877018.1281170063</v>
       </c>
       <c r="AL42" s="227">
         <f t="shared" si="34"/>
-        <v>9784299.4681403618</v>
+        <v>6144052.9365874417</v>
       </c>
       <c r="AM42" s="190">
         <f t="shared" si="34"/>
-        <v>9784299.4681403618</v>
+        <v>6144052.9365874417</v>
       </c>
       <c r="AN42" s="189">
         <f t="shared" si="34"/>
-        <v>19418829.788405091</v>
+        <v>12856196.701381736</v>
       </c>
       <c r="AO42" s="230"/>
       <c r="AP42" s="45"/>
@@ -38981,47 +38991,47 @@
       </c>
       <c r="AE44" s="196">
         <f t="shared" si="38"/>
-        <v>41166.613094019915</v>
+        <v>83076.352574389966</v>
       </c>
       <c r="AF44" s="196">
         <f t="shared" si="38"/>
-        <v>79128.585623300736</v>
+        <v>288850.73759857769</v>
       </c>
       <c r="AG44" s="196">
         <f t="shared" si="38"/>
-        <v>150229.02331660545</v>
+        <v>463940.80371700646</v>
       </c>
       <c r="AH44" s="196">
         <f t="shared" si="38"/>
-        <v>292892.53247376415</v>
+        <v>804758.65767543379</v>
       </c>
       <c r="AI44" s="196">
         <f t="shared" si="38"/>
-        <v>573847.60603144788</v>
+        <v>1445473.1480065729</v>
       </c>
       <c r="AJ44" s="196">
         <f t="shared" si="38"/>
-        <v>1128382.1246903951</v>
+        <v>2657910.505188602</v>
       </c>
       <c r="AK44" s="196">
         <f t="shared" si="38"/>
-        <v>2224879.1168971122</v>
+        <v>4968793.4301620107</v>
       </c>
       <c r="AL44" s="227">
         <f t="shared" si="38"/>
-        <v>4396229.0219296124</v>
+        <v>9401838.080978334</v>
       </c>
       <c r="AM44" s="190">
         <f t="shared" si="38"/>
-        <v>4396229.0219296124</v>
+        <v>9401838.080978334</v>
       </c>
       <c r="AN44" s="189">
         <f t="shared" si="38"/>
-        <v>8701320.7879113723</v>
+        <v>17952750.880153582</v>
       </c>
       <c r="AO44" s="233">
         <f>($N$29*$B$24)*(2^(((AO28 - 35) - $N$28)/AO54))</f>
-        <v>6807925.1070761289</v>
+        <v>8830414.1208375618</v>
       </c>
       <c r="AP44" s="45"/>
       <c r="AQ44" s="45"/>
@@ -39113,15 +39123,15 @@
       </c>
       <c r="AE45" s="140">
         <f t="shared" si="39"/>
-        <v>44064</v>
+        <v>44073</v>
       </c>
       <c r="AF45" s="140">
         <f t="shared" si="39"/>
-        <v>44085</v>
+        <v>44103</v>
       </c>
       <c r="AG45" s="140">
         <f t="shared" si="39"/>
-        <v>44106</v>
+        <v>44133</v>
       </c>
       <c r="AH45" s="140"/>
       <c r="AI45" s="140"/>
@@ -39131,7 +39141,7 @@
       <c r="AM45" s="140"/>
       <c r="AN45" s="140">
         <f t="shared" si="39"/>
-        <v>44232</v>
+        <v>44313</v>
       </c>
       <c r="AO45" s="140"/>
       <c r="AP45" s="45"/>
@@ -39223,15 +39233,15 @@
       </c>
       <c r="AE46" s="140">
         <f t="shared" si="40"/>
-        <v>44057</v>
+        <v>44066</v>
       </c>
       <c r="AF46" s="140">
         <f t="shared" si="40"/>
-        <v>44078</v>
+        <v>44096</v>
       </c>
       <c r="AG46" s="140">
         <f t="shared" si="40"/>
-        <v>44099</v>
+        <v>44126</v>
       </c>
       <c r="AH46" s="140"/>
       <c r="AI46" s="140"/>
@@ -39241,7 +39251,7 @@
       <c r="AM46" s="140"/>
       <c r="AN46" s="140">
         <f t="shared" si="40"/>
-        <v>44225</v>
+        <v>44306</v>
       </c>
       <c r="AO46" s="140"/>
       <c r="AP46" s="45"/>
@@ -39333,15 +39343,15 @@
       </c>
       <c r="AE47" s="140">
         <f t="shared" si="41"/>
-        <v>44036</v>
+        <v>44045</v>
       </c>
       <c r="AF47" s="140">
         <f t="shared" si="41"/>
-        <v>44057</v>
+        <v>44075</v>
       </c>
       <c r="AG47" s="140">
         <f t="shared" si="41"/>
-        <v>44078</v>
+        <v>44105</v>
       </c>
       <c r="AH47" s="140"/>
       <c r="AI47" s="140"/>
@@ -39351,7 +39361,7 @@
       <c r="AM47" s="140"/>
       <c r="AN47" s="140">
         <f t="shared" si="41"/>
-        <v>44204</v>
+        <v>44285</v>
       </c>
       <c r="AO47" s="140"/>
       <c r="AP47" s="45"/>
@@ -39443,15 +39453,15 @@
       </c>
       <c r="AE48" s="140">
         <f t="shared" si="42"/>
-        <v>44029</v>
+        <v>44038</v>
       </c>
       <c r="AF48" s="140">
         <f t="shared" si="42"/>
-        <v>44050</v>
+        <v>44068</v>
       </c>
       <c r="AG48" s="140">
         <f t="shared" si="42"/>
-        <v>44071</v>
+        <v>44098</v>
       </c>
       <c r="AH48" s="140"/>
       <c r="AI48" s="140"/>
@@ -39461,7 +39471,7 @@
       <c r="AM48" s="140"/>
       <c r="AN48" s="140">
         <f t="shared" si="42"/>
-        <v>44197</v>
+        <v>44278</v>
       </c>
       <c r="AO48" s="140"/>
       <c r="AP48" s="45"/>
@@ -39570,47 +39580,47 @@
       </c>
       <c r="AE51" s="252">
         <f t="shared" si="43"/>
-        <v>30.142857142857142</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="AF51" s="253">
         <f t="shared" si="43"/>
-        <v>33.142857142857146</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="AG51" s="254">
         <f t="shared" si="43"/>
-        <v>36.142857142857146</v>
+        <v>40</v>
       </c>
       <c r="AH51" s="278">
         <f t="shared" ref="AH51:AM51" si="44">(AH28-$B$25)/7</f>
-        <v>39.142857142857146</v>
+        <v>44.285714285714285</v>
       </c>
       <c r="AI51" s="253">
         <f t="shared" si="44"/>
-        <v>42.142857142857146</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="AJ51" s="138">
         <f t="shared" si="44"/>
-        <v>45.142857142857146</v>
+        <v>52.857142857142854</v>
       </c>
       <c r="AK51" s="135">
         <f t="shared" si="44"/>
-        <v>48.142857142857146</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="AL51" s="135">
         <f t="shared" si="44"/>
-        <v>51.142857142857146</v>
+        <v>61.428571428571431</v>
       </c>
       <c r="AM51" s="138">
         <f t="shared" si="44"/>
-        <v>51.142857142857146</v>
+        <v>61.428571428571431</v>
       </c>
       <c r="AN51" s="136">
         <f>(AN28-$B$25)/7</f>
-        <v>54.142857142857146</v>
+        <v>65.714285714285708</v>
       </c>
       <c r="AO51" s="136">
         <f t="shared" si="43"/>
-        <v>62.142857142857146</v>
+        <v>73.714285714285708</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -39699,47 +39709,47 @@
       </c>
       <c r="AE52" s="220">
         <f t="shared" si="46"/>
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AF52" s="220">
         <f t="shared" si="46"/>
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="AG52" s="220">
         <f t="shared" si="46"/>
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="AH52" s="220">
         <f t="shared" ref="AH52:AM52" si="47">AH28-$B$25</f>
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="AI52" s="221">
         <f t="shared" si="47"/>
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="AJ52" s="221">
         <f t="shared" si="47"/>
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="AK52" s="221">
         <f t="shared" si="47"/>
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="AL52" s="177">
         <f t="shared" si="47"/>
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="AM52" s="251">
         <f t="shared" si="47"/>
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="AN52" s="251">
         <f t="shared" si="46"/>
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="AO52" s="177">
         <f t="shared" si="46"/>
-        <v>435</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -39810,7 +39820,7 @@
         <v>2086864</v>
       </c>
       <c r="AE53" s="259">
-        <f t="shared" ref="AD53:AI53" si="48">AE29</f>
+        <f t="shared" ref="AE53:AI53" si="48">AE29</f>
         <v>4096000</v>
       </c>
       <c r="AF53" s="259">
@@ -39940,47 +39950,47 @@
       </c>
       <c r="AE54" s="172">
         <f t="shared" si="52"/>
-        <v>10.317198946666544</v>
+        <v>10.844782983711992</v>
       </c>
       <c r="AF54" s="172">
         <f t="shared" si="52"/>
-        <v>10.908752407098556</v>
+        <v>11.905491205716698</v>
       </c>
       <c r="AG54" s="172">
         <f t="shared" si="52"/>
-        <v>11.43822949834742</v>
+        <v>12.854890949977603</v>
       </c>
       <c r="AH54" s="172">
         <f t="shared" ref="AH54" si="53">(AH28-$N$28)/(LOG(AH53/$N$53)/LOG(2))</f>
-        <v>11.91491433699685</v>
+        <v>13.709629467255789</v>
       </c>
       <c r="AI54" s="172">
         <f t="shared" ref="AI54" si="54">(AI28-$N$28)/(LOG(AI53/$N$53)/LOG(2))</f>
-        <v>12.346327582020523</v>
+        <v>14.483191971216382</v>
       </c>
       <c r="AJ54" s="172">
         <f t="shared" ref="AJ54" si="55">(AJ28-$N$28)/(LOG(AJ53/$N$53)/LOG(2))</f>
-        <v>12.738626150569033</v>
+        <v>15.186618364557388</v>
       </c>
       <c r="AK54" s="172">
         <f t="shared" ref="AK54:AL54" si="56">(AK28-$N$28)/(LOG(AK53/$N$53)/LOG(2))</f>
-        <v>13.09689892639404</v>
+        <v>15.829033470641804</v>
       </c>
       <c r="AL54" s="175">
         <f t="shared" si="56"/>
-        <v>13.425388722132309</v>
+        <v>16.418045031709791</v>
       </c>
       <c r="AM54" s="175">
         <f t="shared" ref="AM54" si="57">(AM28-$N$28)/(LOG(AM53/$N$53)/LOG(2))</f>
-        <v>13.425388722132309</v>
+        <v>16.418045031709791</v>
       </c>
       <c r="AN54" s="175">
         <f t="shared" si="52"/>
-        <v>13.507261236050558</v>
+        <v>16.687750073608974</v>
       </c>
       <c r="AO54" s="176">
         <f t="shared" si="52"/>
-        <v>15.706117716337859</v>
+        <v>18.886606553896275</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
@@ -40146,7 +40156,9 @@
         <f t="shared" si="62"/>
         <v>1424669</v>
       </c>
-      <c r="AE56" s="280"/>
+      <c r="AE56" s="280">
+        <v>2713933</v>
+      </c>
       <c r="AF56" s="280"/>
       <c r="AG56" s="280"/>
       <c r="AH56" s="280"/>
@@ -40225,7 +40237,9 @@
       <c r="AD57" s="277">
         <v>45578</v>
       </c>
-      <c r="AE57" s="281"/>
+      <c r="AE57" s="281">
+        <v>63657</v>
+      </c>
       <c r="AF57" s="281"/>
       <c r="AG57" s="281"/>
       <c r="AH57" s="281"/>
@@ -44993,7 +45007,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45039,7 +45053,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>2594112</v>
+        <v>3542733</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -45048,7 +45062,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44059.868929861113</v>
+        <v>44073.627557754633</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -45057,7 +45071,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>164.86892986111343</v>
+        <v>178.62755775463302</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -45066,7 +45080,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>10.089264860751246</v>
+        <v>10.638515448014783</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -45099,7 +45113,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B17</f>
-        <v>5707046.3999999994</v>
+        <v>7794012.5999999996</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -45108,7 +45122,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1348470.5941363617</v>
+        <v>1983992.5872900242</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -45117,7 +45131,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>4358575.8058636375</v>
+        <v>5810020.0127099752</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -45131,7 +45145,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B21</f>
-        <v>2101230.7200000002</v>
+        <v>2869613.73</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -45141,7 +45155,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>496482.35511384223</v>
+        <v>730469.99804769072</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -45151,7 +45165,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>1604748.3648861579</v>
+        <v>2139143.7319523091</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -45164,7 +45178,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B22</f>
-        <v>363175.68000000005</v>
+        <v>495982.62000000005</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -45173,7 +45187,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>12534.882603669403</v>
+        <v>20368.106425737344</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -45182,7 +45196,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>350640.79739633063</v>
+        <v>475614.51357426273</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -45194,7 +45208,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B23</f>
-        <v>129705.60000000001</v>
+        <v>177136.65000000002</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -45204,7 +45218,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>4476.7437870247868</v>
+        <v>7274.3237234776234</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -45214,7 +45228,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>125228.85621297522</v>
+        <v>169862.32627652239</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -45224,7 +45238,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B24</f>
-        <v>57070.464</v>
+        <v>77940.125999999989</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -45233,7 +45247,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>3186.189170024054</v>
+        <v>5050.3210456983015</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -45245,7 +45259,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>24.326334908868407</v>
+        <v>20.867328614801551</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -45260,7 +45274,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44084.19526476998</v>
+        <v>44094.494886369437</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -45272,7 +45286,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-14.481565755505013</v>
+        <v>-20.053239575358774</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -45284,7 +45298,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44045.387364105605</v>
+        <v>44053.574318179271</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -45296,7 +45310,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>72.576070241704713</v>
+        <v>71.743736538022915</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -45308,7 +45322,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44132.445000102816</v>
+        <v>44145.371294292658</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -45317,7 +45331,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44089.868929861113</v>
+        <v>44103.627557754633</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -45329,7 +45343,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>20374577.559489168</v>
+        <v>25016448.185279295</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -45341,7 +45355,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B17</f>
-        <v>44824070.630876169</v>
+        <v>55036186.007614441</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -45350,7 +45364,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B21</f>
-        <v>16503407.823186228</v>
+        <v>20263323.030076232</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -45359,7 +45373,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B22</f>
-        <v>2852440.858328484</v>
+        <v>3502302.7459391016</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -45368,7 +45382,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B23</f>
-        <v>1018728.8779744585</v>
+        <v>1250822.4092639647</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -45377,7 +45391,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B24</f>
-        <v>448240.70630876167</v>
+        <v>550361.86007614445</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20FE533-AC68-4D79-B065-A3B4D7DE2664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA3A77-B667-4AE8-9A6A-A4D7D518157B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -1897,46 +1897,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,46 +1955,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>42.857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>171.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>342.85714285714278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>685.71428571428555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>1371.4285714285711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200</c:v>
+                  <c:v>2742.8571428571422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6400</c:v>
+                  <c:v>5485.7142857142844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12800</c:v>
+                  <c:v>10971.428571428569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25600</c:v>
+                  <c:v>21942.857142857138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51200</c:v>
+                  <c:v>43885.714285714275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102400</c:v>
+                  <c:v>87771.428571428551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204800</c:v>
+                  <c:v>175542.8571428571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>409600</c:v>
+                  <c:v>351085.7142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,46 +2046,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,46 +2104,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21.428571428571431</c:v>
+                  <c:v>14.285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.857142857142861</c:v>
+                  <c:v>28.571428571428559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.714285714285722</c:v>
+                  <c:v>57.142857142857117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.42857142857144</c:v>
+                  <c:v>114.28571428571423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.85714285714289</c:v>
+                  <c:v>228.57142857142847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>685.71428571428578</c:v>
+                  <c:v>457.14285714285694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1371.4285714285716</c:v>
+                  <c:v>914.28571428571388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2742.8571428571431</c:v>
+                  <c:v>1828.5714285714278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5485.7142857142862</c:v>
+                  <c:v>3657.1428571428555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10971.428571428572</c:v>
+                  <c:v>7314.285714285711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21942.857142857145</c:v>
+                  <c:v>14628.571428571422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43885.71428571429</c:v>
+                  <c:v>29257.142857142844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87771.42857142858</c:v>
+                  <c:v>58514.285714285688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175542.85714285716</c:v>
+                  <c:v>117028.57142857138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,46 +2195,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,10 +2606,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -2665,7 +2665,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,10 +2682,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$35:$AH$35</c:f>
+              <c:f>Projections!$P$35:$AI$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -2739,6 +2742,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8192000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16384000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,10 +2791,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -2844,7 +2850,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,10 +2867,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$59:$AH$59</c:f>
+              <c:f>Projections!$P$59:$AI$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -2917,7 +2926,10 @@
                   <c:v>4110839</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>8192000</c:v>
+                  <c:v>8182881</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>16384000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,10 +3257,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -3304,7 +3316,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,66 +3333,69 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$49:$AH$49</c:f>
+              <c:f>Projections!$P$49:$AI$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.546875</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09375</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1875</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.375</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>560</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1120</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2240</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4480</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8960</c:v>
+                  <c:v>7680</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17920</c:v>
+                  <c:v>15360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35840</c:v>
+                  <c:v>30720</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71680</c:v>
+                  <c:v>61440</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143360</c:v>
+                  <c:v>122880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>245760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,10 +3442,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -3483,7 +3501,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,10 +3518,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$63:$AH$63</c:f>
+              <c:f>Projections!$P$63:$AI$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3557,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
                   <c:v>122149</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>129674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,16 +3972,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,16 +4054,16 @@
                   <c:v>2010393.4225772631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21587499.783196583</c:v>
+                  <c:v>18983114.333495967</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22674214.033774186</c:v>
+                  <c:v>20854256.150119215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30636777.575609867</c:v>
+                  <c:v>28884033.012768485</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47004683.981215782</c:v>
+                  <c:v>44925725.800537229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,16 +4169,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,16 +4251,16 @@
                   <c:v>1582058.7721910735</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17227495.424950056</c:v>
+                  <c:v>15149114.932992958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17188729.309368558</c:v>
+                  <c:v>15842387.918677788</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22229098.01927815</c:v>
+                  <c:v>21037903.436188385</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32853404.396388024</c:v>
+                  <c:v>31563530.746445168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4342,16 +4366,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,16 +4448,16 @@
                   <c:v>319749.33508169668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3622402.1251440034</c:v>
+                  <c:v>3185383.8746547527</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4154332.0277997837</c:v>
+                  <c:v>3809494.7412767322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5923647.1915277531</c:v>
+                  <c:v>5561537.5690668086</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9425180.1812708918</c:v>
+                  <c:v>8966668.3249998484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4539,16 +4563,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,16 +4645,16 @@
                   <c:v>145109.47308068068</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2683262.0114808362</c:v>
+                  <c:v>2359544.6467735684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2752296.9496492799</c:v>
+                  <c:v>2535298.8727565827</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3574131.8973493748</c:v>
+                  <c:v>3383041.4381842325</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5255660.5428599622</c:v>
+                  <c:v>5054748.8547994383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,16 +4760,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4764,70 +4788,70 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.546875</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09375</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1875</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.375</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>560</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1120</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2240</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4480</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8960</c:v>
+                  <c:v>7680</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17920</c:v>
+                  <c:v>15360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35840</c:v>
+                  <c:v>30720</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71680</c:v>
+                  <c:v>61440</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143360</c:v>
+                  <c:v>122880</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>286720</c:v>
+                  <c:v>245760</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>573440</c:v>
+                  <c:v>491520</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1146880</c:v>
+                  <c:v>983040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5215,16 +5239,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5414,16 +5438,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5613,16 +5637,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5813,16 +5837,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,16 +6037,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6212,16 +6236,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6409,16 +6433,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6609,16 +6633,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6808,16 +6832,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,16 +7311,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,16 +7510,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7685,16 +7709,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7885,16 +7909,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8082,16 +8106,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8281,16 +8305,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8478,16 +8502,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8675,16 +8699,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8874,16 +8898,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9353,16 +9377,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,16 +9576,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9751,16 +9775,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9948,16 +9972,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10147,16 +10171,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10344,16 +10368,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10823,16 +10847,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11022,16 +11046,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11219,16 +11243,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11418,16 +11442,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11615,16 +11639,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12030,10 +12054,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -12089,7 +12113,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12103,10 +12130,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$35:$AH$35</c:f>
+              <c:f>Projections!$P$35:$AI$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -12163,6 +12190,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8192000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16384000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12209,10 +12239,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -12268,7 +12298,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12282,10 +12315,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$59:$AH$59</c:f>
+              <c:f>Projections!$P$59:$AI$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -12341,7 +12374,10 @@
                   <c:v>4110839</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>8192000</c:v>
+                  <c:v>8182881</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>16384000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12670,10 +12706,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -12729,7 +12765,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12743,66 +12782,69 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$49:$AH$49</c:f>
+              <c:f>Projections!$P$49:$AI$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.546875</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09375</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1875</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.375</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>560</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1120</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2240</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4480</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8960</c:v>
+                  <c:v>7680</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17920</c:v>
+                  <c:v>15360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35840</c:v>
+                  <c:v>30720</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71680</c:v>
+                  <c:v>61440</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143360</c:v>
+                  <c:v>122880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>245760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12849,10 +12891,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$34:$AH$34</c:f>
+              <c:f>Projections!$P$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43895</c:v>
                 </c:pt>
@@ -12908,7 +12950,10 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12922,10 +12967,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$P$63:$AH$63</c:f>
+              <c:f>Projections!$P$63:$AI$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12982,6 +13027,9 @@
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
                   <c:v>122149</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>129674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13310,46 +13358,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13450,46 +13498,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13593,46 +13641,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13730,46 +13778,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14137,46 +14185,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14195,46 +14243,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>42.857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>85.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>171.42857142857139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>342.85714285714278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>685.71428571428555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>1371.4285714285711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3200</c:v>
+                  <c:v>2742.8571428571422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6400</c:v>
+                  <c:v>5485.7142857142844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12800</c:v>
+                  <c:v>10971.428571428569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25600</c:v>
+                  <c:v>21942.857142857138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51200</c:v>
+                  <c:v>43885.714285714275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102400</c:v>
+                  <c:v>87771.428571428551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204800</c:v>
+                  <c:v>175542.8571428571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>409600</c:v>
+                  <c:v>351085.7142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14286,46 +14334,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14344,46 +14392,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21.428571428571431</c:v>
+                  <c:v>14.285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.857142857142861</c:v>
+                  <c:v>28.571428571428559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.714285714285722</c:v>
+                  <c:v>57.142857142857117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.42857142857144</c:v>
+                  <c:v>114.28571428571423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.85714285714289</c:v>
+                  <c:v>228.57142857142847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>685.71428571428578</c:v>
+                  <c:v>457.14285714285694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1371.4285714285716</c:v>
+                  <c:v>914.28571428571388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2742.8571428571431</c:v>
+                  <c:v>1828.5714285714278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5485.7142857142862</c:v>
+                  <c:v>3657.1428571428555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10971.428571428572</c:v>
+                  <c:v>7314.285714285711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21942.857142857145</c:v>
+                  <c:v>14628.571428571422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43885.71428571429</c:v>
+                  <c:v>29257.142857142844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87771.42857142858</c:v>
+                  <c:v>58514.285714285688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175542.85714285716</c:v>
+                  <c:v>117028.57142857138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14435,46 +14483,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14852,46 +14900,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14992,46 +15040,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15135,46 +15183,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15272,46 +15320,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.698564120372</c:v>
+                  <c:v>44110.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.698564120372</c:v>
+                  <c:v>44113.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.698564120372</c:v>
+                  <c:v>44116.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.698564120372</c:v>
+                  <c:v>44119.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.698564120372</c:v>
+                  <c:v>44122.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.698564120372</c:v>
+                  <c:v>44125.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.698564120372</c:v>
+                  <c:v>44128.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.698564120372</c:v>
+                  <c:v>44131.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.698564120372</c:v>
+                  <c:v>44134.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.698564120372</c:v>
+                  <c:v>44137.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.698564120372</c:v>
+                  <c:v>44140.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.698564120372</c:v>
+                  <c:v>44143.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.698564120372</c:v>
+                  <c:v>44146.829900115743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.698564120372</c:v>
+                  <c:v>44149.829900115743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15744,16 +15792,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15826,16 +15874,16 @@
                   <c:v>2010393.4225772631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21587499.783196583</c:v>
+                  <c:v>18983114.333495967</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22674214.033774186</c:v>
+                  <c:v>20854256.150119215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30636777.575609867</c:v>
+                  <c:v>28884033.012768485</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47004683.981215782</c:v>
+                  <c:v>44925725.800537229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15941,16 +15989,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16023,16 +16071,16 @@
                   <c:v>1582058.7721910735</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17227495.424950056</c:v>
+                  <c:v>15149114.932992958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17188729.309368558</c:v>
+                  <c:v>15842387.918677788</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22229098.01927815</c:v>
+                  <c:v>21037903.436188385</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32853404.396388024</c:v>
+                  <c:v>31563530.746445168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16138,16 +16186,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16220,16 +16268,16 @@
                   <c:v>319749.33508169668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3622402.1251440034</c:v>
+                  <c:v>3185383.8746547527</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4154332.0277997837</c:v>
+                  <c:v>3809494.7412767322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5923647.1915277531</c:v>
+                  <c:v>5561537.5690668086</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9425180.1812708918</c:v>
+                  <c:v>8966668.3249998484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16335,16 +16383,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16417,16 +16465,16 @@
                   <c:v>145109.47308068068</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2683262.0114808362</c:v>
+                  <c:v>2359544.6467735684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2752296.9496492799</c:v>
+                  <c:v>2535298.8727565827</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3574131.8973493748</c:v>
+                  <c:v>3383041.4381842325</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5255660.5428599622</c:v>
+                  <c:v>5054748.8547994383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16532,16 +16580,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16560,70 +16608,70 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.546875</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09375</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1875</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.375</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>560</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1120</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2240</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4480</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8960</c:v>
+                  <c:v>7680</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17920</c:v>
+                  <c:v>15360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35840</c:v>
+                  <c:v>30720</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71680</c:v>
+                  <c:v>61440</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>143360</c:v>
+                  <c:v>122880</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>286720</c:v>
+                  <c:v>245760</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>573440</c:v>
+                  <c:v>491520</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1146880</c:v>
+                  <c:v>983040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17010,16 +17058,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17209,16 +17257,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17408,16 +17456,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17608,16 +17656,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17808,16 +17856,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18007,16 +18055,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18204,16 +18252,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18404,16 +18452,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18603,16 +18651,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19081,16 +19129,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19280,16 +19328,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19479,16 +19527,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19679,16 +19727,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19876,16 +19924,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20075,16 +20123,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20272,16 +20320,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20469,16 +20517,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20668,16 +20716,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21146,16 +21194,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21345,16 +21393,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21544,16 +21592,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21741,16 +21789,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21940,16 +21988,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22137,16 +22185,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22615,16 +22663,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22814,16 +22862,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23011,16 +23059,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23210,16 +23258,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23407,16 +23455,16 @@
                   <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44137</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44195</c:v>
+                  <c:v>44191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44253</c:v>
+                  <c:v>44247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44311</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34749,85 +34797,85 @@
       </c>
       <c r="B17" s="96">
         <f>(AP25/E31) /Projections!B23</f>
-        <v>50</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="98"/>
       <c r="E17" s="92">
         <f>B17*2</f>
-        <v>100</v>
+        <v>85.714285714285694</v>
       </c>
       <c r="F17" s="97"/>
       <c r="G17" s="92"/>
       <c r="H17" s="92">
         <f>E17*2</f>
-        <v>200</v>
+        <v>171.42857142857139</v>
       </c>
       <c r="I17" s="97"/>
       <c r="J17" s="98"/>
       <c r="K17" s="89">
         <f>H17*2</f>
-        <v>400</v>
+        <v>342.85714285714278</v>
       </c>
       <c r="L17" s="87"/>
       <c r="M17" s="88"/>
       <c r="N17" s="89">
         <f>K17*2</f>
-        <v>800</v>
+        <v>685.71428571428555</v>
       </c>
       <c r="O17" s="87"/>
       <c r="P17" s="88"/>
       <c r="Q17" s="89">
         <f>N17*2</f>
-        <v>1600</v>
+        <v>1371.4285714285711</v>
       </c>
       <c r="R17" s="87"/>
       <c r="S17" s="88"/>
       <c r="T17" s="89">
         <f>Q17*2</f>
-        <v>3200</v>
+        <v>2742.8571428571422</v>
       </c>
       <c r="U17" s="87"/>
       <c r="V17" s="88"/>
       <c r="W17" s="89">
         <f>T17*2</f>
-        <v>6400</v>
+        <v>5485.7142857142844</v>
       </c>
       <c r="X17" s="87"/>
       <c r="Y17" s="88"/>
       <c r="Z17" s="89">
         <f>W17*2</f>
-        <v>12800</v>
+        <v>10971.428571428569</v>
       </c>
       <c r="AA17" s="87"/>
       <c r="AB17" s="88"/>
       <c r="AC17" s="89">
         <f>Z17*2</f>
-        <v>25600</v>
+        <v>21942.857142857138</v>
       </c>
       <c r="AD17" s="87"/>
       <c r="AE17" s="88"/>
       <c r="AF17" s="89">
         <f>AC17*2</f>
-        <v>51200</v>
+        <v>43885.714285714275</v>
       </c>
       <c r="AG17" s="87"/>
       <c r="AH17" s="88"/>
       <c r="AI17" s="89">
         <f>AF17*2</f>
-        <v>102400</v>
+        <v>87771.428571428551</v>
       </c>
       <c r="AJ17" s="87"/>
       <c r="AK17" s="88"/>
       <c r="AL17" s="89">
         <f>AI17*2</f>
-        <v>204800</v>
+        <v>175542.8571428571</v>
       </c>
       <c r="AM17" s="87"/>
       <c r="AN17" s="88"/>
       <c r="AO17" s="89">
         <f>AL17*2</f>
-        <v>409600</v>
+        <v>351085.7142857142</v>
       </c>
       <c r="AP17" s="92"/>
       <c r="AQ17" t="s">
@@ -34840,85 +34888,85 @@
       </c>
       <c r="B18" s="82">
         <f>B17*$E$34</f>
-        <v>21.428571428571431</v>
+        <v>14.285714285714279</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99">
         <f>E17*$E$34</f>
-        <v>42.857142857142861</v>
+        <v>28.571428571428559</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="33"/>
       <c r="H18" s="99">
         <f>H17*$E$34</f>
-        <v>85.714285714285722</v>
+        <v>57.142857142857117</v>
       </c>
       <c r="I18" s="99"/>
       <c r="J18" s="99"/>
       <c r="K18" s="99">
         <f>K17*$E$34</f>
-        <v>171.42857142857144</v>
+        <v>114.28571428571423</v>
       </c>
       <c r="L18" s="99"/>
       <c r="M18" s="99"/>
       <c r="N18" s="99">
         <f>N17*$E$34</f>
-        <v>342.85714285714289</v>
+        <v>228.57142857142847</v>
       </c>
       <c r="O18" s="99"/>
       <c r="P18" s="99"/>
       <c r="Q18" s="99">
         <f>Q17*$E$34</f>
-        <v>685.71428571428578</v>
+        <v>457.14285714285694</v>
       </c>
       <c r="R18" s="99"/>
       <c r="S18" s="99"/>
       <c r="T18" s="99">
         <f>T17*$E$34</f>
-        <v>1371.4285714285716</v>
+        <v>914.28571428571388</v>
       </c>
       <c r="U18" s="99"/>
       <c r="V18" s="99"/>
       <c r="W18" s="99">
         <f>W17*$E$34</f>
-        <v>2742.8571428571431</v>
+        <v>1828.5714285714278</v>
       </c>
       <c r="X18" s="99"/>
       <c r="Y18" s="99"/>
       <c r="Z18" s="99">
         <f>Z17*$E$34</f>
-        <v>5485.7142857142862</v>
+        <v>3657.1428571428555</v>
       </c>
       <c r="AA18" s="99"/>
       <c r="AB18" s="99"/>
       <c r="AC18" s="99">
         <f>AC17*$E$34</f>
-        <v>10971.428571428572</v>
+        <v>7314.285714285711</v>
       </c>
       <c r="AD18" s="99"/>
       <c r="AE18" s="99"/>
       <c r="AF18" s="99">
         <f>AF17*$E$34</f>
-        <v>21942.857142857145</v>
+        <v>14628.571428571422</v>
       </c>
       <c r="AG18" s="99"/>
       <c r="AH18" s="99"/>
       <c r="AI18" s="99">
         <f>AI17*$E$34</f>
-        <v>43885.71428571429</v>
+        <v>29257.142857142844</v>
       </c>
       <c r="AJ18" s="99"/>
       <c r="AK18" s="99"/>
       <c r="AL18" s="99">
         <f>AL17*$E$34</f>
-        <v>87771.42857142858</v>
+        <v>58514.285714285688</v>
       </c>
       <c r="AM18" s="99"/>
       <c r="AN18" s="99"/>
       <c r="AO18" s="99">
         <f>AO17*$E$34</f>
-        <v>175542.85714285716</v>
+        <v>117028.57142857138</v>
       </c>
       <c r="AP18" s="33"/>
       <c r="AQ18" t="s">
@@ -34931,85 +34979,85 @@
       </c>
       <c r="B19" s="80">
         <f>B18</f>
-        <v>21.428571428571431</v>
+        <v>14.285714285714279</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="81">
         <f>E18</f>
-        <v>42.857142857142861</v>
+        <v>28.571428571428559</v>
       </c>
       <c r="F19" s="81"/>
       <c r="G19" s="34"/>
       <c r="H19" s="81">
         <f>H18</f>
-        <v>85.714285714285722</v>
+        <v>57.142857142857117</v>
       </c>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
       <c r="K19" s="81">
         <f>K18</f>
-        <v>171.42857142857144</v>
+        <v>114.28571428571423</v>
       </c>
       <c r="L19" s="81"/>
       <c r="M19" s="81"/>
       <c r="N19" s="81">
         <f>N18</f>
-        <v>342.85714285714289</v>
+        <v>228.57142857142847</v>
       </c>
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
       <c r="Q19" s="81">
         <f>Q18</f>
-        <v>685.71428571428578</v>
+        <v>457.14285714285694</v>
       </c>
       <c r="R19" s="81"/>
       <c r="S19" s="81"/>
       <c r="T19" s="81">
         <f>T18</f>
-        <v>1371.4285714285716</v>
+        <v>914.28571428571388</v>
       </c>
       <c r="U19" s="81"/>
       <c r="V19" s="81"/>
       <c r="W19" s="115">
         <f>W18-B18</f>
-        <v>2721.4285714285716</v>
+        <v>1814.2857142857135</v>
       </c>
       <c r="X19" s="115"/>
       <c r="Y19" s="115"/>
       <c r="Z19" s="115">
         <f>Z18-E18</f>
-        <v>5442.8571428571431</v>
+        <v>3628.5714285714271</v>
       </c>
       <c r="AA19" s="115"/>
       <c r="AB19" s="115"/>
       <c r="AC19" s="115">
         <f>AC18-H18</f>
-        <v>10885.714285714286</v>
+        <v>7257.1428571428542</v>
       </c>
       <c r="AD19" s="115"/>
       <c r="AE19" s="115"/>
       <c r="AF19" s="115">
         <f>AF18-K18</f>
-        <v>21771.428571428572</v>
+        <v>14514.285714285708</v>
       </c>
       <c r="AG19" s="115"/>
       <c r="AH19" s="115"/>
       <c r="AI19" s="115">
         <f>AI18-N18</f>
-        <v>43542.857142857145</v>
+        <v>29028.571428571417</v>
       </c>
       <c r="AJ19" s="115"/>
       <c r="AK19" s="115"/>
       <c r="AL19" s="115">
         <f>AL18-Q18</f>
-        <v>87085.71428571429</v>
+        <v>58057.142857142833</v>
       </c>
       <c r="AM19" s="115"/>
       <c r="AN19" s="115"/>
       <c r="AO19" s="115">
         <f>AO18-T18</f>
-        <v>174171.42857142858</v>
+        <v>116114.28571428567</v>
       </c>
       <c r="AP19" s="116"/>
       <c r="AQ19" t="s">
@@ -35463,167 +35511,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44096.698564120372</v>
+        <v>44110.829900115743</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44097.698564120372</v>
+        <v>44111.829900115743</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44098.698564120372</v>
+        <v>44112.829900115743</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44099.698564120372</v>
+        <v>44113.829900115743</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44100.698564120372</v>
+        <v>44114.829900115743</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>44101.698564120372</v>
+        <v>44115.829900115743</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44102.698564120372</v>
+        <v>44116.829900115743</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44103.698564120372</v>
+        <v>44117.829900115743</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44104.698564120372</v>
+        <v>44118.829900115743</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44105.698564120372</v>
+        <v>44119.829900115743</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44106.698564120372</v>
+        <v>44120.829900115743</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44107.698564120372</v>
+        <v>44121.829900115743</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44108.698564120372</v>
+        <v>44122.829900115743</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44109.698564120372</v>
+        <v>44123.829900115743</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44110.698564120372</v>
+        <v>44124.829900115743</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44111.698564120372</v>
+        <v>44125.829900115743</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44112.698564120372</v>
+        <v>44126.829900115743</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44113.698564120372</v>
+        <v>44127.829900115743</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44114.698564120372</v>
+        <v>44128.829900115743</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44115.698564120372</v>
+        <v>44129.829900115743</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44116.698564120372</v>
+        <v>44130.829900115743</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44117.698564120372</v>
+        <v>44131.829900115743</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44118.698564120372</v>
+        <v>44132.829900115743</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44119.698564120372</v>
+        <v>44133.829900115743</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44120.698564120372</v>
+        <v>44134.829900115743</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44121.698564120372</v>
+        <v>44135.829900115743</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44122.698564120372</v>
+        <v>44136.829900115743</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44123.698564120372</v>
+        <v>44137.829900115743</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44124.698564120372</v>
+        <v>44138.829900115743</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44125.698564120372</v>
+        <v>44139.829900115743</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44126.698564120372</v>
+        <v>44140.829900115743</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44127.698564120372</v>
+        <v>44141.829900115743</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44128.698564120372</v>
+        <v>44142.829900115743</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44129.698564120372</v>
+        <v>44143.829900115743</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44130.698564120372</v>
+        <v>44144.829900115743</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44131.698564120372</v>
+        <v>44145.829900115743</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44132.698564120372</v>
+        <v>44146.829900115743</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44133.698564120372</v>
+        <v>44147.829900115743</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44134.698564120372</v>
+        <v>44148.829900115743</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>44135.698564120372</v>
+        <v>44149.829900115743</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44136.698564120372</v>
+        <v>44150.829900115743</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -35914,7 +35962,7 @@
       <c r="D34" s="16"/>
       <c r="E34" s="134">
         <f>1-Projections!B23</f>
-        <v>0.4285714285714286</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>198</v>
@@ -36032,7 +36080,7 @@
       </c>
       <c r="C45" s="27">
         <f>Projections!B30</f>
-        <v>1.7500000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -36141,8 +36189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AT110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ28"/>
+    <sheetView tabSelected="1" topLeftCell="M32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI64" sqref="AI64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36607,7 +36655,7 @@
       </c>
       <c r="B23" s="145">
         <f>B22/B30</f>
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C23" t="s">
         <v>212</v>
@@ -36788,7 +36836,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="64">
-        <v>1.7500000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="168" t="s">
@@ -36805,7 +36853,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="268">
         <f>(AK34-P34)/(LOG(AK35/P35)/LOG(2))</f>
-        <v>19.80952380952381</v>
+        <v>19.428571428571427</v>
       </c>
       <c r="E31" s="164"/>
       <c r="S31" s="16"/>
@@ -36955,7 +37003,7 @@
         <v>29</v>
       </c>
       <c r="L34" s="206">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M34" s="206"/>
       <c r="N34" s="206"/>
@@ -37027,49 +37075,49 @@
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="AG34" s="286">
+      <c r="AG34" s="291">
         <f t="shared" si="0"/>
         <v>44079</v>
       </c>
-      <c r="AH34" s="216">
+      <c r="AH34" s="286">
         <f t="shared" si="0"/>
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="AI34" s="216">
         <f t="shared" si="0"/>
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="AJ34" s="216">
         <f t="shared" ref="AJ34" si="1">AI34+HLOOKUP(AI34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44253</v>
+        <v>44247</v>
       </c>
       <c r="AK34" s="223">
         <f t="shared" ref="AK34" si="2">AJ34+HLOOKUP(AJ34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44311</v>
+        <v>44303</v>
       </c>
       <c r="AL34" s="216">
         <f>AK34+HLOOKUP(AK34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44369</v>
+        <v>44359</v>
       </c>
       <c r="AM34" s="216">
         <f>AL34+HLOOKUP(AL34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44427</v>
+        <v>44415</v>
       </c>
       <c r="AN34" s="216">
         <f>AM34+HLOOKUP(AM34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44485</v>
+        <v>44471</v>
       </c>
       <c r="AO34" s="223">
         <f>AM34+HLOOKUP(AM34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44485</v>
+        <v>44471</v>
       </c>
       <c r="AP34" s="223">
         <f>AO34+HLOOKUP(AO34+1, $B$33:$O$34,2,TRUE)</f>
-        <v>44543</v>
+        <v>44527</v>
       </c>
       <c r="AQ34" s="235">
         <f>AP34+(7*8)</f>
-        <v>44599</v>
+        <v>44583</v>
       </c>
       <c r="AR34" s="67"/>
       <c r="AS34" s="67"/>
@@ -37462,11 +37510,11 @@
       </c>
       <c r="AO37" s="186">
         <f t="shared" si="10"/>
-        <v>105967378.17875814</v>
+        <v>135863129.95716941</v>
       </c>
       <c r="AP37" s="185">
         <f t="shared" si="9"/>
-        <v>49622354.779036626</v>
+        <v>57715241.305536956</v>
       </c>
       <c r="AQ37" s="230"/>
       <c r="AR37" s="45"/>
@@ -37525,79 +37573,79 @@
       </c>
       <c r="X38" s="210">
         <f t="shared" si="12"/>
-        <v>714.08665466700518</v>
+        <v>714.17275275256463</v>
       </c>
       <c r="Y38" s="210">
         <f t="shared" si="12"/>
-        <v>2857.1421762598075</v>
+        <v>2857.430763292668</v>
       </c>
       <c r="Z38" s="210">
         <f t="shared" si="12"/>
-        <v>14698.882390023207</v>
+        <v>14700.506930712669</v>
       </c>
       <c r="AA38" s="210">
         <f t="shared" si="12"/>
-        <v>46193.752357020516</v>
+        <v>46204.921627853852</v>
       </c>
       <c r="AB38" s="210">
         <f t="shared" si="12"/>
-        <v>93892.536591875076</v>
+        <v>93950.595249342659</v>
       </c>
       <c r="AC38" s="210">
         <f t="shared" si="12"/>
-        <v>144928.25306536435</v>
+        <v>145071.55411728483</v>
       </c>
       <c r="AD38" s="210">
         <f t="shared" si="12"/>
-        <v>388731.05676156952</v>
+        <v>389056.04113656952</v>
       </c>
       <c r="AE38" s="210">
         <f t="shared" si="12"/>
-        <v>907985.66094299627</v>
+        <v>909071.23176137963</v>
       </c>
       <c r="AF38" s="210">
         <f t="shared" si="12"/>
-        <v>1666556.053200746</v>
+        <v>1668981.5510823957</v>
       </c>
       <c r="AG38" s="210">
         <f t="shared" si="12"/>
-        <v>3859610.56068685</v>
+        <v>3868342.5537869004</v>
       </c>
       <c r="AH38" s="210">
         <f t="shared" si="12"/>
-        <v>7863300.9602178913</v>
+        <v>7944248.231635645</v>
       </c>
       <c r="AI38" s="210">
         <f t="shared" si="12"/>
-        <v>15893287.722647324</v>
+        <v>16001741.239443956</v>
       </c>
       <c r="AJ38" s="210">
         <f t="shared" si="12"/>
-        <v>31945669.647037569</v>
+        <v>32114451.160735227</v>
       </c>
       <c r="AK38" s="210">
         <f t="shared" si="12"/>
-        <v>64076668.126556173</v>
+        <v>64362424.158939876</v>
       </c>
       <c r="AL38" s="210">
         <f>MAX(AL35-AL37-AL50,0)</f>
-        <v>128394434.30868816</v>
+        <v>128901346.6305486</v>
       </c>
       <c r="AM38" s="210">
         <f>MAX(AM35-AM37-AM50,0)</f>
-        <v>257126473.27510256</v>
+        <v>258052667.41849118</v>
       </c>
       <c r="AN38" s="292">
         <f t="shared" ref="AN38:AO38" si="13">MAX(AN35-AN37-AN50,0)</f>
-        <v>514751134.34209412</v>
+        <v>516477362.70028955</v>
       </c>
       <c r="AO38" s="293">
         <f t="shared" si="13"/>
-        <v>933071756.16333604</v>
+        <v>904902232.74312007</v>
       </c>
       <c r="AP38" s="200">
         <f>MAX(AP35-AP37-AP50,0)</f>
-        <v>1324224440.6238678</v>
+        <v>1319394187.2661333</v>
       </c>
       <c r="AQ38" s="231"/>
       <c r="AR38" s="25"/>
@@ -37624,103 +37672,103 @@
       <c r="O39" s="5"/>
       <c r="P39" s="197">
         <f t="shared" ref="P39:AK39" si="14">P35/$B$23</f>
-        <v>54.6875</v>
+        <v>46.874999999999993</v>
       </c>
       <c r="Q39" s="198">
         <f t="shared" si="14"/>
-        <v>109.375</v>
+        <v>93.749999999999986</v>
       </c>
       <c r="R39" s="198">
         <f t="shared" si="14"/>
-        <v>218.75</v>
+        <v>187.49999999999997</v>
       </c>
       <c r="S39" s="198">
         <f t="shared" si="14"/>
-        <v>437.5</v>
+        <v>374.99999999999994</v>
       </c>
       <c r="T39" s="198">
         <f t="shared" si="14"/>
-        <v>875</v>
+        <v>749.99999999999989</v>
       </c>
       <c r="U39" s="198">
         <f t="shared" si="14"/>
-        <v>1750</v>
+        <v>1499.9999999999998</v>
       </c>
       <c r="V39" s="198">
         <f t="shared" si="14"/>
-        <v>3500</v>
+        <v>2999.9999999999995</v>
       </c>
       <c r="W39" s="198">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>5999.9999999999991</v>
       </c>
       <c r="X39" s="198">
         <f t="shared" si="14"/>
-        <v>14000</v>
+        <v>11999.999999999998</v>
       </c>
       <c r="Y39" s="198">
         <f t="shared" si="14"/>
-        <v>28000</v>
+        <v>23999.999999999996</v>
       </c>
       <c r="Z39" s="198">
         <f t="shared" si="14"/>
-        <v>56000</v>
+        <v>47999.999999999993</v>
       </c>
       <c r="AA39" s="198">
         <f t="shared" si="14"/>
-        <v>112000</v>
+        <v>95999.999999999985</v>
       </c>
       <c r="AB39" s="198">
         <f t="shared" si="14"/>
-        <v>224000</v>
+        <v>191999.99999999997</v>
       </c>
       <c r="AC39" s="198">
         <f t="shared" si="14"/>
-        <v>448000</v>
+        <v>383999.99999999994</v>
       </c>
       <c r="AD39" s="198">
         <f t="shared" si="14"/>
-        <v>896000</v>
+        <v>767999.99999999988</v>
       </c>
       <c r="AE39" s="198">
         <f t="shared" si="14"/>
-        <v>1792000</v>
+        <v>1535999.9999999998</v>
       </c>
       <c r="AF39" s="198">
         <f t="shared" si="14"/>
-        <v>3584000</v>
+        <v>3071999.9999999995</v>
       </c>
       <c r="AG39" s="198">
         <f t="shared" si="14"/>
-        <v>7168000</v>
+        <v>6143999.9999999991</v>
       </c>
       <c r="AH39" s="198">
         <f t="shared" si="14"/>
-        <v>14336000</v>
+        <v>12287999.999999998</v>
       </c>
       <c r="AI39" s="198">
         <f t="shared" si="14"/>
-        <v>28672000</v>
+        <v>24575999.999999996</v>
       </c>
       <c r="AJ39" s="198">
         <f t="shared" si="14"/>
-        <v>57344000</v>
+        <v>49151999.999999993</v>
       </c>
       <c r="AK39" s="198">
         <f t="shared" si="14"/>
-        <v>114688000</v>
+        <v>98303999.999999985</v>
       </c>
       <c r="AL39" s="198">
         <f>AL35/$B$23</f>
-        <v>229376000</v>
+        <v>196607999.99999997</v>
       </c>
       <c r="AM39" s="198">
         <f>AM35/$B$23</f>
-        <v>458752000</v>
+        <v>393215999.99999994</v>
       </c>
       <c r="AN39" s="224">
         <f>AN35/$B$23</f>
-        <v>917504000</v>
+        <v>786431999.99999988</v>
       </c>
       <c r="AO39" s="195">
         <f t="shared" ref="AO39" si="15">$B$21</f>
@@ -37732,7 +37780,7 @@
       </c>
       <c r="AQ39" s="230">
         <f>($B$21*$B$24)/$B$23</f>
-        <v>146176380</v>
+        <v>125294039.99999999</v>
       </c>
       <c r="AR39" s="25"/>
       <c r="AS39" s="25"/>
@@ -37758,103 +37806,103 @@
       <c r="O40" s="17"/>
       <c r="P40" s="181">
         <f>P39/$B$21</f>
-        <v>3.928259476667845E-8</v>
+        <v>3.3670795514295809E-8</v>
       </c>
       <c r="Q40" s="182">
         <f t="shared" ref="Q40:AH40" si="16">Q39/$B$21</f>
-        <v>7.85651895333569E-8</v>
+        <v>6.7341591028591617E-8</v>
       </c>
       <c r="R40" s="182">
         <f t="shared" si="16"/>
-        <v>1.571303790667138E-7</v>
+        <v>1.3468318205718323E-7</v>
       </c>
       <c r="S40" s="65">
         <f t="shared" si="16"/>
-        <v>3.142607581334276E-7</v>
+        <v>2.6936636411436647E-7</v>
       </c>
       <c r="T40" s="65">
         <f t="shared" si="16"/>
-        <v>6.285215162668552E-7</v>
+        <v>5.3873272822873294E-7</v>
       </c>
       <c r="U40" s="65">
         <f t="shared" si="16"/>
-        <v>1.2570430325337104E-6</v>
+        <v>1.0774654564574659E-6</v>
       </c>
       <c r="V40" s="65">
         <f t="shared" si="16"/>
-        <v>2.5140860650674208E-6</v>
+        <v>2.1549309129149318E-6</v>
       </c>
       <c r="W40" s="36">
         <f t="shared" si="16"/>
-        <v>5.0281721301348416E-6</v>
+        <v>4.3098618258298635E-6</v>
       </c>
       <c r="X40" s="36">
         <f t="shared" si="16"/>
-        <v>1.0056344260269683E-5</v>
+        <v>8.619723651659727E-6</v>
       </c>
       <c r="Y40" s="36">
         <f t="shared" si="16"/>
-        <v>2.0112688520539366E-5</v>
+        <v>1.7239447303319454E-5</v>
       </c>
       <c r="Z40" s="36">
         <f t="shared" si="16"/>
-        <v>4.0225377041078733E-5</v>
+        <v>3.4478894606638908E-5</v>
       </c>
       <c r="AA40" s="36">
         <f t="shared" si="16"/>
-        <v>8.0450754082157466E-5</v>
+        <v>6.8957789213277816E-5</v>
       </c>
       <c r="AB40" s="14">
         <f t="shared" si="16"/>
-        <v>1.6090150816431493E-4</v>
+        <v>1.3791557842655563E-4</v>
       </c>
       <c r="AC40" s="14">
         <f t="shared" si="16"/>
-        <v>3.2180301632862986E-4</v>
+        <v>2.7583115685311126E-4</v>
       </c>
       <c r="AD40" s="14">
         <f t="shared" si="16"/>
-        <v>6.4360603265725973E-4</v>
+        <v>5.5166231370622253E-4</v>
       </c>
       <c r="AE40" s="14">
         <f t="shared" si="16"/>
-        <v>1.2872120653145195E-3</v>
+        <v>1.1033246274124451E-3</v>
       </c>
       <c r="AF40" s="15">
         <f t="shared" si="16"/>
-        <v>2.5744241306290389E-3</v>
+        <v>2.2066492548248901E-3</v>
       </c>
       <c r="AG40" s="15">
         <f t="shared" si="16"/>
-        <v>5.1488482612580778E-3</v>
+        <v>4.4132985096497802E-3</v>
       </c>
       <c r="AH40" s="15">
         <f t="shared" si="16"/>
-        <v>1.0297696522516156E-2</v>
+        <v>8.8265970192995605E-3</v>
       </c>
       <c r="AI40" s="15">
         <f>AI39/$B$21</f>
-        <v>2.0595393045032311E-2</v>
+        <v>1.7653194038599121E-2</v>
       </c>
       <c r="AJ40" s="72">
         <f t="shared" ref="AJ40:AO40" si="17">AJ39/$B$21</f>
-        <v>4.1190786090064622E-2</v>
+        <v>3.5306388077198242E-2</v>
       </c>
       <c r="AK40" s="72">
         <f t="shared" si="17"/>
-        <v>8.2381572180129245E-2</v>
+        <v>7.0612776154396484E-2</v>
       </c>
       <c r="AL40" s="72">
         <f t="shared" ref="AL40" si="18">AL39/$B$21</f>
-        <v>0.16476314436025849</v>
+        <v>0.14122555230879297</v>
       </c>
       <c r="AM40" s="72">
         <f t="shared" si="17"/>
-        <v>0.32952628872051698</v>
+        <v>0.28245110461758594</v>
       </c>
       <c r="AN40" s="225">
         <f t="shared" ref="AN40" si="19">AN39/$B$21</f>
-        <v>0.65905257744103396</v>
+        <v>0.56490220923517187</v>
       </c>
       <c r="AO40" s="167">
         <f t="shared" si="17"/>
@@ -37865,7 +37913,7 @@
       </c>
       <c r="AQ40" s="229">
         <f>AQ39/B21</f>
-        <v>0.105</v>
+        <v>8.9999999999999983E-2</v>
       </c>
       <c r="AR40" s="25"/>
       <c r="AS40" s="25"/>
@@ -37891,103 +37939,103 @@
       <c r="O41" s="17"/>
       <c r="P41" s="183">
         <f>P39-P35</f>
-        <v>23.4375</v>
+        <v>15.624999999999993</v>
       </c>
       <c r="Q41" s="184">
         <f t="shared" ref="Q41:AG41" si="20">Q39-Q35</f>
-        <v>46.875</v>
+        <v>31.249999999999986</v>
       </c>
       <c r="R41" s="184">
         <f t="shared" si="20"/>
-        <v>93.75</v>
+        <v>62.499999999999972</v>
       </c>
       <c r="S41" s="184">
         <f t="shared" si="20"/>
-        <v>187.5</v>
+        <v>124.99999999999994</v>
       </c>
       <c r="T41" s="184">
         <f>T39-T35</f>
-        <v>375</v>
+        <v>249.99999999999989</v>
       </c>
       <c r="U41" s="184">
         <f t="shared" si="20"/>
-        <v>750</v>
+        <v>499.99999999999977</v>
       </c>
       <c r="V41" s="184">
         <f t="shared" si="20"/>
-        <v>1500</v>
+        <v>999.99999999999955</v>
       </c>
       <c r="W41" s="184">
         <f t="shared" si="20"/>
-        <v>3000</v>
+        <v>1999.9999999999991</v>
       </c>
       <c r="X41" s="184">
         <f t="shared" si="20"/>
-        <v>6000</v>
+        <v>3999.9999999999982</v>
       </c>
       <c r="Y41" s="184">
         <f t="shared" si="20"/>
-        <v>12000</v>
+        <v>7999.9999999999964</v>
       </c>
       <c r="Z41" s="184">
         <f t="shared" si="20"/>
-        <v>24000</v>
+        <v>15999.999999999993</v>
       </c>
       <c r="AA41" s="184">
         <f t="shared" si="20"/>
-        <v>48000</v>
+        <v>31999.999999999985</v>
       </c>
       <c r="AB41" s="184">
         <f t="shared" si="20"/>
-        <v>96000</v>
+        <v>63999.999999999971</v>
       </c>
       <c r="AC41" s="184">
         <f t="shared" si="20"/>
-        <v>192000</v>
+        <v>127999.99999999994</v>
       </c>
       <c r="AD41" s="184">
         <f t="shared" si="20"/>
-        <v>384000</v>
+        <v>255999.99999999988</v>
       </c>
       <c r="AE41" s="184">
         <f t="shared" si="20"/>
-        <v>768000</v>
+        <v>511999.99999999977</v>
       </c>
       <c r="AF41" s="184">
         <f t="shared" si="20"/>
-        <v>1536000</v>
+        <v>1023999.9999999995</v>
       </c>
       <c r="AG41" s="184">
         <f t="shared" si="20"/>
-        <v>3072000</v>
+        <v>2047999.9999999991</v>
       </c>
       <c r="AH41" s="184">
         <f>AH39-AH35</f>
-        <v>6144000</v>
+        <v>4095999.9999999981</v>
       </c>
       <c r="AI41" s="184">
         <f>AI39-AI35</f>
-        <v>12288000</v>
+        <v>8191999.9999999963</v>
       </c>
       <c r="AJ41" s="184">
         <f>AJ39-AJ35</f>
-        <v>24576000</v>
+        <v>16383999.999999993</v>
       </c>
       <c r="AK41" s="184">
         <f t="shared" ref="AK41:AO41" si="21">AK39</f>
-        <v>114688000</v>
+        <v>98303999.999999985</v>
       </c>
       <c r="AL41" s="184">
         <f t="shared" si="21"/>
-        <v>229376000</v>
+        <v>196607999.99999997</v>
       </c>
       <c r="AM41" s="184">
         <f t="shared" si="21"/>
-        <v>458752000</v>
+        <v>393215999.99999994</v>
       </c>
       <c r="AN41" s="226">
         <f t="shared" ref="AN41" si="22">AN39</f>
-        <v>917504000</v>
+        <v>786431999.99999988</v>
       </c>
       <c r="AO41" s="186">
         <f t="shared" si="21"/>
@@ -37999,7 +38047,7 @@
       </c>
       <c r="AQ41" s="232">
         <f>AQ39-AQ35</f>
-        <v>62647020</v>
+        <v>41764679.999999985</v>
       </c>
       <c r="AR41" s="25"/>
       <c r="AS41" s="25"/>
@@ -38025,103 +38073,103 @@
       <c r="O42" s="62"/>
       <c r="P42" s="192">
         <f>MIN((1/$B$23)*(2^(((P34 - 14) - $B$31)/$P$60)),P41)</f>
-        <v>13.468238596270638</v>
+        <v>11.544204511089116</v>
       </c>
       <c r="Q42" s="193">
         <f>MIN((1/$B$23)*(2^(((Q34 - 14) - $B$31)/$P$60)),Q41)</f>
-        <v>21.894151736625723</v>
+        <v>18.766415774250614</v>
       </c>
       <c r="R42" s="193">
         <f t="shared" ref="R42" si="23">MIN((1/$B$23)*(2^(((R34 - 14) - $B$31)/$P$60)),R41)</f>
-        <v>35.591430671500298</v>
+        <v>30.506940575571679</v>
       </c>
       <c r="S42" s="184">
         <f t="shared" ref="S42:AP42" si="24">MIN(($P$35/$B$23)*(2^(((S34 - 14) - $P$34)/HLOOKUP((S34-14)-$B$31,$P$58:$AQ$60,3,TRUE))),S41)</f>
-        <v>60.268659891582168</v>
+        <v>51.658851335641849</v>
       </c>
       <c r="T42" s="184">
         <f t="shared" si="24"/>
-        <v>113.02083333333331</v>
+        <v>96.874999999999972</v>
       </c>
       <c r="U42" s="184">
         <f t="shared" si="24"/>
-        <v>202.01092300211059</v>
+        <v>173.15221971609475</v>
       </c>
       <c r="V42" s="184">
         <f t="shared" si="24"/>
-        <v>310.17496790958762</v>
+        <v>265.8642582082179</v>
       </c>
       <c r="W42" s="184">
         <f t="shared" si="24"/>
-        <v>601.87999458511558</v>
+        <v>515.89713821581324</v>
       </c>
       <c r="X42" s="184">
         <f t="shared" si="24"/>
-        <v>1540.3616224947939</v>
+        <v>1320.3099621383944</v>
       </c>
       <c r="Y42" s="184">
         <f t="shared" si="24"/>
-        <v>5807.2503285028806</v>
+        <v>4977.643138716754</v>
       </c>
       <c r="Z42" s="184">
         <f t="shared" si="24"/>
-        <v>24000</v>
+        <v>15999.999999999993</v>
       </c>
       <c r="AA42" s="184">
         <f t="shared" si="24"/>
-        <v>48000</v>
+        <v>31999.999999999985</v>
       </c>
       <c r="AB42" s="184">
         <f t="shared" si="24"/>
-        <v>96000</v>
+        <v>63999.999999999971</v>
       </c>
       <c r="AC42" s="184">
         <f t="shared" si="24"/>
-        <v>192000</v>
+        <v>127999.99999999994</v>
       </c>
       <c r="AD42" s="184">
         <f t="shared" si="24"/>
-        <v>384000</v>
+        <v>255999.99999999988</v>
       </c>
       <c r="AE42" s="184">
         <f t="shared" si="24"/>
-        <v>768000</v>
+        <v>511999.99999999977</v>
       </c>
       <c r="AF42" s="184">
         <f t="shared" si="24"/>
-        <v>1536000</v>
+        <v>1023999.9999999995</v>
       </c>
       <c r="AG42" s="184">
         <f t="shared" si="24"/>
-        <v>3072000</v>
+        <v>2047999.9999999991</v>
       </c>
       <c r="AH42" s="184">
         <f t="shared" si="24"/>
-        <v>6144000</v>
+        <v>4095999.9999999981</v>
       </c>
       <c r="AI42" s="184">
         <f t="shared" si="24"/>
-        <v>12288000</v>
+        <v>8191999.9999999963</v>
       </c>
       <c r="AJ42" s="184">
         <f t="shared" si="24"/>
-        <v>24576000</v>
+        <v>16383999.999999993</v>
       </c>
       <c r="AK42" s="184">
         <f t="shared" si="24"/>
-        <v>114688000</v>
+        <v>98303999.999999985</v>
       </c>
       <c r="AL42" s="184">
         <f t="shared" si="24"/>
-        <v>229376000</v>
+        <v>196607999.99999997</v>
       </c>
       <c r="AM42" s="184">
         <f t="shared" si="24"/>
-        <v>458752000</v>
+        <v>393215999.99999994</v>
       </c>
       <c r="AN42" s="227">
         <f t="shared" si="24"/>
-        <v>917504000</v>
+        <v>786431999.99999988</v>
       </c>
       <c r="AO42" s="190">
         <f t="shared" si="24"/>
@@ -38390,7 +38438,7 @@
       </c>
       <c r="AO44" s="190">
         <f t="shared" si="28"/>
-        <v>19770895.530236959</v>
+        <v>45067514.225601435</v>
       </c>
       <c r="AP44" s="189">
         <f t="shared" si="28"/>
@@ -38493,39 +38541,39 @@
       </c>
       <c r="AH45" s="198">
         <f t="shared" si="29"/>
-        <v>21587499.783196583</v>
+        <v>18983114.333495967</v>
       </c>
       <c r="AI45" s="198">
         <f t="shared" si="29"/>
-        <v>22674214.033774186</v>
+        <v>20854256.150119215</v>
       </c>
       <c r="AJ45" s="198">
         <f t="shared" si="29"/>
-        <v>30636777.575609867</v>
+        <v>28884033.012768485</v>
       </c>
       <c r="AK45" s="198">
         <f t="shared" si="29"/>
-        <v>47004683.981215782</v>
+        <v>44925725.800537229</v>
       </c>
       <c r="AL45" s="198">
         <f t="shared" si="29"/>
-        <v>77650327.194995955</v>
+        <v>74869829.720919028</v>
       </c>
       <c r="AM45" s="198">
         <f t="shared" si="29"/>
-        <v>134420186.3197518</v>
+        <v>130388784.2027683</v>
       </c>
       <c r="AN45" s="224">
         <f t="shared" si="29"/>
-        <v>240136978.46376827</v>
+        <v>233947016.16397047</v>
       </c>
       <c r="AO45" s="195">
         <f t="shared" si="29"/>
-        <v>240136978.46376827</v>
+        <v>233947016.16397047</v>
       </c>
       <c r="AP45" s="194">
         <f>($P$35*($B$28+$B$29))*(2^(((AP34 - 7) - $P$34)/AP60))</f>
-        <v>227694437.87720171</v>
+        <v>226597840.86292362</v>
       </c>
       <c r="AQ45" s="230">
         <f>AQ35*(B28+B29)</f>
@@ -38627,39 +38675,39 @@
       </c>
       <c r="AH46" s="184">
         <f t="shared" si="31"/>
-        <v>17227495.424950056</v>
+        <v>15149114.932992958</v>
       </c>
       <c r="AI46" s="184">
         <f t="shared" si="31"/>
-        <v>17188729.309368558</v>
+        <v>15842387.918677788</v>
       </c>
       <c r="AJ46" s="184">
         <f t="shared" si="31"/>
-        <v>22229098.01927815</v>
+        <v>21037903.436188385</v>
       </c>
       <c r="AK46" s="184">
         <f t="shared" si="31"/>
-        <v>32853404.396388024</v>
+        <v>31563530.746445168</v>
       </c>
       <c r="AL46" s="184">
         <f t="shared" si="31"/>
-        <v>52560897.461954288</v>
+        <v>50996494.541263103</v>
       </c>
       <c r="AM46" s="184">
         <f t="shared" si="31"/>
-        <v>88505240.552386984</v>
+        <v>86462502.42705366</v>
       </c>
       <c r="AN46" s="227">
         <f t="shared" si="31"/>
-        <v>154352208.70630625</v>
+        <v>151548649.56123999</v>
       </c>
       <c r="AO46" s="190">
         <f t="shared" si="31"/>
-        <v>154352208.70630625</v>
+        <v>151548649.56123999</v>
       </c>
       <c r="AP46" s="189">
         <f t="shared" si="31"/>
-        <v>65119165.790797532</v>
+        <v>69958680.262892783</v>
       </c>
       <c r="AQ46" s="232"/>
       <c r="AR46" s="45"/>
@@ -38758,39 +38806,39 @@
       </c>
       <c r="AH47" s="198">
         <f t="shared" si="32"/>
-        <v>3622402.1251440034</v>
+        <v>3185383.8746547527</v>
       </c>
       <c r="AI47" s="198">
         <f t="shared" si="32"/>
-        <v>4154332.0277997837</v>
+        <v>3809494.7412767322</v>
       </c>
       <c r="AJ47" s="198">
         <f t="shared" si="32"/>
-        <v>5923647.1915277531</v>
+        <v>5561537.5690668086</v>
       </c>
       <c r="AK47" s="198">
         <f t="shared" si="32"/>
-        <v>9425180.1812708918</v>
+        <v>8966668.3249998484</v>
       </c>
       <c r="AL47" s="198">
         <f t="shared" si="32"/>
-        <v>15984085.451449174</v>
+        <v>15337682.455438666</v>
       </c>
       <c r="AM47" s="198">
         <f t="shared" si="32"/>
-        <v>28223838.918629389</v>
+        <v>27244469.877141383</v>
       </c>
       <c r="AN47" s="224">
         <f t="shared" si="32"/>
-        <v>51208374.349985376</v>
+        <v>49646854.677432008</v>
       </c>
       <c r="AO47" s="195">
         <f t="shared" si="32"/>
-        <v>51208374.349985376</v>
+        <v>49646854.677432008</v>
       </c>
       <c r="AP47" s="194">
         <f t="shared" si="32"/>
-        <v>94707310.667051271</v>
+        <v>92122115.782807261</v>
       </c>
       <c r="AQ47" s="230">
         <f>AQ35*B29</f>
@@ -38892,39 +38940,39 @@
       </c>
       <c r="AH48" s="191">
         <f t="shared" si="34"/>
-        <v>2683262.0114808362</v>
+        <v>2359544.6467735684</v>
       </c>
       <c r="AI48" s="191">
         <f t="shared" si="34"/>
-        <v>2752296.9496492799</v>
+        <v>2535298.8727565827</v>
       </c>
       <c r="AJ48" s="191">
         <f t="shared" si="34"/>
-        <v>3574131.8973493748</v>
+        <v>3383041.4381842325</v>
       </c>
       <c r="AK48" s="191">
         <f t="shared" si="34"/>
-        <v>5255660.5428599622</v>
+        <v>5054748.8547994383</v>
       </c>
       <c r="AL48" s="191">
         <f t="shared" si="34"/>
-        <v>8333897.7619867986</v>
+        <v>8102171.2239339706</v>
       </c>
       <c r="AM48" s="191">
         <f t="shared" si="34"/>
-        <v>13888048.276065256</v>
+        <v>13606694.605445318</v>
       </c>
       <c r="AN48" s="227">
         <f t="shared" si="34"/>
-        <v>23960186.755968593</v>
+        <v>23611397.011730459</v>
       </c>
       <c r="AO48" s="190">
         <f t="shared" si="34"/>
-        <v>23960186.755968593</v>
+        <v>23611397.011730459</v>
       </c>
       <c r="AP48" s="189">
         <f t="shared" si="34"/>
-        <v>42395297.532492071</v>
+        <v>41966877.688375056</v>
       </c>
       <c r="AQ48" s="230"/>
       <c r="AR48" s="45"/>
@@ -38951,115 +38999,115 @@
       <c r="O49" s="16"/>
       <c r="P49" s="213">
         <f t="shared" ref="P49:AP49" si="35">P35*$B$30</f>
-        <v>0.546875</v>
+        <v>0.46875</v>
       </c>
       <c r="Q49" s="214">
         <f t="shared" si="35"/>
-        <v>1.09375</v>
+        <v>0.9375</v>
       </c>
       <c r="R49" s="214">
         <f t="shared" si="35"/>
-        <v>2.1875</v>
+        <v>1.875</v>
       </c>
       <c r="S49" s="214">
         <f t="shared" si="35"/>
-        <v>4.375</v>
+        <v>3.75</v>
       </c>
       <c r="T49" s="214">
         <f t="shared" si="35"/>
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="U49" s="214">
         <f t="shared" si="35"/>
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="V49" s="214">
         <f t="shared" si="35"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W49" s="214">
         <f t="shared" si="35"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X49" s="214">
         <f t="shared" si="35"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Y49" s="214">
         <f t="shared" si="35"/>
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="Z49" s="214">
         <f t="shared" si="35"/>
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="AA49" s="214">
         <f t="shared" si="35"/>
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="AB49" s="214">
         <f t="shared" si="35"/>
-        <v>2240</v>
+        <v>1920</v>
       </c>
       <c r="AC49" s="214">
         <f t="shared" si="35"/>
-        <v>4480</v>
+        <v>3840</v>
       </c>
       <c r="AD49" s="214">
         <f t="shared" si="35"/>
-        <v>8960</v>
+        <v>7680</v>
       </c>
       <c r="AE49" s="214">
         <f t="shared" si="35"/>
-        <v>17920</v>
+        <v>15360</v>
       </c>
       <c r="AF49" s="214">
         <f t="shared" si="35"/>
-        <v>35840</v>
+        <v>30720</v>
       </c>
       <c r="AG49" s="214">
         <f t="shared" si="35"/>
-        <v>71680</v>
+        <v>61440</v>
       </c>
       <c r="AH49" s="214">
         <f t="shared" si="35"/>
-        <v>143360</v>
+        <v>122880</v>
       </c>
       <c r="AI49" s="214">
         <f t="shared" si="35"/>
-        <v>286720</v>
+        <v>245760</v>
       </c>
       <c r="AJ49" s="214">
         <f t="shared" ref="AJ49:AO49" si="36">AJ35*$B$30</f>
-        <v>573440</v>
+        <v>491520</v>
       </c>
       <c r="AK49" s="214">
         <f t="shared" si="36"/>
-        <v>1146880</v>
+        <v>983040</v>
       </c>
       <c r="AL49" s="214">
         <f t="shared" si="36"/>
-        <v>2293760</v>
+        <v>1966080</v>
       </c>
       <c r="AM49" s="214">
         <f t="shared" si="36"/>
-        <v>4587520</v>
+        <v>3932160</v>
       </c>
       <c r="AN49" s="226">
         <f t="shared" ref="AN49" si="37">AN35*$B$30</f>
-        <v>9175040</v>
+        <v>7864320</v>
       </c>
       <c r="AO49" s="186">
         <f t="shared" si="36"/>
-        <v>18350080</v>
+        <v>15728640</v>
       </c>
       <c r="AP49" s="194">
         <f t="shared" si="35"/>
-        <v>24362730.000000004</v>
+        <v>20882340</v>
       </c>
       <c r="AQ49" s="230">
         <f>AQ35*B30</f>
-        <v>1461763.8</v>
+        <v>1252940.3999999999</v>
       </c>
       <c r="AR49" s="45"/>
       <c r="AS49" s="45"/>
@@ -39093,83 +39141,83 @@
       <c r="W50" s="188"/>
       <c r="X50" s="196">
         <f t="shared" ref="X50:AP50" si="38">($P$35*$B$30)*(2^(((X34-35)-$P$34)/HLOOKUP((X34-35)-$B$31,$P$58:$AQ$60,3,TRUE)))</f>
-        <v>0.60268659891582166</v>
+        <v>0.51658851335641853</v>
       </c>
       <c r="Y50" s="196">
         <f t="shared" si="38"/>
-        <v>2.0201092300211059</v>
+        <v>1.7315221971609478</v>
       </c>
       <c r="Z50" s="196">
         <f t="shared" si="38"/>
-        <v>11.371784826229991</v>
+        <v>9.7472441367685629</v>
       </c>
       <c r="AA50" s="196">
         <f t="shared" si="38"/>
-        <v>78.184895833333314</v>
+        <v>67.015624999999986</v>
       </c>
       <c r="AB50" s="196">
         <f t="shared" si="38"/>
-        <v>406.41060227309606</v>
+        <v>348.35194480551093</v>
       </c>
       <c r="AC50" s="196">
         <f t="shared" si="38"/>
-        <v>1003.1073634433272</v>
+        <v>859.80631152285184</v>
       </c>
       <c r="AD50" s="196">
         <f t="shared" si="38"/>
-        <v>2274.8906249999995</v>
+        <v>1949.9062499999995</v>
       </c>
       <c r="AE50" s="196">
         <f t="shared" si="38"/>
-        <v>7598.9957286834306</v>
+        <v>6513.4249103000839</v>
       </c>
       <c r="AF50" s="196">
         <f t="shared" si="38"/>
-        <v>16978.4851715478</v>
+        <v>14552.987289898114</v>
       </c>
       <c r="AG50" s="196">
         <f t="shared" si="38"/>
-        <v>61123.951700355603</v>
+        <v>52391.958600304803</v>
       </c>
       <c r="AH50" s="196">
         <f t="shared" si="38"/>
-        <v>328699.03978210856</v>
+        <v>247751.76836435535</v>
       </c>
       <c r="AI50" s="196">
         <f t="shared" si="38"/>
-        <v>490712.27735267632</v>
+        <v>382258.76055604481</v>
       </c>
       <c r="AJ50" s="196">
         <f t="shared" si="38"/>
-        <v>822330.35296243231</v>
+        <v>653548.83926477283</v>
       </c>
       <c r="AK50" s="196">
         <f t="shared" si="38"/>
-        <v>1459331.8734438254</v>
+        <v>1173575.8410601229</v>
       </c>
       <c r="AL50" s="196">
         <f t="shared" si="38"/>
-        <v>2677565.6913118316</v>
+        <v>2170653.3694514083</v>
       </c>
       <c r="AM50" s="196">
         <f t="shared" si="38"/>
-        <v>5017526.7248974461</v>
+        <v>4091332.5815088195</v>
       </c>
       <c r="AN50" s="227">
         <f t="shared" si="38"/>
-        <v>9536865.6579058729</v>
+        <v>7810637.2997104656</v>
       </c>
       <c r="AO50" s="190">
         <f t="shared" si="38"/>
-        <v>9536865.6579058729</v>
+        <v>7810637.2997104656</v>
       </c>
       <c r="AP50" s="189">
         <f t="shared" si="38"/>
-        <v>18309204.59709572</v>
+        <v>15046571.428329661</v>
       </c>
       <c r="AQ50" s="233">
         <f>($P$35*$B$30)*(2^(((AQ34 - 35) - $P$34)/AQ60))</f>
-        <v>10551261.547506049</v>
+        <v>8861222.4225372355</v>
       </c>
       <c r="AR50" s="45"/>
       <c r="AS50" s="45"/>
@@ -39267,11 +39315,11 @@
       </c>
       <c r="AH51" s="140">
         <f t="shared" si="39"/>
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="AI51" s="140">
         <f t="shared" si="39"/>
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="AJ51" s="140"/>
       <c r="AK51" s="140"/>
@@ -39281,7 +39329,7 @@
       <c r="AO51" s="140"/>
       <c r="AP51" s="140">
         <f t="shared" si="39"/>
-        <v>44536</v>
+        <v>44520</v>
       </c>
       <c r="AQ51" s="140"/>
       <c r="AR51" s="45"/>
@@ -39379,11 +39427,11 @@
       </c>
       <c r="AH52" s="140">
         <f t="shared" si="40"/>
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="AI52" s="140">
         <f t="shared" si="40"/>
-        <v>44181</v>
+        <v>44177</v>
       </c>
       <c r="AJ52" s="140"/>
       <c r="AK52" s="140"/>
@@ -39393,7 +39441,7 @@
       <c r="AO52" s="140"/>
       <c r="AP52" s="140">
         <f t="shared" si="40"/>
-        <v>44529</v>
+        <v>44513</v>
       </c>
       <c r="AQ52" s="140"/>
       <c r="AR52" s="45"/>
@@ -39491,11 +39539,11 @@
       </c>
       <c r="AH53" s="140">
         <f t="shared" si="41"/>
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="AI53" s="140">
         <f t="shared" si="41"/>
-        <v>44160</v>
+        <v>44156</v>
       </c>
       <c r="AJ53" s="140"/>
       <c r="AK53" s="140"/>
@@ -39505,7 +39553,7 @@
       <c r="AO53" s="140"/>
       <c r="AP53" s="140">
         <f t="shared" si="41"/>
-        <v>44508</v>
+        <v>44492</v>
       </c>
       <c r="AQ53" s="140"/>
       <c r="AR53" s="45"/>
@@ -39603,11 +39651,11 @@
       </c>
       <c r="AH54" s="140">
         <f t="shared" si="42"/>
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="AI54" s="140">
         <f t="shared" si="42"/>
-        <v>44153</v>
+        <v>44149</v>
       </c>
       <c r="AJ54" s="140"/>
       <c r="AK54" s="140"/>
@@ -39617,7 +39665,7 @@
       <c r="AO54" s="140"/>
       <c r="AP54" s="140">
         <f t="shared" si="42"/>
-        <v>44501</v>
+        <v>44485</v>
       </c>
       <c r="AQ54" s="140"/>
       <c r="AR54" s="45"/>
@@ -39734,43 +39782,43 @@
       </c>
       <c r="AH57" s="253">
         <f t="shared" si="43"/>
-        <v>39.571428571428569</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="AI57" s="254">
         <f t="shared" si="43"/>
-        <v>47.857142857142854</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="AJ57" s="278">
         <f t="shared" ref="AJ57:AO57" si="44">(AJ34-$B$31)/7</f>
-        <v>56.142857142857146</v>
+        <v>55.285714285714285</v>
       </c>
       <c r="AK57" s="253">
         <f t="shared" si="44"/>
-        <v>64.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="AL57" s="138">
         <f t="shared" si="44"/>
-        <v>72.714285714285708</v>
+        <v>71.285714285714292</v>
       </c>
       <c r="AM57" s="135">
         <f t="shared" si="44"/>
-        <v>81</v>
+        <v>79.285714285714292</v>
       </c>
       <c r="AN57" s="135">
         <f t="shared" si="44"/>
-        <v>89.285714285714292</v>
+        <v>87.285714285714292</v>
       </c>
       <c r="AO57" s="138">
         <f t="shared" si="44"/>
-        <v>89.285714285714292</v>
+        <v>87.285714285714292</v>
       </c>
       <c r="AP57" s="136">
         <f>(AP34-$B$31)/7</f>
-        <v>97.571428571428569</v>
+        <v>95.285714285714292</v>
       </c>
       <c r="AQ57" s="136">
         <f t="shared" si="43"/>
-        <v>105.57142857142857</v>
+        <v>103.28571428571429</v>
       </c>
     </row>
     <row r="58" spans="1:46" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -39865,43 +39913,43 @@
       </c>
       <c r="AH58" s="220">
         <f t="shared" si="46"/>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AI58" s="220">
         <f t="shared" si="46"/>
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AJ58" s="220">
         <f t="shared" ref="AJ58:AO58" si="47">AJ34-$B$31</f>
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AK58" s="221">
         <f t="shared" si="47"/>
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL58" s="221">
         <f t="shared" si="47"/>
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AM58" s="221">
         <f t="shared" si="47"/>
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="AN58" s="177">
         <f t="shared" si="47"/>
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="AO58" s="251">
         <f t="shared" si="47"/>
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="AP58" s="251">
         <f t="shared" si="46"/>
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="AQ58" s="177">
         <f t="shared" si="46"/>
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
@@ -39976,12 +40024,11 @@
       <c r="AG59" s="258">
         <v>4110839</v>
       </c>
-      <c r="AH59" s="259">
-        <f t="shared" ref="AH59:AK59" si="48">AH35</f>
-        <v>8192000</v>
+      <c r="AH59" s="258">
+        <v>8182881</v>
       </c>
       <c r="AI59" s="259">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AH59:AK59" si="48">AI35</f>
         <v>16384000</v>
       </c>
       <c r="AJ59" s="259">
@@ -40107,45 +40154,45 @@
         <f t="shared" si="52"/>
         <v>10.782864790490107</v>
       </c>
-      <c r="AH60" s="172">
+      <c r="AH60" s="163">
         <f t="shared" si="52"/>
-        <v>13.400599403643911</v>
+        <v>13.291033257422271</v>
       </c>
       <c r="AI60" s="172">
         <f t="shared" si="52"/>
-        <v>15.740682795890944</v>
+        <v>15.530807025279065</v>
       </c>
       <c r="AJ60" s="172">
         <f t="shared" ref="AJ60" si="53">(AJ34-$P$34)/(LOG(AJ59/$P$59)/LOG(2))</f>
-        <v>17.847444906463899</v>
+        <v>17.548325718087412</v>
       </c>
       <c r="AK60" s="172">
         <f t="shared" ref="AK60" si="54">(AK34-$P$34)/(LOG(AK59/$P$59)/LOG(2))</f>
-        <v>19.754124131232835</v>
+        <v>19.37423712870913</v>
       </c>
       <c r="AL60" s="172">
         <f t="shared" ref="AL60" si="55">(AL34-$P$34)/(LOG(AL59/$P$59)/LOG(2))</f>
-        <v>21.487931656120004</v>
+        <v>21.034599764640681</v>
       </c>
       <c r="AM60" s="172">
         <f t="shared" ref="AM60:AN60" si="56">(AM34-$P$34)/(LOG(AM59/$P$59)/LOG(2))</f>
-        <v>23.071358373647779</v>
+        <v>22.550951793791064</v>
       </c>
       <c r="AN60" s="175">
         <f t="shared" si="56"/>
-        <v>24.523155870148802</v>
+        <v>23.941250476619846</v>
       </c>
       <c r="AO60" s="175">
         <f t="shared" ref="AO60" si="57">(AO34-$P$34)/(LOG(AO59/$P$59)/LOG(2))</f>
-        <v>24.523155870148802</v>
+        <v>23.941250476619846</v>
       </c>
       <c r="AP60" s="175">
         <f t="shared" si="52"/>
-        <v>25.443910700467331</v>
+        <v>24.815665991813816</v>
       </c>
       <c r="AQ60" s="176">
         <f t="shared" si="52"/>
-        <v>27.642767180754632</v>
+        <v>27.014522472101117</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -40220,7 +40267,9 @@
       <c r="AG61" s="258">
         <v>862487</v>
       </c>
-      <c r="AH61" s="279"/>
+      <c r="AH61" s="258">
+        <v>571529</v>
+      </c>
       <c r="AI61" s="279"/>
       <c r="AJ61" s="279"/>
       <c r="AK61" s="279"/>
@@ -40318,13 +40367,16 @@
         <v>1424669</v>
       </c>
       <c r="AG62" s="139">
-        <f t="shared" ref="AG62" si="63">AG59-AG63-AG61</f>
+        <f t="shared" ref="AG62:AH62" si="63">AG59-AG63-AG61</f>
         <v>3177673</v>
       </c>
-      <c r="AH62" s="280">
-        <v>7491513</v>
-      </c>
-      <c r="AI62" s="280"/>
+      <c r="AH62" s="139">
+        <f t="shared" si="63"/>
+        <v>7489203</v>
+      </c>
+      <c r="AI62" s="280">
+        <v>8205728</v>
+      </c>
       <c r="AJ62" s="280"/>
       <c r="AK62" s="280"/>
       <c r="AL62" s="280"/>
@@ -40406,10 +40458,12 @@
       <c r="AG63" s="277">
         <v>70679</v>
       </c>
-      <c r="AH63" s="281">
+      <c r="AH63" s="277">
         <v>122149</v>
       </c>
-      <c r="AI63" s="281"/>
+      <c r="AI63" s="281">
+        <v>129674</v>
+      </c>
       <c r="AJ63" s="281"/>
       <c r="AK63" s="281"/>
       <c r="AL63" s="281"/>
@@ -45297,7 +45351,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>8184082</v>
+        <v>8814902</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -45306,7 +45360,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44136.698564120372</v>
+        <v>44150.829900115743</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -45315,7 +45369,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>241.69856412037188</v>
+        <v>255.82990011574293</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -45324,7 +45378,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>13.428738819868531</v>
+        <v>14.129776422070945</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -45357,7 +45411,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B23</f>
-        <v>14322143.5</v>
+        <v>13222352.999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -45366,7 +45420,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B23)*(2^(((C7-21)-C5)/C9))</f>
-        <v>4844558.6145694954</v>
+        <v>4719663.2926062206</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -45375,7 +45429,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>9477584.8854305036</v>
+        <v>8502689.7073937766</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -45389,7 +45443,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B27</f>
-        <v>6629106.4200000009</v>
+        <v>7140070.6200000001</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -45399,7 +45453,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B27)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2242338.5587435951</v>
+        <v>2548618.1780073596</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -45409,7 +45463,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>4386767.8612564057</v>
+        <v>4591452.4419926405</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -45422,7 +45476,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B28</f>
-        <v>1145771.4800000002</v>
+        <v>1234086.28</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -45431,7 +45485,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B28)*(2^(((C7-49)-C5)/C9))</f>
-        <v>91342.408856104463</v>
+        <v>111536.62149984864</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -45440,7 +45494,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>1054429.0711438959</v>
+        <v>1122549.6585001515</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -45452,7 +45506,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B29</f>
-        <v>409204.10000000003</v>
+        <v>440745.10000000003</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -45462,7 +45516,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B29)*(2^(((C7-49)-C5)/C9))</f>
-        <v>32622.288877180166</v>
+        <v>39834.507678517373</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -45472,7 +45526,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>376581.8111228199</v>
+        <v>400910.59232148266</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -45482,7 +45536,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B30</f>
-        <v>143221.43500000003</v>
+        <v>132223.53</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -45491,7 +45545,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B30)*(2^(((C7-42)-C5)/C9))</f>
-        <v>16387.036039681887</v>
+        <v>16846.639622746916</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -45503,7 +45557,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>10.118969824592202</v>
+        <v>9.1335861451685023</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -45518,7 +45572,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44146.817533944966</v>
+        <v>44159.963486260909</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -45530,7 +45584,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-41.534066284767007</v>
+        <v>-45.215959373324807</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -45542,7 +45596,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44095.164497835605</v>
+        <v>44105.61394074242</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -45554,7 +45608,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>78.772499177557435</v>
+        <v>84.513478558519779</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -45566,7 +45620,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44215.471063297926</v>
+        <v>44235.343378674261</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -45575,7 +45629,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44166.698564120372</v>
+        <v>44180.829900115743</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -45587,7 +45641,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>38501301.372329511</v>
+        <v>38402288.318070084</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -45599,7 +45653,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B23</f>
-        <v>67377277.401576653</v>
+        <v>57603432.477105118</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -45608,7 +45662,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B27</f>
-        <v>31186054.111586906</v>
+        <v>31105853.537636772</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -45617,7 +45671,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B28</f>
-        <v>5390182.1921261316</v>
+        <v>5376320.3645298127</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -45626,7 +45680,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B29</f>
-        <v>1925065.0686164757</v>
+        <v>1920114.4159035042</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -45635,7 +45689,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B30</f>
-        <v>673772.77401576645</v>
+        <v>576034.32477105118</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA3A77-B667-4AE8-9A6A-A4D7D518157B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966ED60-611A-4A20-BE7A-C801E5B371BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -1897,46 +1897,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,46 +2046,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,46 +2195,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,7 +3580,7 @@
                   <c:v>122149</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>129674</c:v>
+                  <c:v>139736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13029,7 +13029,7 @@
                   <c:v>122149</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>129674</c:v>
+                  <c:v>139736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13358,46 +13358,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13498,46 +13498,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13641,46 +13641,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13778,46 +13778,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14185,46 +14185,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14334,46 +14334,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14483,46 +14483,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14900,46 +14900,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15040,46 +15040,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15183,46 +15183,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15320,46 +15320,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44110.829900115743</c:v>
+                  <c:v>44130.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113.829900115743</c:v>
+                  <c:v>44133.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116.829900115743</c:v>
+                  <c:v>44136.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44119.829900115743</c:v>
+                  <c:v>44139.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44122.829900115743</c:v>
+                  <c:v>44142.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44125.829900115743</c:v>
+                  <c:v>44145.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44128.829900115743</c:v>
+                  <c:v>44148.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44131.829900115743</c:v>
+                  <c:v>44151.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134.829900115743</c:v>
+                  <c:v>44154.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137.829900115743</c:v>
+                  <c:v>44157.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44140.829900115743</c:v>
+                  <c:v>44160.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44143.829900115743</c:v>
+                  <c:v>44163.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44146.829900115743</c:v>
+                  <c:v>44166.750147222221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44149.829900115743</c:v>
+                  <c:v>44169.750147222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35511,167 +35511,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44110.829900115743</v>
+        <v>44130.750147222221</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44111.829900115743</v>
+        <v>44131.750147222221</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44112.829900115743</v>
+        <v>44132.750147222221</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44113.829900115743</v>
+        <v>44133.750147222221</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44114.829900115743</v>
+        <v>44134.750147222221</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>44115.829900115743</v>
+        <v>44135.750147222221</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44116.829900115743</v>
+        <v>44136.750147222221</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44117.829900115743</v>
+        <v>44137.750147222221</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44118.829900115743</v>
+        <v>44138.750147222221</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44119.829900115743</v>
+        <v>44139.750147222221</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44120.829900115743</v>
+        <v>44140.750147222221</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44121.829900115743</v>
+        <v>44141.750147222221</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44122.829900115743</v>
+        <v>44142.750147222221</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44123.829900115743</v>
+        <v>44143.750147222221</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44124.829900115743</v>
+        <v>44144.750147222221</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44125.829900115743</v>
+        <v>44145.750147222221</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44126.829900115743</v>
+        <v>44146.750147222221</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44127.829900115743</v>
+        <v>44147.750147222221</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44128.829900115743</v>
+        <v>44148.750147222221</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44129.829900115743</v>
+        <v>44149.750147222221</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44130.829900115743</v>
+        <v>44150.750147222221</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44131.829900115743</v>
+        <v>44151.750147222221</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44132.829900115743</v>
+        <v>44152.750147222221</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44133.829900115743</v>
+        <v>44153.750147222221</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44134.829900115743</v>
+        <v>44154.750147222221</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44135.829900115743</v>
+        <v>44155.750147222221</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44136.829900115743</v>
+        <v>44156.750147222221</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44137.829900115743</v>
+        <v>44157.750147222221</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44138.829900115743</v>
+        <v>44158.750147222221</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44139.829900115743</v>
+        <v>44159.750147222221</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44140.829900115743</v>
+        <v>44160.750147222221</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44141.829900115743</v>
+        <v>44161.750147222221</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44142.829900115743</v>
+        <v>44162.750147222221</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44143.829900115743</v>
+        <v>44163.750147222221</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44144.829900115743</v>
+        <v>44164.750147222221</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44145.829900115743</v>
+        <v>44165.750147222221</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44146.829900115743</v>
+        <v>44166.750147222221</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44147.829900115743</v>
+        <v>44167.750147222221</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44148.829900115743</v>
+        <v>44168.750147222221</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>44149.829900115743</v>
+        <v>44169.750147222221</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44150.829900115743</v>
+        <v>44170.750147222221</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -36189,7 +36189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AT110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AI64" sqref="AI64"/>
     </sheetView>
   </sheetViews>
@@ -40028,7 +40028,7 @@
         <v>8182881</v>
       </c>
       <c r="AI59" s="259">
-        <f t="shared" ref="AH59:AK59" si="48">AI35</f>
+        <f t="shared" ref="AI59:AK59" si="48">AI35</f>
         <v>16384000</v>
       </c>
       <c r="AJ59" s="259">
@@ -40375,7 +40375,7 @@
         <v>7489203</v>
       </c>
       <c r="AI62" s="280">
-        <v>8205728</v>
+        <v>9058822</v>
       </c>
       <c r="AJ62" s="280"/>
       <c r="AK62" s="280"/>
@@ -40462,7 +40462,7 @@
         <v>122149</v>
       </c>
       <c r="AI63" s="281">
-        <v>129674</v>
+        <v>139736</v>
       </c>
       <c r="AJ63" s="281"/>
       <c r="AK63" s="281"/>
@@ -45305,7 +45305,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45351,7 +45351,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="152">
-        <v>8814902</v>
+        <v>9608418</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -45360,7 +45360,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44150.829900115743</v>
+        <v>44170.750147222221</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -45369,7 +45369,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>255.82990011574293</v>
+        <v>275.75014722222113</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -45378,7 +45378,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>14.129776422070945</v>
+        <v>15.126104703217042</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -45411,7 +45411,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B23</f>
-        <v>13222352.999999998</v>
+        <v>14412626.999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B23)*(2^(((C7-21)-C5)/C9))</f>
-        <v>4719663.2926062206</v>
+        <v>5505726.9555808809</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -45429,7 +45429,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>8502689.7073937766</v>
+        <v>8906900.0444191173</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -45443,7 +45443,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B27</f>
-        <v>7140070.6200000001</v>
+        <v>7782818.5800000001</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -45453,7 +45453,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B27)*(2^(((C7-21)-C5)/C9))</f>
-        <v>2548618.1780073596</v>
+        <v>2973092.5560136763</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -45463,7 +45463,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>4591452.4419926405</v>
+        <v>4809726.0239863237</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -45476,7 +45476,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B28</f>
-        <v>1234086.28</v>
+        <v>1345178.52</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B28)*(2^(((C7-49)-C5)/C9))</f>
-        <v>111536.62149984864</v>
+        <v>142433.93621681124</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -45494,7 +45494,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>1122549.6585001515</v>
+        <v>1202744.5837831888</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -45506,7 +45506,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B29</f>
-        <v>440745.10000000003</v>
+        <v>480420.9</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -45516,7 +45516,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B29)*(2^(((C7-49)-C5)/C9))</f>
-        <v>39834.507678517373</v>
+        <v>50869.262934575447</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -45526,7 +45526,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>400910.59232148266</v>
+        <v>429551.63706542458</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -45536,7 +45536,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B30</f>
-        <v>132223.53</v>
+        <v>144126.26999999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -45545,7 +45545,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B30)*(2^(((C7-42)-C5)/C9))</f>
-        <v>16846.639622746916</v>
+        <v>21032.272124582134</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -45557,7 +45557,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>9.1335861451685023</v>
+        <v>7.8966222660493077</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -45572,7 +45572,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44159.963486260909</v>
+        <v>44178.646769488274</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -45584,7 +45584,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-45.215959373324807</v>
+        <v>-50.285254893794587</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -45596,7 +45596,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44105.61394074242</v>
+        <v>44120.464892328426</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -45608,7 +45608,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>84.513478558519779</v>
+        <v>88.591752259795669</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -45620,7 +45620,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44235.343378674261</v>
+        <v>44259.341899482017</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -45629,7 +45629,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44180.829900115743</v>
+        <v>44200.750147222221</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -45641,7 +45641,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>38402288.318070084</v>
+        <v>37992036.19010333</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -45653,7 +45653,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B23</f>
-        <v>57603432.477105118</v>
+        <v>56988054.285154991</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -45662,7 +45662,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B27</f>
-        <v>31105853.537636772</v>
+        <v>30773549.313983697</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -45671,7 +45671,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B28</f>
-        <v>5376320.3645298127</v>
+        <v>5318885.0666144667</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -45680,7 +45680,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B29</f>
-        <v>1920114.4159035042</v>
+        <v>1899601.8095051665</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -45689,7 +45689,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B30</f>
-        <v>576034.32477105118</v>
+        <v>569880.54285154992</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5793C-44C4-4F00-99F0-06C15AE5FB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22CFEE9-7105-4CD1-9438-EAE06ABBBC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1888,46 +1888,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,46 +2037,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,46 +2186,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,6 +4088,9 @@
                 </c:pt>
                 <c:pt idx="23" formatCode="#,##0">
                   <c:v>151364</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>156598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18950,6 +18953,9 @@
                 <c:pt idx="23" formatCode="#,##0">
                   <c:v>151364</c:v>
                 </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>156598</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19277,46 +19283,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19417,46 +19423,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19560,46 +19566,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19697,46 +19703,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20104,46 +20110,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20253,46 +20259,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20402,46 +20408,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20819,46 +20825,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20959,46 +20965,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21102,46 +21108,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21239,46 +21245,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44201.686525578705</c:v>
+                  <c:v>44211.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44204.686525578705</c:v>
+                  <c:v>44214.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44207.686525578705</c:v>
+                  <c:v>44217.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44210.686525578705</c:v>
+                  <c:v>44220.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44213.686525578705</c:v>
+                  <c:v>44223.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44216.686525578705</c:v>
+                  <c:v>44226.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44219.686525578705</c:v>
+                  <c:v>44229.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44222.686525578705</c:v>
+                  <c:v>44232.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44225.686525578705</c:v>
+                  <c:v>44235.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44228.686525578705</c:v>
+                  <c:v>44238.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44231.686525578705</c:v>
+                  <c:v>44241.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44234.686525578705</c:v>
+                  <c:v>44244.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44237.686525578705</c:v>
+                  <c:v>44247.873733564818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44240.686525578705</c:v>
+                  <c:v>44250.873733564818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -46326,167 +46332,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44201.686525578705</v>
+        <v>44211.873733564818</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44202.686525578705</v>
+        <v>44212.873733564818</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44203.686525578705</v>
+        <v>44213.873733564818</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44204.686525578705</v>
+        <v>44214.873733564818</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44205.686525578705</v>
+        <v>44215.873733564818</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>44206.686525578705</v>
+        <v>44216.873733564818</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44207.686525578705</v>
+        <v>44217.873733564818</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44208.686525578705</v>
+        <v>44218.873733564818</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44209.686525578705</v>
+        <v>44219.873733564818</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44210.686525578705</v>
+        <v>44220.873733564818</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44211.686525578705</v>
+        <v>44221.873733564818</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44212.686525578705</v>
+        <v>44222.873733564818</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44213.686525578705</v>
+        <v>44223.873733564818</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44214.686525578705</v>
+        <v>44224.873733564818</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44215.686525578705</v>
+        <v>44225.873733564818</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44216.686525578705</v>
+        <v>44226.873733564818</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44217.686525578705</v>
+        <v>44227.873733564818</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44218.686525578705</v>
+        <v>44228.873733564818</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44219.686525578705</v>
+        <v>44229.873733564818</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44220.686525578705</v>
+        <v>44230.873733564818</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44221.686525578705</v>
+        <v>44231.873733564818</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44222.686525578705</v>
+        <v>44232.873733564818</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44223.686525578705</v>
+        <v>44233.873733564818</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44224.686525578705</v>
+        <v>44234.873733564818</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44225.686525578705</v>
+        <v>44235.873733564818</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44226.686525578705</v>
+        <v>44236.873733564818</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44227.686525578705</v>
+        <v>44237.873733564818</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44228.686525578705</v>
+        <v>44238.873733564818</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44229.686525578705</v>
+        <v>44239.873733564818</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44230.686525578705</v>
+        <v>44240.873733564818</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44231.686525578705</v>
+        <v>44241.873733564818</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44232.686525578705</v>
+        <v>44242.873733564818</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44233.686525578705</v>
+        <v>44243.873733564818</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44234.686525578705</v>
+        <v>44244.873733564818</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44235.686525578705</v>
+        <v>44245.873733564818</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44236.686525578705</v>
+        <v>44246.873733564818</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44237.686525578705</v>
+        <v>44247.873733564818</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44238.686525578705</v>
+        <v>44248.873733564818</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44239.686525578705</v>
+        <v>44249.873733564818</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>44240.686525578705</v>
+        <v>44250.873733564818</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44241.686525578705</v>
+        <v>44251.873733564818</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -47004,8 +47010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:BR109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO61" sqref="AO61"/>
+    <sheetView topLeftCell="AD25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AN30" sqref="AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53244,7 +53250,9 @@
         <f t="shared" ref="AM61" si="179">AM58-AM62-AM60</f>
         <v>9457823</v>
       </c>
-      <c r="AN61" s="276"/>
+      <c r="AN61" s="276">
+        <v>10726702</v>
+      </c>
       <c r="AO61" s="276"/>
       <c r="AP61" s="276"/>
       <c r="AQ61" s="276"/>
@@ -53363,7 +53371,9 @@
       <c r="AM62" s="273">
         <v>151364</v>
       </c>
-      <c r="AN62" s="277"/>
+      <c r="AN62" s="277">
+        <v>156598</v>
+      </c>
       <c r="AO62" s="277"/>
       <c r="AP62" s="277"/>
       <c r="AQ62" s="277"/>
@@ -61527,8 +61537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D097BB30-D73E-45A5-8BCD-1A87B73F5150}">
   <dimension ref="B3:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61574,7 +61584,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="152">
-        <v>10904940</v>
+        <v>11030176</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -61583,7 +61593,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44241.686525578705</v>
+        <v>44251.873733564818</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -61592,7 +61602,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>346.68652557870519</v>
+        <v>356.87373356481839</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -61601,7 +61611,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>18.828669047155536</v>
+        <v>19.364614282819705</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -61634,7 +61644,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B23</f>
-        <v>16357409.999999998</v>
+        <v>16545263.999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -61643,7 +61653,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B23)*(2^(((C7-21)-C5)/C9))</f>
-        <v>7550394.147705825</v>
+        <v>7802271.1262341468</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -61652,7 +61662,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>8807015.8522941731</v>
+        <v>8742992.8737658523</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -61666,7 +61676,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B27</f>
-        <v>8833001.4000000004</v>
+        <v>8934442.5600000005</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -61676,7 +61686,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B27)*(2^(((C7-21)-C5)/C9))</f>
-        <v>4077212.8397611459</v>
+        <v>4213226.4081664402</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -61686,7 +61696,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>4755788.560238855</v>
+        <v>4721216.1518335603</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -61699,7 +61709,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B28</f>
-        <v>1526691.6</v>
+        <v>1544224.6400000001</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -61708,7 +61718,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B28)*(2^(((C7-49)-C5)/C9))</f>
-        <v>251389.13980056433</v>
+        <v>267293.00686066586</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -61717,7 +61727,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>1275302.4601994357</v>
+        <v>1276931.6331393342</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -61729,7 +61739,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B29</f>
-        <v>545247</v>
+        <v>551508.80000000005</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -61739,7 +61749,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B29)*(2^(((C7-49)-C5)/C9))</f>
-        <v>89781.835643058686</v>
+        <v>95461.788164523517</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -61749,7 +61759,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>455465.1643569413</v>
+        <v>456047.0118354765</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -61759,7 +61769,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B30</f>
-        <v>163574.1</v>
+        <v>165452.63999999998</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -61768,7 +61778,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B30)*(2^(((C7-42)-C5)/C9))</f>
-        <v>34851.759407944337</v>
+        <v>36793.268893906439</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -61780,7 +61790,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>6.3912332876336073</v>
+        <v>6.2541431409427144</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -61795,7 +61805,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44248.07775886634</v>
+        <v>44258.127876705759</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -61807,7 +61817,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-66.03239004957419</v>
+        <v>-68.230969289301996</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -61819,7 +61829,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44175.654135529134</v>
+        <v>44183.642764275515</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -61831,7 +61841,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>106.83889818091575</v>
+        <v>109.56098237619877</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -61843,7 +61853,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44348.525423759624</v>
+        <v>44361.434715941017</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -61852,7 +61862,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44271.686525578705</v>
+        <v>44281.873733564818</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -61864,7 +61874,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>32904771.158642415</v>
+        <v>32280733.167266689</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -61876,7 +61886,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B23</f>
-        <v>49357156.737963617</v>
+        <v>48421099.75090003</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -61885,7 +61895,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B27</f>
-        <v>26652864.638500359</v>
+        <v>26147393.865486018</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -61894,7 +61904,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B28</f>
-        <v>4606667.9622099381</v>
+        <v>4519302.643417337</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -61903,7 +61913,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B29</f>
-        <v>1645238.5579321207</v>
+        <v>1614036.6583633346</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -61912,7 +61922,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B30</f>
-        <v>493571.56737963622</v>
+        <v>484210.9975090003</v>
       </c>
     </row>
   </sheetData>

--- a/Indian COVID-19 Infection Projections.xlsx
+++ b/Indian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22CFEE9-7105-4CD1-9438-EAE06ABBBC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0C0C8-E9F1-436B-9F6A-640194B03381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1888,46 +1888,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,46 +2037,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,46 +2186,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +4090,7 @@
                   <c:v>151364</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="#,##0">
-                  <c:v>156598</c:v>
+                  <c:v>157195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18954,7 +18954,7 @@
                   <c:v>151364</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="#,##0">
-                  <c:v>156598</c:v>
+                  <c:v>157195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19283,46 +19283,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19423,46 +19423,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19566,46 +19566,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19703,46 +19703,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20110,46 +20110,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20259,46 +20259,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20408,46 +20408,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20825,46 +20825,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20965,46 +20965,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21108,46 +21108,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21245,46 +21245,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44211.873733564818</c:v>
+                  <c:v>44216.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214.873733564818</c:v>
+                  <c:v>44219.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44217.873733564818</c:v>
+                  <c:v>44222.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44220.873733564818</c:v>
+                  <c:v>44225.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44223.873733564818</c:v>
+                  <c:v>44228.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44226.873733564818</c:v>
+                  <c:v>44231.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44229.873733564818</c:v>
+                  <c:v>44234.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44232.873733564818</c:v>
+                  <c:v>44237.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44235.873733564818</c:v>
+                  <c:v>44240.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44238.873733564818</c:v>
+                  <c:v>44243.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44241.873733564818</c:v>
+                  <c:v>44246.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44244.873733564818</c:v>
+                  <c:v>44249.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44247.873733564818</c:v>
+                  <c:v>44252.879480439813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44250.873733564818</c:v>
+                  <c:v>44255.879480439813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -46332,167 +46332,167 @@
       </c>
       <c r="B26" s="83">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44211.873733564818</v>
+        <v>44216.879480439813</v>
       </c>
       <c r="C26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44212.873733564818</v>
+        <v>44217.879480439813</v>
       </c>
       <c r="D26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44213.873733564818</v>
+        <v>44218.879480439813</v>
       </c>
       <c r="E26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44214.873733564818</v>
+        <v>44219.879480439813</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>44215.873733564818</v>
+        <v>44220.879480439813</v>
       </c>
       <c r="G26" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>44216.873733564818</v>
+        <v>44221.879480439813</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44217.873733564818</v>
+        <v>44222.879480439813</v>
       </c>
       <c r="I26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44218.873733564818</v>
+        <v>44223.879480439813</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44219.873733564818</v>
+        <v>44224.879480439813</v>
       </c>
       <c r="K26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44220.873733564818</v>
+        <v>44225.879480439813</v>
       </c>
       <c r="L26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44221.873733564818</v>
+        <v>44226.879480439813</v>
       </c>
       <c r="M26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44222.873733564818</v>
+        <v>44227.879480439813</v>
       </c>
       <c r="N26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44223.873733564818</v>
+        <v>44228.879480439813</v>
       </c>
       <c r="O26" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44224.873733564818</v>
+        <v>44229.879480439813</v>
       </c>
       <c r="P26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44225.873733564818</v>
+        <v>44230.879480439813</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44226.873733564818</v>
+        <v>44231.879480439813</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44227.873733564818</v>
+        <v>44232.879480439813</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44228.873733564818</v>
+        <v>44233.879480439813</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44229.873733564818</v>
+        <v>44234.879480439813</v>
       </c>
       <c r="U26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44230.873733564818</v>
+        <v>44235.879480439813</v>
       </c>
       <c r="V26" s="83">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44231.873733564818</v>
+        <v>44236.879480439813</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44232.873733564818</v>
+        <v>44237.879480439813</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44233.873733564818</v>
+        <v>44238.879480439813</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44234.873733564818</v>
+        <v>44239.879480439813</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44235.873733564818</v>
+        <v>44240.879480439813</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44236.873733564818</v>
+        <v>44241.879480439813</v>
       </c>
       <c r="AB26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44237.873733564818</v>
+        <v>44242.879480439813</v>
       </c>
       <c r="AC26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44238.873733564818</v>
+        <v>44243.879480439813</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44239.873733564818</v>
+        <v>44244.879480439813</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44240.873733564818</v>
+        <v>44245.879480439813</v>
       </c>
       <c r="AF26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44241.873733564818</v>
+        <v>44246.879480439813</v>
       </c>
       <c r="AG26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44242.873733564818</v>
+        <v>44247.879480439813</v>
       </c>
       <c r="AH26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44243.873733564818</v>
+        <v>44248.879480439813</v>
       </c>
       <c r="AI26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44244.873733564818</v>
+        <v>44249.879480439813</v>
       </c>
       <c r="AJ26" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>44245.873733564818</v>
+        <v>44250.879480439813</v>
       </c>
       <c r="AK26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44246.873733564818</v>
+        <v>44251.879480439813</v>
       </c>
       <c r="AL26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44247.873733564818</v>
+        <v>44252.879480439813</v>
       </c>
       <c r="AM26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44248.873733564818</v>
+        <v>44253.879480439813</v>
       </c>
       <c r="AN26" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>44249.873733564818</v>
+        <v>44254.879480439813</v>
       </c>
       <c r="AO26" s="84">
         <f ca="1">AP26-1</f>
-        <v>44250.873733564818</v>
+        <v>44255.879480439813</v>
       </c>
       <c r="AP26" s="105">
         <f ca="1">NOW()</f>
-        <v>44251.873733564818</v>
+        <v>44256.879480439813</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -47010,8 +47010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:BR109"/>
   <sheetViews>
-    <sheetView topLeftCell="AD25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN30" sqref="AN30"/>
+    <sheetView tabSelected="1" topLeftCell="AD25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO64" sqref="AO64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53251,7 +53251,7 @@
         <v>9457823</v>
       </c>
       <c r="AN61" s="276">
-        <v>10726702</v>
+        <v>10786457</v>
       </c>
       <c r="AO61" s="276"/>
       <c r="AP61" s="276"/>
@@ -53372,7 +53372,7 @@
         <v>151364</v>
       </c>
       <c r="AN62" s="277">
-        <v>156598</v>
+        <v>157195</v>
       </c>
       <c r="AO62" s="277"/>
       <c r="AP62" s="277"/>
@@ -61537,8 +61537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D097BB30-D73E-45A5-8BCD-1A87B73F5150}">
   <dimension ref="B3:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61584,7 +61584,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="152">
-        <v>11030176</v>
+        <v>11112241</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -61593,7 +61593,7 @@
       </c>
       <c r="C7" s="150">
         <f ca="1">NOW()</f>
-        <v>44251.873733564818</v>
+        <v>44256.879480439813</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -61602,7 +61602,7 @@
       </c>
       <c r="C8" s="151">
         <f ca="1">C7-C5</f>
-        <v>356.87373356481839</v>
+        <v>361.87948043981305</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -61611,7 +61611,7 @@
       </c>
       <c r="C9" s="153">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>19.364614282819705</v>
+        <v>19.624847357366349</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -61644,7 +61644,7 @@
       </c>
       <c r="C12" s="158">
         <f>C6/Projections!B23</f>
-        <v>16545263.999999998</v>
+        <v>16668361.499999998</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -61653,7 +61653,7 @@
       </c>
       <c r="C13" s="159">
         <f ca="1">(C4/Projections!B23)*(2^(((C7-21)-C5)/C9))</f>
-        <v>7802271.1262341468</v>
+        <v>7939060.9486612836</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -61662,7 +61662,7 @@
       </c>
       <c r="C14" s="141">
         <f ca="1">C12-C13</f>
-        <v>8742992.8737658523</v>
+        <v>8729300.5513387136</v>
       </c>
       <c r="E14" s="155"/>
       <c r="F14" s="156" t="s">
@@ -61676,7 +61676,7 @@
       </c>
       <c r="C15" s="63">
         <f>C6*Projections!B27</f>
-        <v>8934442.5600000005</v>
+        <v>9000915.2100000009</v>
       </c>
       <c r="I15" s="149"/>
     </row>
@@ -61686,7 +61686,7 @@
       </c>
       <c r="C16" s="77">
         <f ca="1">(C4*Projections!B27)*(2^(((C7-21)-C5)/C9))</f>
-        <v>4213226.4081664402</v>
+        <v>4287092.9122770932</v>
       </c>
       <c r="I16" s="149"/>
     </row>
@@ -61696,7 +61696,7 @@
       </c>
       <c r="C17" s="77">
         <f ca="1">C15-C16</f>
-        <v>4721216.1518335603</v>
+        <v>4713822.2977229077</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -61709,7 +61709,7 @@
       </c>
       <c r="C18" s="63">
         <f>C6*Projections!B28</f>
-        <v>1544224.6400000001</v>
+        <v>1555713.7400000002</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -61718,7 +61718,7 @@
       </c>
       <c r="C19" s="77">
         <f ca="1">(C4*Projections!B28)*(2^(((C7-49)-C5)/C9))</f>
-        <v>267293.00686066586</v>
+        <v>275617.98059864837</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -61727,7 +61727,7 @@
       </c>
       <c r="C20" s="77">
         <f ca="1">C18-C19</f>
-        <v>1276931.6331393342</v>
+        <v>1280095.7594013519</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -61739,7 +61739,7 @@
       </c>
       <c r="C21" s="63">
         <f>C6*Projections!B29</f>
-        <v>551508.80000000005</v>
+        <v>555612.05000000005</v>
       </c>
       <c r="I21" s="149"/>
     </row>
@@ -61749,7 +61749,7 @@
       </c>
       <c r="C22" s="77">
         <f ca="1">(C4*Projections!B29)*(2^(((C7-49)-C5)/C9))</f>
-        <v>95461.788164523517</v>
+        <v>98434.993070945842</v>
       </c>
       <c r="I22" s="149"/>
     </row>
@@ -61759,7 +61759,7 @@
       </c>
       <c r="C23" s="77">
         <f ca="1">C21-C22</f>
-        <v>456047.0118354765</v>
+        <v>457177.0569290542</v>
       </c>
       <c r="I23" s="149"/>
     </row>
@@ -61769,7 +61769,7 @@
       </c>
       <c r="C24" s="63">
         <f>C6*Projections!B30</f>
-        <v>165452.63999999998</v>
+        <v>166683.61499999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="C25" s="60">
         <f ca="1">(C4*Projections!B30)*(2^(((C7-42)-C5)/C9))</f>
-        <v>36793.268893906439</v>
+        <v>37813.368006542609</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -61790,7 +61790,7 @@
       </c>
       <c r="C26" s="162">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>6.2541431409427144</v>
+        <v>6.1283222189567006</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -61805,7 +61805,7 @@
       </c>
       <c r="C27" s="161">
         <f ca="1">C7+C26</f>
-        <v>44258.127876705759</v>
+        <v>44263.007802658773</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -61817,7 +61817,7 @@
       </c>
       <c r="C28" s="160">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-68.230969289301996</v>
+        <v>-69.357764954837236</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -61829,7 +61829,7 @@
       </c>
       <c r="C29" s="161">
         <f ca="1">C7+C28</f>
-        <v>44183.642764275515</v>
+        <v>44187.521715484974</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -61841,7 +61841,7 @@
       </c>
       <c r="C30" s="160">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>109.56098237619877</v>
+        <v>110.82345951185793</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -61853,7 +61853,7 @@
       </c>
       <c r="C31" s="161">
         <f ca="1">C7+C30</f>
-        <v>44361.434715941017</v>
+        <v>44367.702939951669</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="C34" s="150">
         <f ca="1">C7+30</f>
-        <v>44281.873733564818</v>
+        <v>44286.879480439813</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -61874,7 +61874,7 @@
       </c>
       <c r="C35" s="77">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>32280733.167266689</v>
+        <v>32061103.989811085</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -61886,7 +61886,7 @@
       </c>
       <c r="C36" s="77">
         <f ca="1">C35/Projections!B23</f>
-        <v>48421099.75090003</v>
+        <v>48091655.984716624</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -61895,7 +61895,7 @@
       </c>
       <c r="C37" s="77">
         <f ca="1">C35*Projections!B27</f>
-        <v>26147393.865486018</v>
+        <v>25969494.231746979</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="C38" s="77">
         <f ca="1">C35*Projections!B28</f>
-        <v>4519302.643417337</v>
+        <v>4488554.5585735524</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -61913,7 +61913,7 @@
       </c>
       <c r="C39" s="77">
         <f ca="1">C35*Projections!B29</f>
-        <v>1614036.6583633346</v>
+        <v>1603055.1994905544</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -61922,7 +61922,7 @@
       </c>
       <c r="C40" s="60">
         <f ca="1">C35*Projections!B30</f>
-        <v>484210.9975090003</v>
+        <v>480916.55984716624</v>
       </c>
     </row>
   </sheetData>
